--- a/analysis/cfg-case-study/result-summary/energy-analysis/energy_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/energy-analysis/energy_1500_3000_ft.xlsx
@@ -17353,8 +17353,8 @@
   <sheetPr/>
   <dimension ref="A1:AA60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="27" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="27" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/analysis/cfg-case-study/result-summary/energy-analysis/energy_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/energy-analysis/energy_1500_3000_ft.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="1500 ft" sheetId="1" r:id="rId1"/>
@@ -1144,10 +1144,10 @@
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.187235</c:v>
+                  <c:v>1.26099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.104751</c:v>
+                  <c:v>2.096034</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.55039</c:v>
@@ -1165,19 +1165,19 @@
                   <c:v>0.55039</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1567</c:v>
+                  <c:v>0.147982</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.157483</c:v>
+                  <c:v>1.231238</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.187235</c:v>
+                  <c:v>1.26099</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.104751</c:v>
+                  <c:v>2.096034</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1.585685</c:v>
@@ -1189,10 +1189,10 @@
                   <c:v>0.180616</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.155519</c:v>
+                  <c:v>0.146802</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.157483</c:v>
+                  <c:v>1.231238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1297,10 +1297,10 @@
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.141768</c:v>
+                  <c:v>0.785311</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.805163</c:v>
+                  <c:v>1.797259</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.530053</c:v>
@@ -1318,19 +1318,19 @@
                   <c:v>0.530053</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.074229</c:v>
+                  <c:v>0.066325</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.119241</c:v>
+                  <c:v>0.762784</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.141768</c:v>
+                  <c:v>0.785311</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.805163</c:v>
+                  <c:v>1.797259</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1.25196</c:v>
@@ -1342,10 +1342,10 @@
                   <c:v>0.125976</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.073335</c:v>
+                  <c:v>0.065431</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.119241</c:v>
+                  <c:v>0.762784</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1447,58 +1447,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.004173</c:v>
+                  <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.188709</c:v>
+                  <c:v>0.934626</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.153167</c:v>
+                  <c:v>2.277495</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.603786</c:v>
+                  <c:v>0.650071</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.756457</c:v>
+                  <c:v>3.976706</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.05615</c:v>
+                  <c:v>46.372197</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.257493</c:v>
+                  <c:v>1.360603</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.603786</c:v>
+                  <c:v>0.650071</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.151246</c:v>
+                  <c:v>0.138609</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.158723</c:v>
+                  <c:v>0.903235</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.004173</c:v>
+                  <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.188709</c:v>
+                  <c:v>0.934626</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.153167</c:v>
+                  <c:v>2.277495</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.643024</c:v>
+                  <c:v>1.727401</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.240661</c:v>
+                  <c:v>9.307681</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.172619</c:v>
+                  <c:v>0.179164</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.150057</c:v>
+                  <c:v>0.137364</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.158723</c:v>
+                  <c:v>0.903235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2051,10 +2051,10 @@
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.359594</c:v>
+                  <c:v>2.507104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.837276</c:v>
+                  <c:v>2.819842</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.552865</c:v>
@@ -2078,19 +2078,19 @@
                   <c:v>0.552865</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.091789</c:v>
+                  <c:v>0.074355</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.329842</c:v>
+                  <c:v>2.477353</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.359594</c:v>
+                  <c:v>2.507104</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.837276</c:v>
+                  <c:v>2.819842</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1.962046</c:v>
@@ -2102,10 +2102,10 @@
                   <c:v>0.102141</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.097409</c:v>
+                  <c:v>0.079975</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.329842</c:v>
+                  <c:v>2.477353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2216,10 +2216,10 @@
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.272272</c:v>
+                  <c:v>1.559359</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.571291</c:v>
+                  <c:v>2.555484</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.531767</c:v>
@@ -2243,19 +2243,19 @@
                   <c:v>0.531767</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.492503</c:v>
+                  <c:v>0.476696</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.249745</c:v>
+                  <c:v>1.536832</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.272272</c:v>
+                  <c:v>1.559359</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.571291</c:v>
+                  <c:v>2.555484</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1.587904</c:v>
@@ -2267,10 +2267,10 @@
                   <c:v>0.055852</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.496759</c:v>
+                  <c:v>0.480951</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.249745</c:v>
+                  <c:v>1.536832</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2378,64 +2378,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.004173</c:v>
+                  <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.362425</c:v>
+                  <c:v>1.853556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.923309</c:v>
+                  <c:v>3.107146</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.606305</c:v>
+                  <c:v>0.652756</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.293784</c:v>
+                  <c:v>6.677778</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.986</c:v>
+                  <c:v>34.930488</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57.357064</c:v>
+                  <c:v>64.658563</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>83.728128</c:v>
+                  <c:v>94.386638</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.78778</c:v>
+                  <c:v>4.054305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.606305</c:v>
+                  <c:v>0.652756</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.156204</c:v>
+                  <c:v>0.210333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.332439</c:v>
+                  <c:v>1.822165</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.004173</c:v>
+                  <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.362425</c:v>
+                  <c:v>1.853556</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.923309</c:v>
+                  <c:v>3.107146</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.067257</c:v>
+                  <c:v>2.178988</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.933489</c:v>
+                  <c:v>6.688817</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.084095</c:v>
+                  <c:v>0.084923</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.161869</c:v>
+                  <c:v>0.216263</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.332439</c:v>
+                  <c:v>1.822165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2981,10 +2981,10 @@
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.187235</c:v>
+                  <c:v>1.26099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.104751</c:v>
+                  <c:v>2.096034</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.55039</c:v>
@@ -3002,19 +3002,19 @@
                   <c:v>0.55039</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1567</c:v>
+                  <c:v>0.147982</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.157483</c:v>
+                  <c:v>1.231238</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.187235</c:v>
+                  <c:v>1.26099</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.104751</c:v>
+                  <c:v>2.096034</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1.585685</c:v>
@@ -3026,10 +3026,10 @@
                   <c:v>0.180616</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.155519</c:v>
+                  <c:v>0.146802</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.157483</c:v>
+                  <c:v>1.231238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3134,10 +3134,10 @@
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.141768</c:v>
+                  <c:v>0.785311</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.805163</c:v>
+                  <c:v>1.797259</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.530053</c:v>
@@ -3155,19 +3155,19 @@
                   <c:v>0.530053</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.074229</c:v>
+                  <c:v>0.066325</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.119241</c:v>
+                  <c:v>0.762784</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.141768</c:v>
+                  <c:v>0.785311</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.805163</c:v>
+                  <c:v>1.797259</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1.25196</c:v>
@@ -3179,10 +3179,10 @@
                   <c:v>0.125976</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.073335</c:v>
+                  <c:v>0.065431</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.119241</c:v>
+                  <c:v>0.762784</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3284,58 +3284,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.004173</c:v>
+                  <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.188709</c:v>
+                  <c:v>0.934626</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.153167</c:v>
+                  <c:v>2.277495</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.603786</c:v>
+                  <c:v>0.650071</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.756457</c:v>
+                  <c:v>3.976706</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67.543989</c:v>
+                  <c:v>76.289744</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.257493</c:v>
+                  <c:v>1.360603</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.603786</c:v>
+                  <c:v>0.650071</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.151246</c:v>
+                  <c:v>0.138609</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.158723</c:v>
+                  <c:v>0.903235</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.004173</c:v>
+                  <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.188709</c:v>
+                  <c:v>0.934626</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.153167</c:v>
+                  <c:v>2.277495</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.643024</c:v>
+                  <c:v>1.727401</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.240661</c:v>
+                  <c:v>9.307681</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.172619</c:v>
+                  <c:v>0.179164</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.150057</c:v>
+                  <c:v>0.137364</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.158723</c:v>
+                  <c:v>0.903235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3880,10 +3880,10 @@
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.187235</c:v>
+                  <c:v>1.26099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.104751</c:v>
+                  <c:v>2.096034</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.55039</c:v>
@@ -3901,19 +3901,19 @@
                   <c:v>0.55039</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1567</c:v>
+                  <c:v>0.147982</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.157483</c:v>
+                  <c:v>1.231238</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.187235</c:v>
+                  <c:v>1.26099</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.104751</c:v>
+                  <c:v>2.096034</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1.585685</c:v>
@@ -3925,10 +3925,10 @@
                   <c:v>0.180616</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.155519</c:v>
+                  <c:v>0.146802</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.157483</c:v>
+                  <c:v>1.231238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4033,10 +4033,10 @@
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.141768</c:v>
+                  <c:v>0.785311</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.805163</c:v>
+                  <c:v>1.797259</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.530053</c:v>
@@ -4054,19 +4054,19 @@
                   <c:v>0.530053</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.074229</c:v>
+                  <c:v>0.066325</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.119241</c:v>
+                  <c:v>0.762784</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.141768</c:v>
+                  <c:v>0.785311</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.805163</c:v>
+                  <c:v>1.797259</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1.25196</c:v>
@@ -4078,10 +4078,10 @@
                   <c:v>0.125976</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.073335</c:v>
+                  <c:v>0.065431</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.119241</c:v>
+                  <c:v>0.762784</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4183,58 +4183,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.004173</c:v>
+                  <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.188709</c:v>
+                  <c:v>0.934626</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.153167</c:v>
+                  <c:v>2.277495</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.603786</c:v>
+                  <c:v>0.650071</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.756457</c:v>
+                  <c:v>3.976706</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>94.031828</c:v>
+                  <c:v>106.207291</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.257493</c:v>
+                  <c:v>1.360603</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.603786</c:v>
+                  <c:v>0.650071</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.151246</c:v>
+                  <c:v>0.138609</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.158723</c:v>
+                  <c:v>0.903235</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.004173</c:v>
+                  <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.188709</c:v>
+                  <c:v>0.934626</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.153167</c:v>
+                  <c:v>2.277495</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.643024</c:v>
+                  <c:v>1.727401</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.240661</c:v>
+                  <c:v>9.307681</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.172619</c:v>
+                  <c:v>0.179164</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.150057</c:v>
+                  <c:v>0.137364</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.158723</c:v>
+                  <c:v>0.903235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4796,10 +4796,10 @@
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.187235</c:v>
+                  <c:v>1.26099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.104751</c:v>
+                  <c:v>2.096034</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.55039</c:v>
@@ -4823,19 +4823,19 @@
                   <c:v>0.55039</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1567</c:v>
+                  <c:v>0.147982</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.157483</c:v>
+                  <c:v>1.231238</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.187235</c:v>
+                  <c:v>1.26099</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.104751</c:v>
+                  <c:v>2.096034</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1.585685</c:v>
@@ -4847,10 +4847,10 @@
                   <c:v>0.180616</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.155519</c:v>
+                  <c:v>0.146802</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.157483</c:v>
+                  <c:v>1.231238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4961,10 +4961,10 @@
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.141768</c:v>
+                  <c:v>0.785311</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.805163</c:v>
+                  <c:v>1.797259</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.530053</c:v>
@@ -4988,19 +4988,19 @@
                   <c:v>0.530053</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.074229</c:v>
+                  <c:v>0.066325</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.119241</c:v>
+                  <c:v>0.762784</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.141768</c:v>
+                  <c:v>0.785311</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.805163</c:v>
+                  <c:v>1.797259</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1.25196</c:v>
@@ -5012,10 +5012,10 @@
                   <c:v>0.125976</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.073335</c:v>
+                  <c:v>0.065431</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.119241</c:v>
+                  <c:v>0.762784</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5123,64 +5123,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.004173</c:v>
+                  <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.188709</c:v>
+                  <c:v>0.934626</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.153167</c:v>
+                  <c:v>2.277495</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.603786</c:v>
+                  <c:v>0.650071</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.756457</c:v>
+                  <c:v>3.976706</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.05615</c:v>
+                  <c:v>46.372197</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>67.543989</c:v>
+                  <c:v>76.289744</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>94.031828</c:v>
+                  <c:v>106.207291</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.257493</c:v>
+                  <c:v>1.360603</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.603786</c:v>
+                  <c:v>0.650071</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.151246</c:v>
+                  <c:v>0.138609</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.158723</c:v>
+                  <c:v>0.903235</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.004173</c:v>
+                  <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.188709</c:v>
+                  <c:v>0.934626</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.153167</c:v>
+                  <c:v>2.277495</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.643024</c:v>
+                  <c:v>1.727401</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.240661</c:v>
+                  <c:v>9.307681</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.172619</c:v>
+                  <c:v>0.179164</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.150057</c:v>
+                  <c:v>0.137364</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.158723</c:v>
+                  <c:v>0.903235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5728,10 +5728,10 @@
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.359594</c:v>
+                  <c:v>2.507104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.837276</c:v>
+                  <c:v>2.819842</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.552865</c:v>
@@ -5749,19 +5749,19 @@
                   <c:v>0.552865</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.091789</c:v>
+                  <c:v>0.074355</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.329842</c:v>
+                  <c:v>2.477353</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.359594</c:v>
+                  <c:v>2.507104</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.837276</c:v>
+                  <c:v>2.819842</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1.962046</c:v>
@@ -5773,10 +5773,10 @@
                   <c:v>0.102141</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.097409</c:v>
+                  <c:v>0.079975</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.329842</c:v>
+                  <c:v>2.477353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5881,10 +5881,10 @@
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.272272</c:v>
+                  <c:v>1.559359</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.571291</c:v>
+                  <c:v>2.555484</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.531767</c:v>
@@ -5902,19 +5902,19 @@
                   <c:v>0.531767</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.492503</c:v>
+                  <c:v>0.476696</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.249745</c:v>
+                  <c:v>1.536832</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.272272</c:v>
+                  <c:v>1.559359</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.571291</c:v>
+                  <c:v>2.555484</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1.587904</c:v>
@@ -5926,10 +5926,10 @@
                   <c:v>0.055852</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.496759</c:v>
+                  <c:v>0.480951</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.249745</c:v>
+                  <c:v>1.536832</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6031,58 +6031,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.004173</c:v>
+                  <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.362425</c:v>
+                  <c:v>1.853556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.923309</c:v>
+                  <c:v>3.107146</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.606305</c:v>
+                  <c:v>0.652756</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.293784</c:v>
+                  <c:v>6.677778</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.986</c:v>
+                  <c:v>34.930488</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.78778</c:v>
+                  <c:v>4.054305</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.606305</c:v>
+                  <c:v>0.652756</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.156204</c:v>
+                  <c:v>0.210333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.332439</c:v>
+                  <c:v>1.822165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.004173</c:v>
+                  <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.362425</c:v>
+                  <c:v>1.853556</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.923309</c:v>
+                  <c:v>3.107146</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.067257</c:v>
+                  <c:v>2.178988</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.933489</c:v>
+                  <c:v>6.688817</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.084095</c:v>
+                  <c:v>0.084923</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.161869</c:v>
+                  <c:v>0.216263</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.332439</c:v>
+                  <c:v>1.822165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6627,10 +6627,10 @@
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.359594</c:v>
+                  <c:v>2.507104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.837276</c:v>
+                  <c:v>2.819842</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.552865</c:v>
@@ -6648,19 +6648,19 @@
                   <c:v>0.552865</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.091789</c:v>
+                  <c:v>0.074355</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.329842</c:v>
+                  <c:v>2.477353</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.359594</c:v>
+                  <c:v>2.507104</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.837276</c:v>
+                  <c:v>2.819842</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1.962046</c:v>
@@ -6672,10 +6672,10 @@
                   <c:v>0.102141</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.097409</c:v>
+                  <c:v>0.079975</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.329842</c:v>
+                  <c:v>2.477353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6780,10 +6780,10 @@
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.272272</c:v>
+                  <c:v>1.559359</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.571291</c:v>
+                  <c:v>2.555484</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.531767</c:v>
@@ -6801,19 +6801,19 @@
                   <c:v>0.531767</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.492503</c:v>
+                  <c:v>0.476696</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.249745</c:v>
+                  <c:v>1.536832</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.272272</c:v>
+                  <c:v>1.559359</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.571291</c:v>
+                  <c:v>2.555484</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1.587904</c:v>
@@ -6825,10 +6825,10 @@
                   <c:v>0.055852</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.496759</c:v>
+                  <c:v>0.480951</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.249745</c:v>
+                  <c:v>1.536832</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6930,58 +6930,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.004173</c:v>
+                  <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.362425</c:v>
+                  <c:v>1.853556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.923309</c:v>
+                  <c:v>3.107146</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.606305</c:v>
+                  <c:v>0.652756</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.293784</c:v>
+                  <c:v>6.677778</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.357064</c:v>
+                  <c:v>64.658563</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.78778</c:v>
+                  <c:v>4.054305</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.606305</c:v>
+                  <c:v>0.652756</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.156204</c:v>
+                  <c:v>0.210333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.332439</c:v>
+                  <c:v>1.822165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.004173</c:v>
+                  <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.362425</c:v>
+                  <c:v>1.853556</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.923309</c:v>
+                  <c:v>3.107146</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.067257</c:v>
+                  <c:v>2.178988</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.933489</c:v>
+                  <c:v>6.688817</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.084095</c:v>
+                  <c:v>0.084923</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.161869</c:v>
+                  <c:v>0.216263</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.332439</c:v>
+                  <c:v>1.822165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7526,10 +7526,10 @@
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.359594</c:v>
+                  <c:v>2.507104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.837276</c:v>
+                  <c:v>2.819842</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.552865</c:v>
@@ -7547,19 +7547,19 @@
                   <c:v>0.552865</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.091789</c:v>
+                  <c:v>0.074355</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.329842</c:v>
+                  <c:v>2.477353</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.359594</c:v>
+                  <c:v>2.507104</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.837276</c:v>
+                  <c:v>2.819842</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1.962046</c:v>
@@ -7571,10 +7571,10 @@
                   <c:v>0.102141</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.097409</c:v>
+                  <c:v>0.079975</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.329842</c:v>
+                  <c:v>2.477353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7679,10 +7679,10 @@
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.272272</c:v>
+                  <c:v>1.559359</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.571291</c:v>
+                  <c:v>2.555484</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.531767</c:v>
@@ -7700,19 +7700,19 @@
                   <c:v>0.531767</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.492503</c:v>
+                  <c:v>0.476696</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.249745</c:v>
+                  <c:v>1.536832</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.272272</c:v>
+                  <c:v>1.559359</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.571291</c:v>
+                  <c:v>2.555484</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1.587904</c:v>
@@ -7724,10 +7724,10 @@
                   <c:v>0.055852</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.496759</c:v>
+                  <c:v>0.480951</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.249745</c:v>
+                  <c:v>1.536832</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7829,58 +7829,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.004173</c:v>
+                  <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.362425</c:v>
+                  <c:v>1.853556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.923309</c:v>
+                  <c:v>3.107146</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.606305</c:v>
+                  <c:v>0.652756</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.293784</c:v>
+                  <c:v>6.677778</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83.728128</c:v>
+                  <c:v>94.386638</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.78778</c:v>
+                  <c:v>4.054305</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.606305</c:v>
+                  <c:v>0.652756</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.156204</c:v>
+                  <c:v>0.210333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.332439</c:v>
+                  <c:v>1.822165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.004173</c:v>
+                  <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.362425</c:v>
+                  <c:v>1.853556</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.923309</c:v>
+                  <c:v>3.107146</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.067257</c:v>
+                  <c:v>2.178988</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.933489</c:v>
+                  <c:v>6.688817</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.084095</c:v>
+                  <c:v>0.084923</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.161869</c:v>
+                  <c:v>0.216263</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.332439</c:v>
+                  <c:v>1.822165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8432,10 +8432,10 @@
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.359594</c:v>
+                  <c:v>2.507104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.837276</c:v>
+                  <c:v>2.819842</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.552865</c:v>
@@ -8459,19 +8459,19 @@
                   <c:v>0.552865</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.091789</c:v>
+                  <c:v>0.074355</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.329842</c:v>
+                  <c:v>2.477353</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.359594</c:v>
+                  <c:v>2.507104</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.837276</c:v>
+                  <c:v>2.819842</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1.962046</c:v>
@@ -8483,10 +8483,10 @@
                   <c:v>0.102141</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.097409</c:v>
+                  <c:v>0.079975</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.329842</c:v>
+                  <c:v>2.477353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8597,10 +8597,10 @@
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.272272</c:v>
+                  <c:v>1.559359</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.571291</c:v>
+                  <c:v>2.555484</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.531767</c:v>
@@ -8624,19 +8624,19 @@
                   <c:v>0.531767</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.492503</c:v>
+                  <c:v>0.476696</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.249745</c:v>
+                  <c:v>1.536832</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.272272</c:v>
+                  <c:v>1.559359</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.571291</c:v>
+                  <c:v>2.555484</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1.587904</c:v>
@@ -8648,10 +8648,10 @@
                   <c:v>0.055852</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.496759</c:v>
+                  <c:v>0.480951</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.249745</c:v>
+                  <c:v>1.536832</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8759,64 +8759,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.004173</c:v>
+                  <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.362425</c:v>
+                  <c:v>1.853556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.923309</c:v>
+                  <c:v>3.107146</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.606305</c:v>
+                  <c:v>0.652756</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.293784</c:v>
+                  <c:v>6.677778</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.986</c:v>
+                  <c:v>34.930488</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57.357064</c:v>
+                  <c:v>64.658563</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>83.728128</c:v>
+                  <c:v>94.386638</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.78778</c:v>
+                  <c:v>4.054305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.606305</c:v>
+                  <c:v>0.652756</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.156204</c:v>
+                  <c:v>0.210333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.332439</c:v>
+                  <c:v>1.822165</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.004173</c:v>
+                  <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.362425</c:v>
+                  <c:v>1.853556</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.923309</c:v>
+                  <c:v>3.107146</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.067257</c:v>
+                  <c:v>2.178988</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.933489</c:v>
+                  <c:v>6.688817</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.084095</c:v>
+                  <c:v>0.084923</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.161869</c:v>
+                  <c:v>0.216263</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.332439</c:v>
+                  <c:v>1.822165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9378,10 +9378,10 @@
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.187235</c:v>
+                  <c:v>1.26099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.104751</c:v>
+                  <c:v>2.096034</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.55039</c:v>
@@ -9405,19 +9405,19 @@
                   <c:v>0.55039</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1567</c:v>
+                  <c:v>0.147982</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.157483</c:v>
+                  <c:v>1.231238</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.187235</c:v>
+                  <c:v>1.26099</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.104751</c:v>
+                  <c:v>2.096034</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1.585685</c:v>
@@ -9429,10 +9429,10 @@
                   <c:v>0.180616</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.155519</c:v>
+                  <c:v>0.146802</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.157483</c:v>
+                  <c:v>1.231238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9543,10 +9543,10 @@
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.141768</c:v>
+                  <c:v>0.785311</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.805163</c:v>
+                  <c:v>1.797259</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.530053</c:v>
@@ -9570,19 +9570,19 @@
                   <c:v>0.530053</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.074229</c:v>
+                  <c:v>0.066325</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.119241</c:v>
+                  <c:v>0.762784</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.141768</c:v>
+                  <c:v>0.785311</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.805163</c:v>
+                  <c:v>1.797259</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1.25196</c:v>
@@ -9594,10 +9594,10 @@
                   <c:v>0.125976</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.073335</c:v>
+                  <c:v>0.065431</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.119241</c:v>
+                  <c:v>0.762784</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9705,64 +9705,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.004173</c:v>
+                  <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.188709</c:v>
+                  <c:v>0.934626</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.153167</c:v>
+                  <c:v>2.277495</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.603786</c:v>
+                  <c:v>0.650071</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.756457</c:v>
+                  <c:v>3.976706</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.05615</c:v>
+                  <c:v>46.372197</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>67.543989</c:v>
+                  <c:v>76.289744</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>94.031828</c:v>
+                  <c:v>106.207291</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.257493</c:v>
+                  <c:v>1.360603</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.603786</c:v>
+                  <c:v>0.650071</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.151246</c:v>
+                  <c:v>0.138609</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.158723</c:v>
+                  <c:v>0.903235</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.004173</c:v>
+                  <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.188709</c:v>
+                  <c:v>0.934626</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.153167</c:v>
+                  <c:v>2.277495</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.643024</c:v>
+                  <c:v>1.727401</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.240661</c:v>
+                  <c:v>9.307681</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.172619</c:v>
+                  <c:v>0.179164</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.150057</c:v>
+                  <c:v>0.137364</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.158723</c:v>
+                  <c:v>0.903235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16199,8 +16199,8 @@
   <sheetPr/>
   <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O78" sqref="O78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -16296,10 +16296,10 @@
         <v>0.00414</v>
       </c>
       <c r="D2" s="9">
-        <v>0.187235</v>
+        <v>1.26099</v>
       </c>
       <c r="E2" s="9">
-        <v>2.104751</v>
+        <v>2.096034</v>
       </c>
       <c r="F2" s="9">
         <v>0.55039</v>
@@ -16317,19 +16317,19 @@
         <v>0.55039</v>
       </c>
       <c r="K2" s="9">
-        <v>0.1567</v>
+        <v>0.147982</v>
       </c>
       <c r="L2" s="9">
-        <v>0.157483</v>
+        <v>1.231238</v>
       </c>
       <c r="M2" s="9">
         <v>0.00414</v>
       </c>
       <c r="N2" s="9">
-        <v>0.187235</v>
+        <v>1.26099</v>
       </c>
       <c r="O2" s="9">
-        <v>2.104751</v>
+        <v>2.096034</v>
       </c>
       <c r="P2" s="9">
         <v>1.585685</v>
@@ -16341,10 +16341,10 @@
         <v>0.180616</v>
       </c>
       <c r="S2" s="9">
-        <v>0.155519</v>
+        <v>0.146802</v>
       </c>
       <c r="T2" s="23">
-        <v>0.157483</v>
+        <v>1.231238</v>
       </c>
     </row>
     <row r="3" s="8" customFormat="1" spans="1:20">
@@ -16356,10 +16356,10 @@
         <v>0.003135</v>
       </c>
       <c r="D3" s="9">
-        <v>0.141768</v>
+        <v>0.785311</v>
       </c>
       <c r="E3" s="9">
-        <v>1.805163</v>
+        <v>1.797259</v>
       </c>
       <c r="F3" s="9">
         <v>0.530053</v>
@@ -16377,19 +16377,19 @@
         <v>0.530053</v>
       </c>
       <c r="K3" s="9">
-        <v>0.074229</v>
+        <v>0.066325</v>
       </c>
       <c r="L3" s="9">
-        <v>0.119241</v>
+        <v>0.762784</v>
       </c>
       <c r="M3" s="9">
         <v>0.003135</v>
       </c>
       <c r="N3" s="9">
-        <v>0.141768</v>
+        <v>0.785311</v>
       </c>
       <c r="O3" s="9">
-        <v>1.805163</v>
+        <v>1.797259</v>
       </c>
       <c r="P3" s="9">
         <v>1.25196</v>
@@ -16401,10 +16401,10 @@
         <v>0.125976</v>
       </c>
       <c r="S3" s="9">
-        <v>0.073335</v>
+        <v>0.065431</v>
       </c>
       <c r="T3" s="23">
-        <v>0.119241</v>
+        <v>0.762784</v>
       </c>
     </row>
     <row r="4" s="8" customFormat="1" spans="1:20">
@@ -16413,58 +16413,58 @@
         <v>21</v>
       </c>
       <c r="C4" s="9">
-        <v>0.004173</v>
+        <v>0.004368</v>
       </c>
       <c r="D4" s="9">
-        <v>0.188709</v>
+        <v>0.934626</v>
       </c>
       <c r="E4" s="9">
-        <v>2.153167</v>
+        <v>2.277495</v>
       </c>
       <c r="F4" s="9">
-        <v>0.603786</v>
+        <v>0.650071</v>
       </c>
       <c r="G4" s="9">
-        <v>3.756457</v>
+        <v>3.976706</v>
       </c>
       <c r="H4" s="9">
-        <v>41.05615</v>
+        <v>46.372197</v>
       </c>
       <c r="I4" s="9">
-        <v>1.257493</v>
+        <v>1.360603</v>
       </c>
       <c r="J4" s="9">
-        <v>0.603786</v>
+        <v>0.650071</v>
       </c>
       <c r="K4" s="9">
-        <v>0.151246</v>
+        <v>0.138609</v>
       </c>
       <c r="L4" s="9">
-        <v>0.158723</v>
+        <v>0.903235</v>
       </c>
       <c r="M4" s="9">
-        <v>0.004173</v>
+        <v>0.004368</v>
       </c>
       <c r="N4" s="9">
-        <v>0.188709</v>
+        <v>0.934626</v>
       </c>
       <c r="O4" s="9">
-        <v>2.153167</v>
+        <v>2.277495</v>
       </c>
       <c r="P4" s="9">
-        <v>1.643024</v>
+        <v>1.727401</v>
       </c>
       <c r="Q4" s="9">
-        <v>8.240661</v>
+        <v>9.307681</v>
       </c>
       <c r="R4" s="9">
-        <v>0.172619</v>
+        <v>0.179164</v>
       </c>
       <c r="S4" s="9">
-        <v>0.150057</v>
+        <v>0.137364</v>
       </c>
       <c r="T4" s="23">
-        <v>0.158723</v>
+        <v>0.903235</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="2:20">
@@ -16499,10 +16499,10 @@
         <v>0.00414</v>
       </c>
       <c r="D6" s="9">
-        <v>0.187235</v>
+        <v>1.26099</v>
       </c>
       <c r="E6" s="9">
-        <v>2.104751</v>
+        <v>2.096034</v>
       </c>
       <c r="F6" s="9">
         <v>0.55039</v>
@@ -16520,19 +16520,19 @@
         <v>0.55039</v>
       </c>
       <c r="K6" s="9">
-        <v>0.1567</v>
+        <v>0.147982</v>
       </c>
       <c r="L6" s="9">
-        <v>0.157483</v>
+        <v>1.231238</v>
       </c>
       <c r="M6" s="9">
         <v>0.00414</v>
       </c>
       <c r="N6" s="9">
-        <v>0.187235</v>
+        <v>1.26099</v>
       </c>
       <c r="O6" s="9">
-        <v>2.104751</v>
+        <v>2.096034</v>
       </c>
       <c r="P6" s="9">
         <v>1.585685</v>
@@ -16544,10 +16544,10 @@
         <v>0.180616</v>
       </c>
       <c r="S6" s="9">
-        <v>0.155519</v>
+        <v>0.146802</v>
       </c>
       <c r="T6" s="23">
-        <v>0.157483</v>
+        <v>1.231238</v>
       </c>
     </row>
     <row r="7" s="8" customFormat="1" spans="1:20">
@@ -16559,10 +16559,10 @@
         <v>0.003135</v>
       </c>
       <c r="D7" s="9">
-        <v>0.141768</v>
+        <v>0.785311</v>
       </c>
       <c r="E7" s="9">
-        <v>1.805163</v>
+        <v>1.797259</v>
       </c>
       <c r="F7" s="9">
         <v>0.530053</v>
@@ -16580,19 +16580,19 @@
         <v>0.530053</v>
       </c>
       <c r="K7" s="9">
-        <v>0.074229</v>
+        <v>0.066325</v>
       </c>
       <c r="L7" s="9">
-        <v>0.119241</v>
+        <v>0.762784</v>
       </c>
       <c r="M7" s="9">
         <v>0.003135</v>
       </c>
       <c r="N7" s="9">
-        <v>0.141768</v>
+        <v>0.785311</v>
       </c>
       <c r="O7" s="9">
-        <v>1.805163</v>
+        <v>1.797259</v>
       </c>
       <c r="P7" s="9">
         <v>1.25196</v>
@@ -16604,10 +16604,10 @@
         <v>0.125976</v>
       </c>
       <c r="S7" s="9">
-        <v>0.073335</v>
+        <v>0.065431</v>
       </c>
       <c r="T7" s="23">
-        <v>0.119241</v>
+        <v>0.762784</v>
       </c>
     </row>
     <row r="8" s="8" customFormat="1" spans="1:20">
@@ -16616,58 +16616,58 @@
         <v>21</v>
       </c>
       <c r="C8" s="9">
-        <v>0.004173</v>
+        <v>0.004368</v>
       </c>
       <c r="D8" s="9">
-        <v>0.188709</v>
+        <v>0.934626</v>
       </c>
       <c r="E8" s="9">
-        <v>2.153167</v>
+        <v>2.277495</v>
       </c>
       <c r="F8" s="9">
-        <v>0.603786</v>
+        <v>0.650071</v>
       </c>
       <c r="G8" s="9">
-        <v>3.756457</v>
+        <v>3.976706</v>
       </c>
       <c r="H8" s="9">
-        <v>67.543989</v>
+        <v>76.289744</v>
       </c>
       <c r="I8" s="9">
-        <v>1.257493</v>
+        <v>1.360603</v>
       </c>
       <c r="J8" s="9">
-        <v>0.603786</v>
+        <v>0.650071</v>
       </c>
       <c r="K8" s="9">
-        <v>0.151246</v>
+        <v>0.138609</v>
       </c>
       <c r="L8" s="9">
-        <v>0.158723</v>
+        <v>0.903235</v>
       </c>
       <c r="M8" s="9">
-        <v>0.004173</v>
+        <v>0.004368</v>
       </c>
       <c r="N8" s="9">
-        <v>0.188709</v>
+        <v>0.934626</v>
       </c>
       <c r="O8" s="9">
-        <v>2.153167</v>
+        <v>2.277495</v>
       </c>
       <c r="P8" s="9">
-        <v>1.643024</v>
+        <v>1.727401</v>
       </c>
       <c r="Q8" s="9">
-        <v>8.240661</v>
+        <v>9.307681</v>
       </c>
       <c r="R8" s="9">
-        <v>0.172619</v>
+        <v>0.179164</v>
       </c>
       <c r="S8" s="9">
-        <v>0.150057</v>
+        <v>0.137364</v>
       </c>
       <c r="T8" s="23">
-        <v>0.158723</v>
+        <v>0.903235</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:20">
@@ -16681,10 +16681,10 @@
         <v>0.00414</v>
       </c>
       <c r="D10" s="9">
-        <v>0.187235</v>
+        <v>1.26099</v>
       </c>
       <c r="E10" s="9">
-        <v>2.104751</v>
+        <v>2.096034</v>
       </c>
       <c r="F10" s="9">
         <v>0.55039</v>
@@ -16702,19 +16702,19 @@
         <v>0.55039</v>
       </c>
       <c r="K10" s="9">
-        <v>0.1567</v>
+        <v>0.147982</v>
       </c>
       <c r="L10" s="9">
-        <v>0.157483</v>
+        <v>1.231238</v>
       </c>
       <c r="M10" s="9">
         <v>0.00414</v>
       </c>
       <c r="N10" s="9">
-        <v>0.187235</v>
+        <v>1.26099</v>
       </c>
       <c r="O10" s="9">
-        <v>2.104751</v>
+        <v>2.096034</v>
       </c>
       <c r="P10" s="9">
         <v>1.585685</v>
@@ -16726,10 +16726,10 @@
         <v>0.180616</v>
       </c>
       <c r="S10" s="9">
-        <v>0.155519</v>
+        <v>0.146802</v>
       </c>
       <c r="T10" s="23">
-        <v>0.157483</v>
+        <v>1.231238</v>
       </c>
     </row>
     <row r="11" s="8" customFormat="1" spans="1:20">
@@ -16741,10 +16741,10 @@
         <v>0.003135</v>
       </c>
       <c r="D11" s="9">
-        <v>0.141768</v>
+        <v>0.785311</v>
       </c>
       <c r="E11" s="9">
-        <v>1.805163</v>
+        <v>1.797259</v>
       </c>
       <c r="F11" s="9">
         <v>0.530053</v>
@@ -16762,19 +16762,19 @@
         <v>0.530053</v>
       </c>
       <c r="K11" s="9">
-        <v>0.074229</v>
+        <v>0.066325</v>
       </c>
       <c r="L11" s="9">
-        <v>0.119241</v>
+        <v>0.762784</v>
       </c>
       <c r="M11" s="9">
         <v>0.003135</v>
       </c>
       <c r="N11" s="9">
-        <v>0.141768</v>
+        <v>0.785311</v>
       </c>
       <c r="O11" s="9">
-        <v>1.805163</v>
+        <v>1.797259</v>
       </c>
       <c r="P11" s="9">
         <v>1.25196</v>
@@ -16786,10 +16786,10 @@
         <v>0.125976</v>
       </c>
       <c r="S11" s="9">
-        <v>0.073335</v>
+        <v>0.065431</v>
       </c>
       <c r="T11" s="23">
-        <v>0.119241</v>
+        <v>0.762784</v>
       </c>
     </row>
     <row r="12" s="8" customFormat="1" spans="1:20">
@@ -16798,58 +16798,58 @@
         <v>21</v>
       </c>
       <c r="C12" s="9">
-        <v>0.004173</v>
+        <v>0.004368</v>
       </c>
       <c r="D12" s="9">
-        <v>0.188709</v>
+        <v>0.934626</v>
       </c>
       <c r="E12" s="9">
-        <v>2.153167</v>
+        <v>2.277495</v>
       </c>
       <c r="F12" s="9">
-        <v>0.603786</v>
+        <v>0.650071</v>
       </c>
       <c r="G12" s="9">
-        <v>3.756457</v>
+        <v>3.976706</v>
       </c>
       <c r="H12" s="9">
-        <v>94.031828</v>
+        <v>106.207291</v>
       </c>
       <c r="I12" s="9">
-        <v>1.257493</v>
+        <v>1.360603</v>
       </c>
       <c r="J12" s="9">
-        <v>0.603786</v>
+        <v>0.650071</v>
       </c>
       <c r="K12" s="9">
-        <v>0.151246</v>
+        <v>0.138609</v>
       </c>
       <c r="L12" s="9">
-        <v>0.158723</v>
+        <v>0.903235</v>
       </c>
       <c r="M12" s="9">
-        <v>0.004173</v>
+        <v>0.004368</v>
       </c>
       <c r="N12" s="9">
-        <v>0.188709</v>
+        <v>0.934626</v>
       </c>
       <c r="O12" s="9">
-        <v>2.153167</v>
+        <v>2.277495</v>
       </c>
       <c r="P12" s="9">
-        <v>1.643024</v>
+        <v>1.727401</v>
       </c>
       <c r="Q12" s="9">
-        <v>8.240661</v>
+        <v>9.307681</v>
       </c>
       <c r="R12" s="9">
-        <v>0.172619</v>
+        <v>0.179164</v>
       </c>
       <c r="S12" s="9">
-        <v>0.150057</v>
+        <v>0.137364</v>
       </c>
       <c r="T12" s="23">
-        <v>0.158723</v>
+        <v>0.903235</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -16866,7 +16866,7 @@
       </c>
       <c r="C16" s="5">
         <f>SUM(C2:T2)</f>
-        <v>62.166692</v>
+        <v>66.426843</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -16875,7 +16875,7 @@
       </c>
       <c r="C17" s="5">
         <f>SUM(C3:T3)</f>
-        <v>41.94804</v>
+        <v>44.490596</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="C18" s="5">
         <f>SUM(C4:T4)</f>
-        <v>62.644823</v>
+        <v>72.739315</v>
       </c>
     </row>
     <row r="19" spans="3:3">
@@ -16907,7 +16907,7 @@
       </c>
       <c r="C22" s="5">
         <f>SUM(C6:T6)</f>
-        <v>88.83862</v>
+        <v>93.098771</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -16916,7 +16916,7 @@
       </c>
       <c r="C23" s="5">
         <f>SUM(C7:T7)</f>
-        <v>58.736625</v>
+        <v>61.279181</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -16925,7 +16925,7 @@
       </c>
       <c r="C24" s="5">
         <f>SUM(C8:T8)</f>
-        <v>89.132662</v>
+        <v>102.656862</v>
       </c>
     </row>
     <row r="25" spans="3:3">
@@ -16948,7 +16948,7 @@
       </c>
       <c r="C28" s="5">
         <f>SUM(C10:T10)</f>
-        <v>115.510548</v>
+        <v>119.770699</v>
       </c>
     </row>
     <row r="29" spans="2:3">
@@ -16957,7 +16957,7 @@
       </c>
       <c r="C29" s="5">
         <f>SUM(C11:T11)</f>
-        <v>75.525211</v>
+        <v>78.067767</v>
       </c>
     </row>
     <row r="30" spans="2:3">
@@ -16966,7 +16966,7 @@
       </c>
       <c r="C30" s="5">
         <f>SUM(C12:T12)</f>
-        <v>115.620501</v>
+        <v>132.574409</v>
       </c>
     </row>
     <row r="31" spans="3:3">
@@ -17009,7 +17009,7 @@
       </c>
       <c r="W41" s="16">
         <f>C4</f>
-        <v>0.004173</v>
+        <v>0.004368</v>
       </c>
     </row>
     <row r="42" spans="20:23">
@@ -17018,15 +17018,15 @@
       </c>
       <c r="U42" s="9">
         <f>D2</f>
-        <v>0.187235</v>
+        <v>1.26099</v>
       </c>
       <c r="V42" s="9">
         <f>D3</f>
-        <v>0.141768</v>
+        <v>0.785311</v>
       </c>
       <c r="W42" s="16">
         <f>D4</f>
-        <v>0.188709</v>
+        <v>0.934626</v>
       </c>
     </row>
     <row r="43" spans="20:23">
@@ -17035,15 +17035,15 @@
       </c>
       <c r="U43" s="9">
         <f>E2</f>
-        <v>2.104751</v>
+        <v>2.096034</v>
       </c>
       <c r="V43" s="9">
         <f>E3</f>
-        <v>1.805163</v>
+        <v>1.797259</v>
       </c>
       <c r="W43" s="16">
         <f>E4</f>
-        <v>2.153167</v>
+        <v>2.277495</v>
       </c>
     </row>
     <row r="44" spans="20:23">
@@ -17060,7 +17060,7 @@
       </c>
       <c r="W44" s="16">
         <f>F4</f>
-        <v>0.603786</v>
+        <v>0.650071</v>
       </c>
     </row>
     <row r="45" spans="20:23">
@@ -17077,7 +17077,7 @@
       </c>
       <c r="W45" s="16">
         <f>G4</f>
-        <v>3.756457</v>
+        <v>3.976706</v>
       </c>
     </row>
     <row r="46" spans="20:23">
@@ -17094,7 +17094,7 @@
       </c>
       <c r="W46" s="19">
         <f>H4</f>
-        <v>41.05615</v>
+        <v>46.372197</v>
       </c>
     </row>
     <row r="47" spans="20:23">
@@ -17111,7 +17111,7 @@
       </c>
       <c r="W47" s="19">
         <f>H8</f>
-        <v>67.543989</v>
+        <v>76.289744</v>
       </c>
     </row>
     <row r="48" spans="20:23">
@@ -17128,7 +17128,7 @@
       </c>
       <c r="W48" s="19">
         <f>H12</f>
-        <v>94.031828</v>
+        <v>106.207291</v>
       </c>
     </row>
     <row r="49" spans="20:23">
@@ -17145,7 +17145,7 @@
       </c>
       <c r="W49" s="16">
         <f>I4</f>
-        <v>1.257493</v>
+        <v>1.360603</v>
       </c>
     </row>
     <row r="50" spans="20:23">
@@ -17162,7 +17162,7 @@
       </c>
       <c r="W50" s="16">
         <f>J4</f>
-        <v>0.603786</v>
+        <v>0.650071</v>
       </c>
     </row>
     <row r="51" spans="20:23">
@@ -17171,15 +17171,15 @@
       </c>
       <c r="U51" s="9">
         <f>K2</f>
-        <v>0.1567</v>
+        <v>0.147982</v>
       </c>
       <c r="V51" s="9">
         <f>K3</f>
-        <v>0.074229</v>
+        <v>0.066325</v>
       </c>
       <c r="W51" s="16">
         <f>K4</f>
-        <v>0.151246</v>
+        <v>0.138609</v>
       </c>
     </row>
     <row r="52" spans="20:23">
@@ -17188,15 +17188,15 @@
       </c>
       <c r="U52" s="9">
         <f>L2</f>
-        <v>0.157483</v>
+        <v>1.231238</v>
       </c>
       <c r="V52" s="9">
         <f>L3</f>
-        <v>0.119241</v>
+        <v>0.762784</v>
       </c>
       <c r="W52" s="16">
         <f>L4</f>
-        <v>0.158723</v>
+        <v>0.903235</v>
       </c>
     </row>
     <row r="53" spans="20:23">
@@ -17213,7 +17213,7 @@
       </c>
       <c r="W53" s="16">
         <f>M4</f>
-        <v>0.004173</v>
+        <v>0.004368</v>
       </c>
     </row>
     <row r="54" spans="20:23">
@@ -17222,15 +17222,15 @@
       </c>
       <c r="U54" s="9">
         <f>N2</f>
-        <v>0.187235</v>
+        <v>1.26099</v>
       </c>
       <c r="V54" s="9">
         <f>N3</f>
-        <v>0.141768</v>
+        <v>0.785311</v>
       </c>
       <c r="W54" s="16">
         <f>N4</f>
-        <v>0.188709</v>
+        <v>0.934626</v>
       </c>
     </row>
     <row r="55" spans="20:23">
@@ -17239,15 +17239,15 @@
       </c>
       <c r="U55" s="9">
         <f>O2</f>
-        <v>2.104751</v>
+        <v>2.096034</v>
       </c>
       <c r="V55" s="9">
         <f>O3</f>
-        <v>1.805163</v>
+        <v>1.797259</v>
       </c>
       <c r="W55" s="16">
         <f>O4</f>
-        <v>2.153167</v>
+        <v>2.277495</v>
       </c>
     </row>
     <row r="56" spans="20:23">
@@ -17264,7 +17264,7 @@
       </c>
       <c r="W56" s="16">
         <f>P4</f>
-        <v>1.643024</v>
+        <v>1.727401</v>
       </c>
     </row>
     <row r="57" spans="20:23">
@@ -17281,7 +17281,7 @@
       </c>
       <c r="W57" s="16">
         <f>Q4</f>
-        <v>8.240661</v>
+        <v>9.307681</v>
       </c>
     </row>
     <row r="58" spans="20:23">
@@ -17298,7 +17298,7 @@
       </c>
       <c r="W58" s="16">
         <f>R4</f>
-        <v>0.172619</v>
+        <v>0.179164</v>
       </c>
     </row>
     <row r="59" spans="20:23">
@@ -17307,15 +17307,15 @@
       </c>
       <c r="U59" s="9">
         <f>S2</f>
-        <v>0.155519</v>
+        <v>0.146802</v>
       </c>
       <c r="V59" s="9">
         <f>S3</f>
-        <v>0.073335</v>
+        <v>0.065431</v>
       </c>
       <c r="W59" s="16">
         <f>S4</f>
-        <v>0.150057</v>
+        <v>0.137364</v>
       </c>
     </row>
     <row r="60" spans="20:23">
@@ -17324,15 +17324,15 @@
       </c>
       <c r="U60" s="21">
         <f>T2</f>
-        <v>0.157483</v>
+        <v>1.231238</v>
       </c>
       <c r="V60" s="21">
         <f>T3</f>
-        <v>0.119241</v>
+        <v>0.762784</v>
       </c>
       <c r="W60" s="22">
         <f>T4</f>
-        <v>0.158723</v>
+        <v>0.903235</v>
       </c>
     </row>
   </sheetData>
@@ -17353,8 +17353,8 @@
   <sheetPr/>
   <dimension ref="A1:AA60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="27" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="27" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -17452,10 +17452,10 @@
         <v>0.00414</v>
       </c>
       <c r="D2" s="9">
-        <v>0.359594</v>
+        <v>2.507104</v>
       </c>
       <c r="E2" s="9">
-        <v>2.837276</v>
+        <v>2.819842</v>
       </c>
       <c r="F2" s="9">
         <v>0.552865</v>
@@ -17473,19 +17473,19 @@
         <v>0.552865</v>
       </c>
       <c r="K2" s="9">
-        <v>0.091789</v>
+        <v>0.074355</v>
       </c>
       <c r="L2" s="9">
-        <v>0.329842</v>
+        <v>2.477353</v>
       </c>
       <c r="M2" s="9">
         <v>0.00414</v>
       </c>
       <c r="N2" s="9">
-        <v>0.359594</v>
+        <v>2.507104</v>
       </c>
       <c r="O2" s="9">
-        <v>2.837276</v>
+        <v>2.819842</v>
       </c>
       <c r="P2" s="9">
         <v>1.962046</v>
@@ -17497,10 +17497,10 @@
         <v>0.102141</v>
       </c>
       <c r="S2" s="9">
-        <v>0.097409</v>
+        <v>0.079975</v>
       </c>
       <c r="T2" s="9">
-        <v>0.329842</v>
+        <v>2.477353</v>
       </c>
     </row>
     <row r="3" s="8" customFormat="1" spans="1:20">
@@ -17512,10 +17512,10 @@
         <v>0.003135</v>
       </c>
       <c r="D3" s="9">
-        <v>0.272272</v>
+        <v>1.559359</v>
       </c>
       <c r="E3" s="9">
-        <v>2.571291</v>
+        <v>2.555484</v>
       </c>
       <c r="F3" s="9">
         <v>0.531767</v>
@@ -17533,19 +17533,19 @@
         <v>0.531767</v>
       </c>
       <c r="K3" s="9">
-        <v>0.492503</v>
+        <v>0.476696</v>
       </c>
       <c r="L3" s="9">
-        <v>0.249745</v>
+        <v>1.536832</v>
       </c>
       <c r="M3" s="9">
         <v>0.003135</v>
       </c>
       <c r="N3" s="9">
-        <v>0.272272</v>
+        <v>1.559359</v>
       </c>
       <c r="O3" s="9">
-        <v>2.571291</v>
+        <v>2.555484</v>
       </c>
       <c r="P3" s="9">
         <v>1.587904</v>
@@ -17557,10 +17557,10 @@
         <v>0.055852</v>
       </c>
       <c r="S3" s="9">
-        <v>0.496759</v>
+        <v>0.480951</v>
       </c>
       <c r="T3" s="9">
-        <v>0.249745</v>
+        <v>1.536832</v>
       </c>
     </row>
     <row r="4" s="8" customFormat="1" spans="1:20">
@@ -17569,58 +17569,58 @@
         <v>21</v>
       </c>
       <c r="C4" s="9">
-        <v>0.004173</v>
+        <v>0.004368</v>
       </c>
       <c r="D4" s="9">
-        <v>0.362425</v>
+        <v>1.853556</v>
       </c>
       <c r="E4" s="9">
-        <v>2.923309</v>
+        <v>3.107146</v>
       </c>
       <c r="F4" s="9">
-        <v>0.606305</v>
+        <v>0.652756</v>
       </c>
       <c r="G4" s="9">
-        <v>6.293784</v>
+        <v>6.677778</v>
       </c>
       <c r="H4" s="9">
-        <v>30.986</v>
+        <v>34.930488</v>
       </c>
       <c r="I4" s="9">
-        <v>3.78778</v>
+        <v>4.054305</v>
       </c>
       <c r="J4" s="9">
-        <v>0.606305</v>
+        <v>0.652756</v>
       </c>
       <c r="K4" s="9">
-        <v>0.156204</v>
+        <v>0.210333</v>
       </c>
       <c r="L4" s="9">
-        <v>0.332439</v>
+        <v>1.822165</v>
       </c>
       <c r="M4" s="9">
-        <v>0.004173</v>
+        <v>0.004368</v>
       </c>
       <c r="N4" s="9">
-        <v>0.362425</v>
+        <v>1.853556</v>
       </c>
       <c r="O4" s="9">
-        <v>2.923309</v>
+        <v>3.107146</v>
       </c>
       <c r="P4" s="9">
-        <v>2.067257</v>
+        <v>2.178988</v>
       </c>
       <c r="Q4" s="9">
-        <v>5.933489</v>
+        <v>6.688817</v>
       </c>
       <c r="R4" s="9">
-        <v>0.084095</v>
+        <v>0.084923</v>
       </c>
       <c r="S4" s="9">
-        <v>0.161869</v>
+        <v>0.216263</v>
       </c>
       <c r="T4" s="9">
-        <v>0.332439</v>
+        <v>1.822165</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="2:20">
@@ -17655,10 +17655,10 @@
         <v>0.00414</v>
       </c>
       <c r="D6" s="9">
-        <v>0.359594</v>
+        <v>2.507104</v>
       </c>
       <c r="E6" s="9">
-        <v>2.837276</v>
+        <v>2.819842</v>
       </c>
       <c r="F6" s="9">
         <v>0.552865</v>
@@ -17676,19 +17676,19 @@
         <v>0.552865</v>
       </c>
       <c r="K6" s="9">
-        <v>0.091789</v>
+        <v>0.074355</v>
       </c>
       <c r="L6" s="9">
-        <v>0.329842</v>
+        <v>2.477353</v>
       </c>
       <c r="M6" s="9">
         <v>0.00414</v>
       </c>
       <c r="N6" s="9">
-        <v>0.359594</v>
+        <v>2.507104</v>
       </c>
       <c r="O6" s="9">
-        <v>2.837276</v>
+        <v>2.819842</v>
       </c>
       <c r="P6" s="9">
         <v>1.962046</v>
@@ -17700,10 +17700,10 @@
         <v>0.102141</v>
       </c>
       <c r="S6" s="9">
-        <v>0.097409</v>
+        <v>0.079975</v>
       </c>
       <c r="T6" s="9">
-        <v>0.329842</v>
+        <v>2.477353</v>
       </c>
     </row>
     <row r="7" s="8" customFormat="1" spans="1:20">
@@ -17715,10 +17715,10 @@
         <v>0.003135</v>
       </c>
       <c r="D7" s="9">
-        <v>0.272272</v>
+        <v>1.559359</v>
       </c>
       <c r="E7" s="9">
-        <v>2.571291</v>
+        <v>2.555484</v>
       </c>
       <c r="F7" s="9">
         <v>0.531767</v>
@@ -17736,19 +17736,19 @@
         <v>0.531767</v>
       </c>
       <c r="K7" s="9">
-        <v>0.492503</v>
+        <v>0.476696</v>
       </c>
       <c r="L7" s="9">
-        <v>0.249745</v>
+        <v>1.536832</v>
       </c>
       <c r="M7" s="9">
         <v>0.003135</v>
       </c>
       <c r="N7" s="9">
-        <v>0.272272</v>
+        <v>1.559359</v>
       </c>
       <c r="O7" s="9">
-        <v>2.571291</v>
+        <v>2.555484</v>
       </c>
       <c r="P7" s="9">
         <v>1.587904</v>
@@ -17760,10 +17760,10 @@
         <v>0.055852</v>
       </c>
       <c r="S7" s="9">
-        <v>0.496759</v>
+        <v>0.480951</v>
       </c>
       <c r="T7" s="9">
-        <v>0.249745</v>
+        <v>1.536832</v>
       </c>
     </row>
     <row r="8" s="8" customFormat="1" spans="1:20">
@@ -17772,58 +17772,58 @@
         <v>21</v>
       </c>
       <c r="C8" s="9">
-        <v>0.004173</v>
+        <v>0.004368</v>
       </c>
       <c r="D8" s="9">
-        <v>0.362425</v>
+        <v>1.853556</v>
       </c>
       <c r="E8" s="9">
-        <v>2.923309</v>
+        <v>3.107146</v>
       </c>
       <c r="F8" s="9">
-        <v>0.606305</v>
+        <v>0.652756</v>
       </c>
       <c r="G8" s="9">
-        <v>6.293784</v>
+        <v>6.677778</v>
       </c>
       <c r="H8" s="9">
-        <v>57.357064</v>
+        <v>64.658563</v>
       </c>
       <c r="I8" s="9">
-        <v>3.78778</v>
+        <v>4.054305</v>
       </c>
       <c r="J8" s="9">
-        <v>0.606305</v>
+        <v>0.652756</v>
       </c>
       <c r="K8" s="9">
-        <v>0.156204</v>
+        <v>0.210333</v>
       </c>
       <c r="L8" s="9">
-        <v>0.332439</v>
+        <v>1.822165</v>
       </c>
       <c r="M8" s="9">
-        <v>0.004173</v>
+        <v>0.004368</v>
       </c>
       <c r="N8" s="9">
-        <v>0.362425</v>
+        <v>1.853556</v>
       </c>
       <c r="O8" s="9">
-        <v>2.923309</v>
+        <v>3.107146</v>
       </c>
       <c r="P8" s="9">
-        <v>2.067257</v>
+        <v>2.178988</v>
       </c>
       <c r="Q8" s="9">
-        <v>5.933489</v>
+        <v>6.688817</v>
       </c>
       <c r="R8" s="9">
-        <v>0.084095</v>
+        <v>0.084923</v>
       </c>
       <c r="S8" s="9">
-        <v>0.161869</v>
+        <v>0.216263</v>
       </c>
       <c r="T8" s="9">
-        <v>0.332439</v>
+        <v>1.822165</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:20">
@@ -17837,10 +17837,10 @@
         <v>0.00414</v>
       </c>
       <c r="D10" s="9">
-        <v>0.359594</v>
+        <v>2.507104</v>
       </c>
       <c r="E10" s="9">
-        <v>2.837276</v>
+        <v>2.819842</v>
       </c>
       <c r="F10" s="9">
         <v>0.552865</v>
@@ -17858,19 +17858,19 @@
         <v>0.552865</v>
       </c>
       <c r="K10" s="9">
-        <v>0.091789</v>
+        <v>0.074355</v>
       </c>
       <c r="L10" s="9">
-        <v>0.329842</v>
+        <v>2.477353</v>
       </c>
       <c r="M10" s="9">
         <v>0.00414</v>
       </c>
       <c r="N10" s="9">
-        <v>0.359594</v>
+        <v>2.507104</v>
       </c>
       <c r="O10" s="9">
-        <v>2.837276</v>
+        <v>2.819842</v>
       </c>
       <c r="P10" s="9">
         <v>1.962046</v>
@@ -17882,10 +17882,10 @@
         <v>0.102141</v>
       </c>
       <c r="S10" s="9">
-        <v>0.097409</v>
+        <v>0.079975</v>
       </c>
       <c r="T10" s="9">
-        <v>0.329842</v>
+        <v>2.477353</v>
       </c>
     </row>
     <row r="11" s="8" customFormat="1" spans="1:20">
@@ -17897,10 +17897,10 @@
         <v>0.003135</v>
       </c>
       <c r="D11" s="9">
-        <v>0.272272</v>
+        <v>1.559359</v>
       </c>
       <c r="E11" s="9">
-        <v>2.571291</v>
+        <v>2.555484</v>
       </c>
       <c r="F11" s="9">
         <v>0.531767</v>
@@ -17918,19 +17918,19 @@
         <v>0.531767</v>
       </c>
       <c r="K11" s="9">
-        <v>0.492503</v>
+        <v>0.476696</v>
       </c>
       <c r="L11" s="9">
-        <v>0.249745</v>
+        <v>1.536832</v>
       </c>
       <c r="M11" s="9">
         <v>0.003135</v>
       </c>
       <c r="N11" s="9">
-        <v>0.272272</v>
+        <v>1.559359</v>
       </c>
       <c r="O11" s="9">
-        <v>2.571291</v>
+        <v>2.555484</v>
       </c>
       <c r="P11" s="9">
         <v>1.587904</v>
@@ -17942,10 +17942,10 @@
         <v>0.055852</v>
       </c>
       <c r="S11" s="9">
-        <v>0.496759</v>
+        <v>0.480951</v>
       </c>
       <c r="T11" s="9">
-        <v>0.249745</v>
+        <v>1.536832</v>
       </c>
     </row>
     <row r="12" s="8" customFormat="1" spans="1:20">
@@ -17954,58 +17954,58 @@
         <v>21</v>
       </c>
       <c r="C12" s="9">
-        <v>0.004173</v>
+        <v>0.004368</v>
       </c>
       <c r="D12" s="9">
-        <v>0.362425</v>
+        <v>1.853556</v>
       </c>
       <c r="E12" s="9">
-        <v>2.923309</v>
+        <v>3.107146</v>
       </c>
       <c r="F12" s="9">
-        <v>0.606305</v>
+        <v>0.652756</v>
       </c>
       <c r="G12" s="9">
-        <v>6.293784</v>
+        <v>6.677778</v>
       </c>
       <c r="H12" s="9">
-        <v>83.728128</v>
+        <v>94.386638</v>
       </c>
       <c r="I12" s="9">
-        <v>3.78778</v>
+        <v>4.054305</v>
       </c>
       <c r="J12" s="9">
-        <v>0.606305</v>
+        <v>0.652756</v>
       </c>
       <c r="K12" s="9">
-        <v>0.156204</v>
+        <v>0.210333</v>
       </c>
       <c r="L12" s="9">
-        <v>0.332439</v>
+        <v>1.822165</v>
       </c>
       <c r="M12" s="9">
-        <v>0.004173</v>
+        <v>0.004368</v>
       </c>
       <c r="N12" s="9">
-        <v>0.362425</v>
+        <v>1.853556</v>
       </c>
       <c r="O12" s="9">
-        <v>2.923309</v>
+        <v>3.107146</v>
       </c>
       <c r="P12" s="9">
-        <v>2.067257</v>
+        <v>2.178988</v>
       </c>
       <c r="Q12" s="9">
-        <v>5.933489</v>
+        <v>6.688817</v>
       </c>
       <c r="R12" s="9">
-        <v>0.084095</v>
+        <v>0.084923</v>
       </c>
       <c r="S12" s="9">
-        <v>0.161869</v>
+        <v>0.216263</v>
       </c>
       <c r="T12" s="9">
-        <v>0.332439</v>
+        <v>1.822165</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -18022,7 +18022,7 @@
       </c>
       <c r="C16" s="5">
         <f>SUM(C2:T2)</f>
-        <v>56.265254</v>
+        <v>64.78556</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -18031,7 +18031,7 @@
       </c>
       <c r="C17" s="5">
         <f>SUM(C3:T3)</f>
-        <v>41.522147</v>
+        <v>46.607266</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -18040,7 +18040,7 @@
       </c>
       <c r="C18" s="5">
         <f>SUM(C4:T4)</f>
-        <v>57.92778</v>
+        <v>69.921877</v>
       </c>
     </row>
     <row r="19" spans="3:3">
@@ -18063,7 +18063,7 @@
       </c>
       <c r="C22" s="5">
         <f t="shared" ref="C22:C24" si="0">SUM(C6:T6)</f>
-        <v>82.629798</v>
+        <v>91.150104</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -18072,7 +18072,7 @@
       </c>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
-        <v>58.408147</v>
+        <v>63.493266</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -18081,7 +18081,7 @@
       </c>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
-        <v>84.298844</v>
+        <v>99.649952</v>
       </c>
     </row>
     <row r="25" spans="3:3">
@@ -18104,7 +18104,7 @@
       </c>
       <c r="C28" s="5">
         <f t="shared" ref="C28:C30" si="1">SUM(C10:T10)</f>
-        <v>108.994342</v>
+        <v>117.514648</v>
       </c>
     </row>
     <row r="29" spans="2:3">
@@ -18113,7 +18113,7 @@
       </c>
       <c r="C29" s="5">
         <f t="shared" si="1"/>
-        <v>75.294146</v>
+        <v>80.379265</v>
       </c>
     </row>
     <row r="30" spans="2:3">
@@ -18122,7 +18122,7 @@
       </c>
       <c r="C30" s="5">
         <f t="shared" si="1"/>
-        <v>110.669908</v>
+        <v>129.378027</v>
       </c>
     </row>
     <row r="31" spans="3:3">
@@ -18165,7 +18165,7 @@
       </c>
       <c r="W41" s="16">
         <f>C4</f>
-        <v>0.004173</v>
+        <v>0.004368</v>
       </c>
       <c r="Y41" s="9"/>
       <c r="Z41" s="9"/>
@@ -18177,15 +18177,15 @@
       </c>
       <c r="U42" s="9">
         <f>D2</f>
-        <v>0.359594</v>
+        <v>2.507104</v>
       </c>
       <c r="V42" s="9">
         <f>D3</f>
-        <v>0.272272</v>
+        <v>1.559359</v>
       </c>
       <c r="W42" s="16">
         <f>D4</f>
-        <v>0.362425</v>
+        <v>1.853556</v>
       </c>
       <c r="Y42" s="9"/>
       <c r="Z42" s="9"/>
@@ -18197,15 +18197,15 @@
       </c>
       <c r="U43" s="9">
         <f>E2</f>
-        <v>2.837276</v>
+        <v>2.819842</v>
       </c>
       <c r="V43" s="9">
         <f>E3</f>
-        <v>2.571291</v>
+        <v>2.555484</v>
       </c>
       <c r="W43" s="16">
         <f>E4</f>
-        <v>2.923309</v>
+        <v>3.107146</v>
       </c>
       <c r="Y43" s="9"/>
       <c r="Z43" s="9"/>
@@ -18225,7 +18225,7 @@
       </c>
       <c r="W44" s="16">
         <f>F4</f>
-        <v>0.606305</v>
+        <v>0.652756</v>
       </c>
       <c r="Y44" s="9"/>
       <c r="Z44" s="9"/>
@@ -18245,7 +18245,7 @@
       </c>
       <c r="W45" s="16">
         <f>G4</f>
-        <v>6.293784</v>
+        <v>6.677778</v>
       </c>
       <c r="Y45" s="9"/>
       <c r="Z45" s="9"/>
@@ -18265,7 +18265,7 @@
       </c>
       <c r="W46" s="19">
         <f>H4</f>
-        <v>30.986</v>
+        <v>34.930488</v>
       </c>
       <c r="Y46" s="9"/>
       <c r="Z46" s="9"/>
@@ -18285,7 +18285,7 @@
       </c>
       <c r="W47" s="19">
         <f>H8</f>
-        <v>57.357064</v>
+        <v>64.658563</v>
       </c>
       <c r="Y47" s="9"/>
       <c r="Z47" s="9"/>
@@ -18305,7 +18305,7 @@
       </c>
       <c r="W48" s="19">
         <f>H12</f>
-        <v>83.728128</v>
+        <v>94.386638</v>
       </c>
       <c r="Y48" s="9"/>
       <c r="Z48" s="9"/>
@@ -18325,7 +18325,7 @@
       </c>
       <c r="W49" s="16">
         <f>I4</f>
-        <v>3.78778</v>
+        <v>4.054305</v>
       </c>
       <c r="Y49" s="9"/>
       <c r="Z49" s="9"/>
@@ -18345,7 +18345,7 @@
       </c>
       <c r="W50" s="16">
         <f>J4</f>
-        <v>0.606305</v>
+        <v>0.652756</v>
       </c>
       <c r="Y50" s="9"/>
       <c r="Z50" s="9"/>
@@ -18357,15 +18357,15 @@
       </c>
       <c r="U51" s="9">
         <f>K2</f>
-        <v>0.091789</v>
+        <v>0.074355</v>
       </c>
       <c r="V51" s="9">
         <f>K3</f>
-        <v>0.492503</v>
+        <v>0.476696</v>
       </c>
       <c r="W51" s="16">
         <f>K4</f>
-        <v>0.156204</v>
+        <v>0.210333</v>
       </c>
       <c r="Y51" s="9"/>
       <c r="Z51" s="9"/>
@@ -18377,15 +18377,15 @@
       </c>
       <c r="U52" s="9">
         <f>L2</f>
-        <v>0.329842</v>
+        <v>2.477353</v>
       </c>
       <c r="V52" s="9">
         <f>L3</f>
-        <v>0.249745</v>
+        <v>1.536832</v>
       </c>
       <c r="W52" s="16">
         <f>L4</f>
-        <v>0.332439</v>
+        <v>1.822165</v>
       </c>
       <c r="Y52" s="9"/>
       <c r="Z52" s="9"/>
@@ -18405,7 +18405,7 @@
       </c>
       <c r="W53" s="16">
         <f>M4</f>
-        <v>0.004173</v>
+        <v>0.004368</v>
       </c>
       <c r="Y53" s="9"/>
       <c r="Z53" s="9"/>
@@ -18417,15 +18417,15 @@
       </c>
       <c r="U54" s="9">
         <f>N2</f>
-        <v>0.359594</v>
+        <v>2.507104</v>
       </c>
       <c r="V54" s="9">
         <f>N3</f>
-        <v>0.272272</v>
+        <v>1.559359</v>
       </c>
       <c r="W54" s="16">
         <f>N4</f>
-        <v>0.362425</v>
+        <v>1.853556</v>
       </c>
       <c r="Y54" s="9"/>
       <c r="Z54" s="9"/>
@@ -18437,15 +18437,15 @@
       </c>
       <c r="U55" s="9">
         <f>O2</f>
-        <v>2.837276</v>
+        <v>2.819842</v>
       </c>
       <c r="V55" s="9">
         <f>O3</f>
-        <v>2.571291</v>
+        <v>2.555484</v>
       </c>
       <c r="W55" s="16">
         <f>O4</f>
-        <v>2.923309</v>
+        <v>3.107146</v>
       </c>
       <c r="Y55" s="9"/>
       <c r="Z55" s="9"/>
@@ -18465,7 +18465,7 @@
       </c>
       <c r="W56" s="16">
         <f>P4</f>
-        <v>2.067257</v>
+        <v>2.178988</v>
       </c>
       <c r="Y56" s="9"/>
       <c r="Z56" s="9"/>
@@ -18485,7 +18485,7 @@
       </c>
       <c r="W57" s="16">
         <f>Q4</f>
-        <v>5.933489</v>
+        <v>6.688817</v>
       </c>
       <c r="Y57" s="9"/>
       <c r="Z57" s="9"/>
@@ -18505,7 +18505,7 @@
       </c>
       <c r="W58" s="16">
         <f>R4</f>
-        <v>0.084095</v>
+        <v>0.084923</v>
       </c>
       <c r="Y58" s="9"/>
       <c r="Z58" s="9"/>
@@ -18517,15 +18517,15 @@
       </c>
       <c r="U59" s="9">
         <f>S2</f>
-        <v>0.097409</v>
+        <v>0.079975</v>
       </c>
       <c r="V59" s="9">
         <f>S3</f>
-        <v>0.496759</v>
+        <v>0.480951</v>
       </c>
       <c r="W59" s="16">
         <f>S4</f>
-        <v>0.161869</v>
+        <v>0.216263</v>
       </c>
       <c r="Y59" s="9"/>
       <c r="Z59" s="9"/>
@@ -18537,15 +18537,15 @@
       </c>
       <c r="U60" s="21">
         <f>T2</f>
-        <v>0.329842</v>
+        <v>2.477353</v>
       </c>
       <c r="V60" s="21">
         <f>T3</f>
-        <v>0.249745</v>
+        <v>1.536832</v>
       </c>
       <c r="W60" s="22">
         <f>T4</f>
-        <v>0.332439</v>
+        <v>1.822165</v>
       </c>
       <c r="Y60" s="9"/>
       <c r="Z60" s="9"/>
@@ -18570,8 +18570,8 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AF38" sqref="AF38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -18611,15 +18611,15 @@
       </c>
       <c r="C3" s="5">
         <f>'1500 ft'!C16</f>
-        <v>62.166692</v>
+        <v>66.426843</v>
       </c>
       <c r="D3" s="5">
         <f>'3000 ft'!C16</f>
-        <v>56.265254</v>
+        <v>64.78556</v>
       </c>
       <c r="E3" s="6">
         <f>1-D3/C3</f>
-        <v>0.0949292589028221</v>
+        <v>0.0247081289110791</v>
       </c>
       <c r="F3" s="7"/>
     </row>
@@ -18630,15 +18630,15 @@
       </c>
       <c r="C4" s="5">
         <f>'1500 ft'!C17</f>
-        <v>41.94804</v>
+        <v>44.490596</v>
       </c>
       <c r="D4" s="5">
         <f>'3000 ft'!C17</f>
-        <v>41.522147</v>
+        <v>46.607266</v>
       </c>
       <c r="E4" s="6">
         <f>1-D4/C4</f>
-        <v>0.0101528700745019</v>
+        <v>-0.0475756719464939</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -18648,15 +18648,15 @@
       </c>
       <c r="C5" s="5">
         <f>'1500 ft'!C18</f>
-        <v>62.644823</v>
+        <v>72.739315</v>
       </c>
       <c r="D5" s="5">
         <f>'3000 ft'!C18</f>
-        <v>57.92778</v>
+        <v>69.921877</v>
       </c>
       <c r="E5" s="6">
         <f>1-D5/C5</f>
-        <v>0.0752982093987239</v>
+        <v>0.0387333589820034</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -18675,15 +18675,15 @@
       </c>
       <c r="C7" s="5">
         <f>'1500 ft'!C22</f>
-        <v>88.83862</v>
+        <v>93.098771</v>
       </c>
       <c r="D7" s="5">
         <f>'3000 ft'!C22</f>
-        <v>82.629798</v>
+        <v>91.150104</v>
       </c>
       <c r="E7" s="6">
         <f>1-D7/C7</f>
-        <v>0.0698887713474161</v>
+        <v>0.0209311785651825</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -18693,15 +18693,15 @@
       </c>
       <c r="C8" s="5">
         <f>'1500 ft'!C23</f>
-        <v>58.736625</v>
+        <v>61.279181</v>
       </c>
       <c r="D8" s="5">
         <f>'3000 ft'!C23</f>
-        <v>58.408147</v>
+        <v>63.493266</v>
       </c>
       <c r="E8" s="6">
         <f>1-D8/C8</f>
-        <v>0.00559238805430207</v>
+        <v>-0.0361311127836383</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -18711,15 +18711,15 @@
       </c>
       <c r="C9" s="5">
         <f>'1500 ft'!C24</f>
-        <v>89.132662</v>
+        <v>102.656862</v>
       </c>
       <c r="D9" s="5">
         <f>'3000 ft'!C24</f>
-        <v>84.298844</v>
+        <v>99.649952</v>
       </c>
       <c r="E9" s="6">
         <f>1-D9/C9</f>
-        <v>0.0542317248417868</v>
+        <v>0.0292908816947862</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -18738,15 +18738,15 @@
       </c>
       <c r="C11" s="5">
         <f>'1500 ft'!C28</f>
-        <v>115.510548</v>
+        <v>119.770699</v>
       </c>
       <c r="D11" s="5">
         <f>'3000 ft'!C28</f>
-        <v>108.994342</v>
+        <v>117.514648</v>
       </c>
       <c r="E11" s="6">
         <f>1-D11/C11</f>
-        <v>0.0564122161380447</v>
+        <v>0.0188364184131549</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -18756,15 +18756,15 @@
       </c>
       <c r="C12" s="5">
         <f>'1500 ft'!C29</f>
-        <v>75.525211</v>
+        <v>78.067767</v>
       </c>
       <c r="D12" s="5">
         <f>'3000 ft'!C29</f>
-        <v>75.294146</v>
+        <v>80.379265</v>
       </c>
       <c r="E12" s="6">
         <f>1-D12/C12</f>
-        <v>0.00305944196567653</v>
+        <v>-0.0296088653336279</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -18774,15 +18774,15 @@
       </c>
       <c r="C13" s="5">
         <f>'1500 ft'!C30</f>
-        <v>115.620501</v>
+        <v>132.574409</v>
       </c>
       <c r="D13" s="5">
         <f>'3000 ft'!C30</f>
-        <v>110.669908</v>
+        <v>129.378027</v>
       </c>
       <c r="E13" s="6">
         <f>1-D13/C13</f>
-        <v>0.0428176055040619</v>
+        <v>0.0241100980506724</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/cfg-case-study/result-summary/energy-analysis/energy_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/energy-analysis/energy_1500_3000_ft.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="27948" windowHeight="12240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1500 ft" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="33">
   <si>
     <t>Depart Taxi</t>
   </si>
@@ -126,19 +148,23 @@
   <si>
     <t>3000 ft</t>
   </si>
+  <si>
+    <t>Mission Profile</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.0000_ "/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +175,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -298,12 +330,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -498,7 +536,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -527,7 +565,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -542,8 +582,23 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -551,8 +606,25 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -584,6 +656,35 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -702,16 +803,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -720,37 +818,37 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -765,74 +863,77 @@
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -856,7 +957,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -865,35 +966,191 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -15878,16 +16135,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>118110</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>33020</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>715645</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>233680</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>139065</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>394970</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>18415</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -15895,7 +16152,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="118110" y="2593340"/>
+        <a:off x="12892405" y="95250"/>
         <a:ext cx="8747125" cy="4678045"/>
       </xdr:xfrm>
       <a:graphic>
@@ -15908,16 +16165,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>453390</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>29845</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>772160</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>56515</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>6985</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>451485</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>180340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -15925,7 +16182,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9084945" y="2590165"/>
+        <a:off x="12948920" y="5140960"/>
         <a:ext cx="8747125" cy="4732020"/>
       </xdr:xfrm>
       <a:graphic>
@@ -16199,8 +16456,8 @@
   <sheetPr/>
   <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O78" sqref="O78"/>
+    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -16292,58 +16549,58 @@
       <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="65">
         <v>0.00414</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="65">
         <v>1.26099</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="65">
         <v>2.096034</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="65">
         <v>0.55039</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="65">
         <v>3.460097</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="65">
         <v>41.341488</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="65">
         <v>0.980656</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="65">
         <v>0.55039</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="65">
         <v>0.147982</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="65">
         <v>1.231238</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="65">
         <v>0.00414</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="65">
         <v>1.26099</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="65">
         <v>2.096034</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="65">
         <v>1.585685</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="65">
         <v>8.297933</v>
       </c>
-      <c r="R2" s="9">
+      <c r="R2" s="65">
         <v>0.180616</v>
       </c>
-      <c r="S2" s="9">
+      <c r="S2" s="65">
         <v>0.146802</v>
       </c>
-      <c r="T2" s="23">
+      <c r="T2" s="75">
         <v>1.231238</v>
       </c>
     </row>
@@ -16352,58 +16609,58 @@
       <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="65">
         <v>0.003135</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="65">
         <v>0.785311</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="65">
         <v>1.797259</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="65">
         <v>0.530053</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="65">
         <v>2.927872</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="65">
         <v>26.022308</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="65">
         <v>1.050524</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="65">
         <v>0.530053</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="65">
         <v>0.066325</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="65">
         <v>0.762784</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="65">
         <v>0.003135</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="65">
         <v>0.785311</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="65">
         <v>1.797259</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="65">
         <v>1.25196</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="65">
         <v>5.223116</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="65">
         <v>0.125976</v>
       </c>
-      <c r="S3" s="9">
+      <c r="S3" s="65">
         <v>0.065431</v>
       </c>
-      <c r="T3" s="23">
+      <c r="T3" s="75">
         <v>0.762784</v>
       </c>
     </row>
@@ -16412,58 +16669,58 @@
       <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="65">
         <v>0.004368</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="65">
         <v>0.934626</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="65">
         <v>2.277495</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="65">
         <v>0.650071</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="65">
         <v>3.976706</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="65">
         <v>46.372197</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="65">
         <v>1.360603</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="65">
         <v>0.650071</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="65">
         <v>0.138609</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="65">
         <v>0.903235</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="65">
         <v>0.004368</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="65">
         <v>0.934626</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="65">
         <v>2.277495</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="65">
         <v>1.727401</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="65">
         <v>9.307681</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="65">
         <v>0.179164</v>
       </c>
-      <c r="S4" s="9">
+      <c r="S4" s="65">
         <v>0.137364</v>
       </c>
-      <c r="T4" s="23">
+      <c r="T4" s="75">
         <v>0.903235</v>
       </c>
     </row>
@@ -16495,58 +16752,58 @@
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="65">
         <v>0.00414</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="65">
         <v>1.26099</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="65">
         <v>2.096034</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="65">
         <v>0.55039</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="65">
         <v>3.460097</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="65">
         <v>68.013416</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="65">
         <v>0.980656</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="65">
         <v>0.55039</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="65">
         <v>0.147982</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="65">
         <v>1.231238</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="65">
         <v>0.00414</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="65">
         <v>1.26099</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="65">
         <v>2.096034</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="65">
         <v>1.585685</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="65">
         <v>8.297933</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="65">
         <v>0.180616</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="65">
         <v>0.146802</v>
       </c>
-      <c r="T6" s="23">
+      <c r="T6" s="75">
         <v>1.231238</v>
       </c>
     </row>
@@ -16555,58 +16812,58 @@
       <c r="B7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="65">
         <v>0.003135</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="65">
         <v>0.785311</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="65">
         <v>1.797259</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="65">
         <v>0.530053</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="65">
         <v>2.927872</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="65">
         <v>42.810893</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="65">
         <v>1.050524</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="65">
         <v>0.530053</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="65">
         <v>0.066325</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="65">
         <v>0.762784</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="65">
         <v>0.003135</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="65">
         <v>0.785311</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="65">
         <v>1.797259</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="65">
         <v>1.25196</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="65">
         <v>5.223116</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="65">
         <v>0.125976</v>
       </c>
-      <c r="S7" s="9">
+      <c r="S7" s="65">
         <v>0.065431</v>
       </c>
-      <c r="T7" s="23">
+      <c r="T7" s="75">
         <v>0.762784</v>
       </c>
     </row>
@@ -16615,58 +16872,58 @@
       <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="65">
         <v>0.004368</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="65">
         <v>0.934626</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="65">
         <v>2.277495</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="65">
         <v>0.650071</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="65">
         <v>3.976706</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="65">
         <v>76.289744</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="65">
         <v>1.360603</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="65">
         <v>0.650071</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="65">
         <v>0.138609</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="65">
         <v>0.903235</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="65">
         <v>0.004368</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="65">
         <v>0.934626</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="65">
         <v>2.277495</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="65">
         <v>1.727401</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="65">
         <v>9.307681</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="65">
         <v>0.179164</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S8" s="65">
         <v>0.137364</v>
       </c>
-      <c r="T8" s="23">
+      <c r="T8" s="75">
         <v>0.903235</v>
       </c>
     </row>
@@ -16677,58 +16934,58 @@
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="65">
         <v>0.00414</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="65">
         <v>1.26099</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="65">
         <v>2.096034</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="65">
         <v>0.55039</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="65">
         <v>3.460097</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="65">
         <v>94.685344</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="65">
         <v>0.980656</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="65">
         <v>0.55039</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="65">
         <v>0.147982</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="65">
         <v>1.231238</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="65">
         <v>0.00414</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="65">
         <v>1.26099</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="65">
         <v>2.096034</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="65">
         <v>1.585685</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="65">
         <v>8.297933</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10" s="65">
         <v>0.180616</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S10" s="65">
         <v>0.146802</v>
       </c>
-      <c r="T10" s="23">
+      <c r="T10" s="75">
         <v>1.231238</v>
       </c>
     </row>
@@ -16737,58 +16994,58 @@
       <c r="B11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="65">
         <v>0.003135</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="65">
         <v>0.785311</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="65">
         <v>1.797259</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="65">
         <v>0.530053</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="65">
         <v>2.927872</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="65">
         <v>59.599479</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="65">
         <v>1.050524</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="65">
         <v>0.530053</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="65">
         <v>0.066325</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="65">
         <v>0.762784</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="65">
         <v>0.003135</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="65">
         <v>0.785311</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="65">
         <v>1.797259</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="65">
         <v>1.25196</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="65">
         <v>5.223116</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="65">
         <v>0.125976</v>
       </c>
-      <c r="S11" s="9">
+      <c r="S11" s="65">
         <v>0.065431</v>
       </c>
-      <c r="T11" s="23">
+      <c r="T11" s="75">
         <v>0.762784</v>
       </c>
     </row>
@@ -16797,58 +17054,58 @@
       <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="65">
         <v>0.004368</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="65">
         <v>0.934626</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="65">
         <v>2.277495</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="65">
         <v>0.650071</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="65">
         <v>3.976706</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="65">
         <v>106.207291</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="65">
         <v>1.360603</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="65">
         <v>0.650071</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="65">
         <v>0.138609</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="65">
         <v>0.903235</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="65">
         <v>0.004368</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="65">
         <v>0.934626</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="65">
         <v>2.277495</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="65">
         <v>1.727401</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="65">
         <v>9.307681</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="65">
         <v>0.179164</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12" s="65">
         <v>0.137364</v>
       </c>
-      <c r="T12" s="23">
+      <c r="T12" s="75">
         <v>0.903235</v>
       </c>
     </row>
@@ -16976,361 +17233,361 @@
       <c r="C32" s="5"/>
     </row>
     <row r="39" spans="20:23">
-      <c r="T39" s="10" t="s">
+      <c r="T39" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="U39" s="11"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="12"/>
+      <c r="U39" s="67"/>
+      <c r="V39" s="67"/>
+      <c r="W39" s="68"/>
     </row>
     <row r="40" spans="20:23">
-      <c r="T40" s="13"/>
+      <c r="T40" s="69"/>
       <c r="U40" s="2" t="s">
         <v>19</v>
       </c>
       <c r="V40" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="W40" s="14" t="s">
+      <c r="W40" s="70" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="41" spans="20:23">
-      <c r="T41" s="15" t="s">
+      <c r="T41" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="U41" s="9">
+      <c r="U41" s="65">
         <f>C2</f>
         <v>0.00414</v>
       </c>
-      <c r="V41" s="9">
+      <c r="V41" s="65">
         <f>C3</f>
         <v>0.003135</v>
       </c>
-      <c r="W41" s="16">
+      <c r="W41" s="71">
         <f>C4</f>
         <v>0.004368</v>
       </c>
     </row>
     <row r="42" spans="20:23">
-      <c r="T42" s="15" t="s">
+      <c r="T42" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="U42" s="9">
+      <c r="U42" s="65">
         <f>D2</f>
         <v>1.26099</v>
       </c>
-      <c r="V42" s="9">
+      <c r="V42" s="65">
         <f>D3</f>
         <v>0.785311</v>
       </c>
-      <c r="W42" s="16">
+      <c r="W42" s="71">
         <f>D4</f>
         <v>0.934626</v>
       </c>
     </row>
     <row r="43" spans="20:23">
-      <c r="T43" s="15" t="s">
+      <c r="T43" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="U43" s="9">
+      <c r="U43" s="65">
         <f>E2</f>
         <v>2.096034</v>
       </c>
-      <c r="V43" s="9">
+      <c r="V43" s="65">
         <f>E3</f>
         <v>1.797259</v>
       </c>
-      <c r="W43" s="16">
+      <c r="W43" s="71">
         <f>E4</f>
         <v>2.277495</v>
       </c>
     </row>
     <row r="44" spans="20:23">
-      <c r="T44" s="15" t="s">
+      <c r="T44" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="U44" s="9">
+      <c r="U44" s="65">
         <f>F2</f>
         <v>0.55039</v>
       </c>
-      <c r="V44" s="9">
+      <c r="V44" s="65">
         <f>F3</f>
         <v>0.530053</v>
       </c>
-      <c r="W44" s="16">
+      <c r="W44" s="71">
         <f>F4</f>
         <v>0.650071</v>
       </c>
     </row>
     <row r="45" spans="20:23">
-      <c r="T45" s="15" t="s">
+      <c r="T45" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="U45" s="9">
+      <c r="U45" s="65">
         <f>G2</f>
         <v>3.460097</v>
       </c>
-      <c r="V45" s="9">
+      <c r="V45" s="65">
         <f>G3</f>
         <v>2.927872</v>
       </c>
-      <c r="W45" s="16">
+      <c r="W45" s="71">
         <f>G4</f>
         <v>3.976706</v>
       </c>
     </row>
     <row r="46" spans="20:23">
-      <c r="T46" s="17" t="s">
+      <c r="T46" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="U46" s="18">
+      <c r="U46" s="72">
         <f>H2</f>
         <v>41.341488</v>
       </c>
-      <c r="V46" s="18">
+      <c r="V46" s="72">
         <f>H3</f>
         <v>26.022308</v>
       </c>
-      <c r="W46" s="19">
+      <c r="W46" s="73">
         <f>H4</f>
         <v>46.372197</v>
       </c>
     </row>
     <row r="47" spans="20:23">
-      <c r="T47" s="17" t="s">
+      <c r="T47" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="U47" s="18">
+      <c r="U47" s="72">
         <f>H6</f>
         <v>68.013416</v>
       </c>
-      <c r="V47" s="18">
+      <c r="V47" s="72">
         <f>H7</f>
         <v>42.810893</v>
       </c>
-      <c r="W47" s="19">
+      <c r="W47" s="73">
         <f>H8</f>
         <v>76.289744</v>
       </c>
     </row>
     <row r="48" spans="20:23">
-      <c r="T48" s="17" t="s">
+      <c r="T48" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="U48" s="18">
+      <c r="U48" s="72">
         <f>H10</f>
         <v>94.685344</v>
       </c>
-      <c r="V48" s="18">
+      <c r="V48" s="72">
         <f>H11</f>
         <v>59.599479</v>
       </c>
-      <c r="W48" s="19">
+      <c r="W48" s="73">
         <f>H12</f>
         <v>106.207291</v>
       </c>
     </row>
     <row r="49" spans="20:23">
-      <c r="T49" s="15" t="s">
+      <c r="T49" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="U49" s="9">
+      <c r="U49" s="65">
         <f>I2</f>
         <v>0.980656</v>
       </c>
-      <c r="V49" s="9">
+      <c r="V49" s="65">
         <f>I3</f>
         <v>1.050524</v>
       </c>
-      <c r="W49" s="16">
+      <c r="W49" s="71">
         <f>I4</f>
         <v>1.360603</v>
       </c>
     </row>
     <row r="50" spans="20:23">
-      <c r="T50" s="15" t="s">
+      <c r="T50" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="U50" s="9">
+      <c r="U50" s="65">
         <f>J2</f>
         <v>0.55039</v>
       </c>
-      <c r="V50" s="9">
+      <c r="V50" s="65">
         <f>J3</f>
         <v>0.530053</v>
       </c>
-      <c r="W50" s="16">
+      <c r="W50" s="71">
         <f>J4</f>
         <v>0.650071</v>
       </c>
     </row>
     <row r="51" spans="20:23">
-      <c r="T51" s="15" t="s">
+      <c r="T51" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="U51" s="9">
+      <c r="U51" s="65">
         <f>K2</f>
         <v>0.147982</v>
       </c>
-      <c r="V51" s="9">
+      <c r="V51" s="65">
         <f>K3</f>
         <v>0.066325</v>
       </c>
-      <c r="W51" s="16">
+      <c r="W51" s="71">
         <f>K4</f>
         <v>0.138609</v>
       </c>
     </row>
     <row r="52" spans="20:23">
-      <c r="T52" s="15" t="s">
+      <c r="T52" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="U52" s="9">
+      <c r="U52" s="65">
         <f>L2</f>
         <v>1.231238</v>
       </c>
-      <c r="V52" s="9">
+      <c r="V52" s="65">
         <f>L3</f>
         <v>0.762784</v>
       </c>
-      <c r="W52" s="16">
+      <c r="W52" s="71">
         <f>L4</f>
         <v>0.903235</v>
       </c>
     </row>
     <row r="53" spans="20:23">
-      <c r="T53" s="15" t="s">
+      <c r="T53" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="U53" s="9">
+      <c r="U53" s="65">
         <f>M2</f>
         <v>0.00414</v>
       </c>
-      <c r="V53" s="9">
+      <c r="V53" s="65">
         <f>M3</f>
         <v>0.003135</v>
       </c>
-      <c r="W53" s="16">
+      <c r="W53" s="71">
         <f>M4</f>
         <v>0.004368</v>
       </c>
     </row>
     <row r="54" spans="20:23">
-      <c r="T54" s="15" t="s">
+      <c r="T54" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="U54" s="9">
+      <c r="U54" s="65">
         <f>N2</f>
         <v>1.26099</v>
       </c>
-      <c r="V54" s="9">
+      <c r="V54" s="65">
         <f>N3</f>
         <v>0.785311</v>
       </c>
-      <c r="W54" s="16">
+      <c r="W54" s="71">
         <f>N4</f>
         <v>0.934626</v>
       </c>
     </row>
     <row r="55" spans="20:23">
-      <c r="T55" s="15" t="s">
+      <c r="T55" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="U55" s="9">
+      <c r="U55" s="65">
         <f>O2</f>
         <v>2.096034</v>
       </c>
-      <c r="V55" s="9">
+      <c r="V55" s="65">
         <f>O3</f>
         <v>1.797259</v>
       </c>
-      <c r="W55" s="16">
+      <c r="W55" s="71">
         <f>O4</f>
         <v>2.277495</v>
       </c>
     </row>
     <row r="56" spans="20:23">
-      <c r="T56" s="15" t="s">
+      <c r="T56" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="U56" s="9">
+      <c r="U56" s="65">
         <f>P2</f>
         <v>1.585685</v>
       </c>
-      <c r="V56" s="9">
+      <c r="V56" s="65">
         <f>P3</f>
         <v>1.25196</v>
       </c>
-      <c r="W56" s="16">
+      <c r="W56" s="71">
         <f>P4</f>
         <v>1.727401</v>
       </c>
     </row>
     <row r="57" spans="20:23">
-      <c r="T57" s="15" t="s">
+      <c r="T57" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="U57" s="9">
+      <c r="U57" s="65">
         <f>Q2</f>
         <v>8.297933</v>
       </c>
-      <c r="V57" s="9">
+      <c r="V57" s="65">
         <f>Q3</f>
         <v>5.223116</v>
       </c>
-      <c r="W57" s="16">
+      <c r="W57" s="71">
         <f>Q4</f>
         <v>9.307681</v>
       </c>
     </row>
     <row r="58" spans="20:23">
-      <c r="T58" s="15" t="s">
+      <c r="T58" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="U58" s="9">
+      <c r="U58" s="65">
         <f>R2</f>
         <v>0.180616</v>
       </c>
-      <c r="V58" s="9">
+      <c r="V58" s="65">
         <f>R3</f>
         <v>0.125976</v>
       </c>
-      <c r="W58" s="16">
+      <c r="W58" s="71">
         <f>R4</f>
         <v>0.179164</v>
       </c>
     </row>
     <row r="59" spans="20:23">
-      <c r="T59" s="15" t="s">
+      <c r="T59" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="U59" s="9">
+      <c r="U59" s="65">
         <f>S2</f>
         <v>0.146802</v>
       </c>
-      <c r="V59" s="9">
+      <c r="V59" s="65">
         <f>S3</f>
         <v>0.065431</v>
       </c>
-      <c r="W59" s="16">
+      <c r="W59" s="71">
         <f>S4</f>
         <v>0.137364</v>
       </c>
     </row>
     <row r="60" spans="20:23">
-      <c r="T60" s="20" t="s">
+      <c r="T60" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="U60" s="21">
+      <c r="U60" s="63">
         <f>T2</f>
         <v>1.231238</v>
       </c>
-      <c r="V60" s="21">
+      <c r="V60" s="63">
         <f>T3</f>
         <v>0.762784</v>
       </c>
-      <c r="W60" s="22">
+      <c r="W60" s="74">
         <f>T4</f>
         <v>0.903235</v>
       </c>
@@ -17353,8 +17610,8 @@
   <sheetPr/>
   <dimension ref="A1:AA60"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="27" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="27" workbookViewId="0">
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -17448,58 +17705,58 @@
       <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="65">
         <v>0.00414</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="65">
         <v>2.507104</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="65">
         <v>2.819842</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="65">
         <v>0.552865</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="65">
         <v>5.71025</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="65">
         <v>30.978339</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="65">
         <v>3.223824</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="65">
         <v>0.552865</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="65">
         <v>0.074355</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="65">
         <v>2.477353</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="65">
         <v>0.00414</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="65">
         <v>2.507104</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="65">
         <v>2.819842</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="65">
         <v>1.962046</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="65">
         <v>5.932022</v>
       </c>
-      <c r="R2" s="9">
+      <c r="R2" s="65">
         <v>0.102141</v>
       </c>
-      <c r="S2" s="9">
+      <c r="S2" s="65">
         <v>0.079975</v>
       </c>
-      <c r="T2" s="9">
+      <c r="T2" s="65">
         <v>2.477353</v>
       </c>
     </row>
@@ -17508,58 +17765,58 @@
       <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="65">
         <v>0.003135</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="65">
         <v>1.559359</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="65">
         <v>2.555484</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="65">
         <v>0.531767</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="65">
         <v>4.937473</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="65">
         <v>19.841049</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="65">
         <v>3.054837</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="65">
         <v>0.531767</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="65">
         <v>0.476696</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="65">
         <v>1.536832</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="65">
         <v>0.003135</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="65">
         <v>1.559359</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="65">
         <v>2.555484</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="65">
         <v>1.587904</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="65">
         <v>3.79935</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="65">
         <v>0.055852</v>
       </c>
-      <c r="S3" s="9">
+      <c r="S3" s="65">
         <v>0.480951</v>
       </c>
-      <c r="T3" s="9">
+      <c r="T3" s="65">
         <v>1.536832</v>
       </c>
     </row>
@@ -17568,58 +17825,58 @@
       <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="65">
         <v>0.004368</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="65">
         <v>1.853556</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="65">
         <v>3.107146</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="65">
         <v>0.652756</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="65">
         <v>6.677778</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="65">
         <v>34.930488</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="65">
         <v>4.054305</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="65">
         <v>0.652756</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="65">
         <v>0.210333</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="65">
         <v>1.822165</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="65">
         <v>0.004368</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="65">
         <v>1.853556</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="65">
         <v>3.107146</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="65">
         <v>2.178988</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="65">
         <v>6.688817</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="65">
         <v>0.084923</v>
       </c>
-      <c r="S4" s="9">
+      <c r="S4" s="65">
         <v>0.216263</v>
       </c>
-      <c r="T4" s="9">
+      <c r="T4" s="65">
         <v>1.822165</v>
       </c>
     </row>
@@ -17651,58 +17908,58 @@
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="65">
         <v>0.00414</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="65">
         <v>2.507104</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="65">
         <v>2.819842</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="65">
         <v>0.552865</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="65">
         <v>5.71025</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="65">
         <v>57.342883</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="65">
         <v>3.223824</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="65">
         <v>0.552865</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="65">
         <v>0.074355</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="65">
         <v>2.477353</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="65">
         <v>0.00414</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="65">
         <v>2.507104</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="65">
         <v>2.819842</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="65">
         <v>1.962046</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="65">
         <v>5.932022</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="65">
         <v>0.102141</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="65">
         <v>0.079975</v>
       </c>
-      <c r="T6" s="9">
+      <c r="T6" s="65">
         <v>2.477353</v>
       </c>
     </row>
@@ -17711,58 +17968,58 @@
       <c r="B7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="65">
         <v>0.003135</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="65">
         <v>1.559359</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="65">
         <v>2.555484</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="65">
         <v>0.531767</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="65">
         <v>4.937473</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="65">
         <v>36.727049</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="65">
         <v>3.054837</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="65">
         <v>0.531767</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="65">
         <v>0.476696</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="65">
         <v>1.536832</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="65">
         <v>0.003135</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="65">
         <v>1.559359</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="65">
         <v>2.555484</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="65">
         <v>1.587904</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="65">
         <v>3.79935</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="65">
         <v>0.055852</v>
       </c>
-      <c r="S7" s="9">
+      <c r="S7" s="65">
         <v>0.480951</v>
       </c>
-      <c r="T7" s="9">
+      <c r="T7" s="65">
         <v>1.536832</v>
       </c>
     </row>
@@ -17771,58 +18028,58 @@
       <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="65">
         <v>0.004368</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="65">
         <v>1.853556</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="65">
         <v>3.107146</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="65">
         <v>0.652756</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="65">
         <v>6.677778</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="65">
         <v>64.658563</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="65">
         <v>4.054305</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="65">
         <v>0.652756</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="65">
         <v>0.210333</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="65">
         <v>1.822165</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="65">
         <v>0.004368</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="65">
         <v>1.853556</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="65">
         <v>3.107146</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="65">
         <v>2.178988</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="65">
         <v>6.688817</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="65">
         <v>0.084923</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S8" s="65">
         <v>0.216263</v>
       </c>
-      <c r="T8" s="9">
+      <c r="T8" s="65">
         <v>1.822165</v>
       </c>
     </row>
@@ -17833,58 +18090,58 @@
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="65">
         <v>0.00414</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="65">
         <v>2.507104</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="65">
         <v>2.819842</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="65">
         <v>0.552865</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="65">
         <v>5.71025</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="65">
         <v>83.707427</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="65">
         <v>3.223824</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="65">
         <v>0.552865</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="65">
         <v>0.074355</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="65">
         <v>2.477353</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="65">
         <v>0.00414</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="65">
         <v>2.507104</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="65">
         <v>2.819842</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="65">
         <v>1.962046</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="65">
         <v>5.932022</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10" s="65">
         <v>0.102141</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S10" s="65">
         <v>0.079975</v>
       </c>
-      <c r="T10" s="9">
+      <c r="T10" s="65">
         <v>2.477353</v>
       </c>
     </row>
@@ -17893,58 +18150,58 @@
       <c r="B11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="65">
         <v>0.003135</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="65">
         <v>1.559359</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="65">
         <v>2.555484</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="65">
         <v>0.531767</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="65">
         <v>4.937473</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="65">
         <v>53.613048</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="65">
         <v>3.054837</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="65">
         <v>0.531767</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="65">
         <v>0.476696</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="65">
         <v>1.536832</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="65">
         <v>0.003135</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="65">
         <v>1.559359</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="65">
         <v>2.555484</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="65">
         <v>1.587904</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="65">
         <v>3.79935</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="65">
         <v>0.055852</v>
       </c>
-      <c r="S11" s="9">
+      <c r="S11" s="65">
         <v>0.480951</v>
       </c>
-      <c r="T11" s="9">
+      <c r="T11" s="65">
         <v>1.536832</v>
       </c>
     </row>
@@ -17953,58 +18210,58 @@
       <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="65">
         <v>0.004368</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="65">
         <v>1.853556</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="65">
         <v>3.107146</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="65">
         <v>0.652756</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="65">
         <v>6.677778</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="65">
         <v>94.386638</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="65">
         <v>4.054305</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="65">
         <v>0.652756</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="65">
         <v>0.210333</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="65">
         <v>1.822165</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="65">
         <v>0.004368</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="65">
         <v>1.853556</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="65">
         <v>3.107146</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="65">
         <v>2.178988</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="65">
         <v>6.688817</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="65">
         <v>0.084923</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12" s="65">
         <v>0.216263</v>
       </c>
-      <c r="T12" s="9">
+      <c r="T12" s="65">
         <v>1.822165</v>
       </c>
     </row>
@@ -18132,424 +18389,424 @@
       <c r="C32" s="5"/>
     </row>
     <row r="39" spans="20:23">
-      <c r="T39" s="10" t="s">
+      <c r="T39" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="U39" s="11"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="12"/>
+      <c r="U39" s="67"/>
+      <c r="V39" s="67"/>
+      <c r="W39" s="68"/>
     </row>
     <row r="40" spans="20:23">
-      <c r="T40" s="13"/>
+      <c r="T40" s="69"/>
       <c r="U40" s="2" t="s">
         <v>19</v>
       </c>
       <c r="V40" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="W40" s="14" t="s">
+      <c r="W40" s="70" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="41" spans="20:27">
-      <c r="T41" s="15" t="s">
+      <c r="T41" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="U41" s="9">
+      <c r="U41" s="65">
         <f>C2</f>
         <v>0.00414</v>
       </c>
-      <c r="V41" s="9">
+      <c r="V41" s="65">
         <f>C3</f>
         <v>0.003135</v>
       </c>
-      <c r="W41" s="16">
+      <c r="W41" s="71">
         <f>C4</f>
         <v>0.004368</v>
       </c>
-      <c r="Y41" s="9"/>
-      <c r="Z41" s="9"/>
-      <c r="AA41" s="9"/>
+      <c r="Y41" s="65"/>
+      <c r="Z41" s="65"/>
+      <c r="AA41" s="65"/>
     </row>
     <row r="42" spans="20:27">
-      <c r="T42" s="15" t="s">
+      <c r="T42" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="U42" s="9">
+      <c r="U42" s="65">
         <f>D2</f>
         <v>2.507104</v>
       </c>
-      <c r="V42" s="9">
+      <c r="V42" s="65">
         <f>D3</f>
         <v>1.559359</v>
       </c>
-      <c r="W42" s="16">
+      <c r="W42" s="71">
         <f>D4</f>
         <v>1.853556</v>
       </c>
-      <c r="Y42" s="9"/>
-      <c r="Z42" s="9"/>
-      <c r="AA42" s="9"/>
+      <c r="Y42" s="65"/>
+      <c r="Z42" s="65"/>
+      <c r="AA42" s="65"/>
     </row>
     <row r="43" spans="20:27">
-      <c r="T43" s="15" t="s">
+      <c r="T43" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="U43" s="9">
+      <c r="U43" s="65">
         <f>E2</f>
         <v>2.819842</v>
       </c>
-      <c r="V43" s="9">
+      <c r="V43" s="65">
         <f>E3</f>
         <v>2.555484</v>
       </c>
-      <c r="W43" s="16">
+      <c r="W43" s="71">
         <f>E4</f>
         <v>3.107146</v>
       </c>
-      <c r="Y43" s="9"/>
-      <c r="Z43" s="9"/>
-      <c r="AA43" s="9"/>
+      <c r="Y43" s="65"/>
+      <c r="Z43" s="65"/>
+      <c r="AA43" s="65"/>
     </row>
     <row r="44" spans="20:27">
-      <c r="T44" s="15" t="s">
+      <c r="T44" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="U44" s="9">
+      <c r="U44" s="65">
         <f>F2</f>
         <v>0.552865</v>
       </c>
-      <c r="V44" s="9">
+      <c r="V44" s="65">
         <f>F3</f>
         <v>0.531767</v>
       </c>
-      <c r="W44" s="16">
+      <c r="W44" s="71">
         <f>F4</f>
         <v>0.652756</v>
       </c>
-      <c r="Y44" s="9"/>
-      <c r="Z44" s="9"/>
-      <c r="AA44" s="9"/>
+      <c r="Y44" s="65"/>
+      <c r="Z44" s="65"/>
+      <c r="AA44" s="65"/>
     </row>
     <row r="45" spans="20:27">
-      <c r="T45" s="15" t="s">
+      <c r="T45" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="U45" s="9">
+      <c r="U45" s="65">
         <f>G2</f>
         <v>5.71025</v>
       </c>
-      <c r="V45" s="9">
+      <c r="V45" s="65">
         <f>G3</f>
         <v>4.937473</v>
       </c>
-      <c r="W45" s="16">
+      <c r="W45" s="71">
         <f>G4</f>
         <v>6.677778</v>
       </c>
-      <c r="Y45" s="9"/>
-      <c r="Z45" s="9"/>
-      <c r="AA45" s="9"/>
+      <c r="Y45" s="65"/>
+      <c r="Z45" s="65"/>
+      <c r="AA45" s="65"/>
     </row>
     <row r="46" spans="20:27">
-      <c r="T46" s="17" t="s">
+      <c r="T46" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="U46" s="18">
+      <c r="U46" s="72">
         <f>H2</f>
         <v>30.978339</v>
       </c>
-      <c r="V46" s="18">
+      <c r="V46" s="72">
         <f>H3</f>
         <v>19.841049</v>
       </c>
-      <c r="W46" s="19">
+      <c r="W46" s="73">
         <f>H4</f>
         <v>34.930488</v>
       </c>
-      <c r="Y46" s="9"/>
-      <c r="Z46" s="9"/>
-      <c r="AA46" s="9"/>
+      <c r="Y46" s="65"/>
+      <c r="Z46" s="65"/>
+      <c r="AA46" s="65"/>
     </row>
     <row r="47" spans="20:27">
-      <c r="T47" s="17" t="s">
+      <c r="T47" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="U47" s="18">
+      <c r="U47" s="72">
         <f>H6</f>
         <v>57.342883</v>
       </c>
-      <c r="V47" s="18">
+      <c r="V47" s="72">
         <f>H7</f>
         <v>36.727049</v>
       </c>
-      <c r="W47" s="19">
+      <c r="W47" s="73">
         <f>H8</f>
         <v>64.658563</v>
       </c>
-      <c r="Y47" s="9"/>
-      <c r="Z47" s="9"/>
-      <c r="AA47" s="9"/>
+      <c r="Y47" s="65"/>
+      <c r="Z47" s="65"/>
+      <c r="AA47" s="65"/>
     </row>
     <row r="48" spans="20:27">
-      <c r="T48" s="17" t="s">
+      <c r="T48" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="U48" s="18">
+      <c r="U48" s="72">
         <f>H10</f>
         <v>83.707427</v>
       </c>
-      <c r="V48" s="18">
+      <c r="V48" s="72">
         <f>H11</f>
         <v>53.613048</v>
       </c>
-      <c r="W48" s="19">
+      <c r="W48" s="73">
         <f>H12</f>
         <v>94.386638</v>
       </c>
-      <c r="Y48" s="9"/>
-      <c r="Z48" s="9"/>
-      <c r="AA48" s="9"/>
+      <c r="Y48" s="65"/>
+      <c r="Z48" s="65"/>
+      <c r="AA48" s="65"/>
     </row>
     <row r="49" spans="20:27">
-      <c r="T49" s="15" t="s">
+      <c r="T49" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="U49" s="9">
+      <c r="U49" s="65">
         <f>I2</f>
         <v>3.223824</v>
       </c>
-      <c r="V49" s="9">
+      <c r="V49" s="65">
         <f>I3</f>
         <v>3.054837</v>
       </c>
-      <c r="W49" s="16">
+      <c r="W49" s="71">
         <f>I4</f>
         <v>4.054305</v>
       </c>
-      <c r="Y49" s="9"/>
-      <c r="Z49" s="9"/>
-      <c r="AA49" s="9"/>
+      <c r="Y49" s="65"/>
+      <c r="Z49" s="65"/>
+      <c r="AA49" s="65"/>
     </row>
     <row r="50" spans="20:27">
-      <c r="T50" s="15" t="s">
+      <c r="T50" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="U50" s="9">
+      <c r="U50" s="65">
         <f>J2</f>
         <v>0.552865</v>
       </c>
-      <c r="V50" s="9">
+      <c r="V50" s="65">
         <f>J3</f>
         <v>0.531767</v>
       </c>
-      <c r="W50" s="16">
+      <c r="W50" s="71">
         <f>J4</f>
         <v>0.652756</v>
       </c>
-      <c r="Y50" s="9"/>
-      <c r="Z50" s="9"/>
-      <c r="AA50" s="9"/>
+      <c r="Y50" s="65"/>
+      <c r="Z50" s="65"/>
+      <c r="AA50" s="65"/>
     </row>
     <row r="51" spans="20:27">
-      <c r="T51" s="15" t="s">
+      <c r="T51" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="U51" s="9">
+      <c r="U51" s="65">
         <f>K2</f>
         <v>0.074355</v>
       </c>
-      <c r="V51" s="9">
+      <c r="V51" s="65">
         <f>K3</f>
         <v>0.476696</v>
       </c>
-      <c r="W51" s="16">
+      <c r="W51" s="71">
         <f>K4</f>
         <v>0.210333</v>
       </c>
-      <c r="Y51" s="9"/>
-      <c r="Z51" s="9"/>
-      <c r="AA51" s="9"/>
+      <c r="Y51" s="65"/>
+      <c r="Z51" s="65"/>
+      <c r="AA51" s="65"/>
     </row>
     <row r="52" spans="20:27">
-      <c r="T52" s="15" t="s">
+      <c r="T52" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="U52" s="9">
+      <c r="U52" s="65">
         <f>L2</f>
         <v>2.477353</v>
       </c>
-      <c r="V52" s="9">
+      <c r="V52" s="65">
         <f>L3</f>
         <v>1.536832</v>
       </c>
-      <c r="W52" s="16">
+      <c r="W52" s="71">
         <f>L4</f>
         <v>1.822165</v>
       </c>
-      <c r="Y52" s="9"/>
-      <c r="Z52" s="9"/>
-      <c r="AA52" s="9"/>
+      <c r="Y52" s="65"/>
+      <c r="Z52" s="65"/>
+      <c r="AA52" s="65"/>
     </row>
     <row r="53" spans="20:27">
-      <c r="T53" s="15" t="s">
+      <c r="T53" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="U53" s="9">
+      <c r="U53" s="65">
         <f>M2</f>
         <v>0.00414</v>
       </c>
-      <c r="V53" s="9">
+      <c r="V53" s="65">
         <f>M3</f>
         <v>0.003135</v>
       </c>
-      <c r="W53" s="16">
+      <c r="W53" s="71">
         <f>M4</f>
         <v>0.004368</v>
       </c>
-      <c r="Y53" s="9"/>
-      <c r="Z53" s="9"/>
-      <c r="AA53" s="9"/>
+      <c r="Y53" s="65"/>
+      <c r="Z53" s="65"/>
+      <c r="AA53" s="65"/>
     </row>
     <row r="54" spans="20:27">
-      <c r="T54" s="15" t="s">
+      <c r="T54" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="U54" s="9">
+      <c r="U54" s="65">
         <f>N2</f>
         <v>2.507104</v>
       </c>
-      <c r="V54" s="9">
+      <c r="V54" s="65">
         <f>N3</f>
         <v>1.559359</v>
       </c>
-      <c r="W54" s="16">
+      <c r="W54" s="71">
         <f>N4</f>
         <v>1.853556</v>
       </c>
-      <c r="Y54" s="9"/>
-      <c r="Z54" s="9"/>
-      <c r="AA54" s="9"/>
+      <c r="Y54" s="65"/>
+      <c r="Z54" s="65"/>
+      <c r="AA54" s="65"/>
     </row>
     <row r="55" spans="20:27">
-      <c r="T55" s="15" t="s">
+      <c r="T55" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="U55" s="9">
+      <c r="U55" s="65">
         <f>O2</f>
         <v>2.819842</v>
       </c>
-      <c r="V55" s="9">
+      <c r="V55" s="65">
         <f>O3</f>
         <v>2.555484</v>
       </c>
-      <c r="W55" s="16">
+      <c r="W55" s="71">
         <f>O4</f>
         <v>3.107146</v>
       </c>
-      <c r="Y55" s="9"/>
-      <c r="Z55" s="9"/>
-      <c r="AA55" s="9"/>
+      <c r="Y55" s="65"/>
+      <c r="Z55" s="65"/>
+      <c r="AA55" s="65"/>
     </row>
     <row r="56" spans="20:27">
-      <c r="T56" s="15" t="s">
+      <c r="T56" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="U56" s="9">
+      <c r="U56" s="65">
         <f>P2</f>
         <v>1.962046</v>
       </c>
-      <c r="V56" s="9">
+      <c r="V56" s="65">
         <f>P3</f>
         <v>1.587904</v>
       </c>
-      <c r="W56" s="16">
+      <c r="W56" s="71">
         <f>P4</f>
         <v>2.178988</v>
       </c>
-      <c r="Y56" s="9"/>
-      <c r="Z56" s="9"/>
-      <c r="AA56" s="9"/>
+      <c r="Y56" s="65"/>
+      <c r="Z56" s="65"/>
+      <c r="AA56" s="65"/>
     </row>
     <row r="57" spans="20:27">
-      <c r="T57" s="15" t="s">
+      <c r="T57" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="U57" s="9">
+      <c r="U57" s="65">
         <f>Q2</f>
         <v>5.932022</v>
       </c>
-      <c r="V57" s="9">
+      <c r="V57" s="65">
         <f>Q3</f>
         <v>3.79935</v>
       </c>
-      <c r="W57" s="16">
+      <c r="W57" s="71">
         <f>Q4</f>
         <v>6.688817</v>
       </c>
-      <c r="Y57" s="9"/>
-      <c r="Z57" s="9"/>
-      <c r="AA57" s="9"/>
+      <c r="Y57" s="65"/>
+      <c r="Z57" s="65"/>
+      <c r="AA57" s="65"/>
     </row>
     <row r="58" spans="20:27">
-      <c r="T58" s="15" t="s">
+      <c r="T58" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="U58" s="9">
+      <c r="U58" s="65">
         <f>R2</f>
         <v>0.102141</v>
       </c>
-      <c r="V58" s="9">
+      <c r="V58" s="65">
         <f>R3</f>
         <v>0.055852</v>
       </c>
-      <c r="W58" s="16">
+      <c r="W58" s="71">
         <f>R4</f>
         <v>0.084923</v>
       </c>
-      <c r="Y58" s="9"/>
-      <c r="Z58" s="9"/>
-      <c r="AA58" s="9"/>
+      <c r="Y58" s="65"/>
+      <c r="Z58" s="65"/>
+      <c r="AA58" s="65"/>
     </row>
     <row r="59" spans="20:27">
-      <c r="T59" s="15" t="s">
+      <c r="T59" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="U59" s="9">
+      <c r="U59" s="65">
         <f>S2</f>
         <v>0.079975</v>
       </c>
-      <c r="V59" s="9">
+      <c r="V59" s="65">
         <f>S3</f>
         <v>0.480951</v>
       </c>
-      <c r="W59" s="16">
+      <c r="W59" s="71">
         <f>S4</f>
         <v>0.216263</v>
       </c>
-      <c r="Y59" s="9"/>
-      <c r="Z59" s="9"/>
-      <c r="AA59" s="9"/>
+      <c r="Y59" s="65"/>
+      <c r="Z59" s="65"/>
+      <c r="AA59" s="65"/>
     </row>
     <row r="60" spans="20:27">
-      <c r="T60" s="20" t="s">
+      <c r="T60" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="U60" s="21">
+      <c r="U60" s="63">
         <f>T2</f>
         <v>2.477353</v>
       </c>
-      <c r="V60" s="21">
+      <c r="V60" s="63">
         <f>T3</f>
         <v>1.536832</v>
       </c>
-      <c r="W60" s="22">
+      <c r="W60" s="74">
         <f>T4</f>
         <v>1.822165</v>
       </c>
-      <c r="Y60" s="9"/>
-      <c r="Z60" s="9"/>
-      <c r="AA60" s="9"/>
+      <c r="Y60" s="65"/>
+      <c r="Z60" s="65"/>
+      <c r="AA60" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -18568,16 +18825,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AF38" sqref="AF38"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="U71" sqref="U71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="22.8518518518519" customWidth="1"/>
-    <col min="3" max="7" width="13.4907407407407" customWidth="1"/>
+    <col min="2" max="2" width="26.6666666666667" customWidth="1"/>
+    <col min="3" max="16" width="15.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -18619,7 +18876,7 @@
       </c>
       <c r="E3" s="6">
         <f>1-D3/C3</f>
-        <v>0.0247081289110791</v>
+        <v>0.024708128911079</v>
       </c>
       <c r="F3" s="7"/>
     </row>
@@ -18636,7 +18893,7 @@
         <f>'3000 ft'!C17</f>
         <v>46.607266</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="9">
         <f>1-D4/C4</f>
         <v>-0.0475756719464939</v>
       </c>
@@ -18699,7 +18956,7 @@
         <f>'3000 ft'!C23</f>
         <v>63.493266</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="9">
         <f>1-D8/C8</f>
         <v>-0.0361311127836383</v>
       </c>
@@ -18762,7 +19019,7 @@
         <f>'3000 ft'!C29</f>
         <v>80.379265</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="9">
         <f>1-D12/C12</f>
         <v>-0.0296088653336279</v>
       </c>
@@ -18785,9 +19042,803 @@
         <v>0.0241100980506724</v>
       </c>
     </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="51"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="19"/>
+      <c r="C19" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="24">
+        <f>'1500 ft'!U41</f>
+        <v>0.00414</v>
+      </c>
+      <c r="D20" s="25" cm="1">
+        <f t="array" ref="D20:D39">'3000 ft'!U41:U60</f>
+        <v>0.00414</v>
+      </c>
+      <c r="E20" s="26">
+        <f>1-C20/D20</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="27" cm="1">
+        <f t="array" ref="F20:F39">'1500 ft'!V41:V60</f>
+        <v>0.003135</v>
+      </c>
+      <c r="G20" s="25" cm="1">
+        <f t="array" ref="G20:G39">'3000 ft'!V41:V60</f>
+        <v>0.003135</v>
+      </c>
+      <c r="H20" s="26">
+        <f t="shared" ref="H20:H39" si="0">1-F20/G20</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="53" cm="1">
+        <f t="array" ref="I20:I39">'1500 ft'!W41:W60</f>
+        <v>0.004368</v>
+      </c>
+      <c r="J20" s="54" cm="1">
+        <f t="array" ref="J20:J39">'3000 ft'!W41:W60</f>
+        <v>0.004368</v>
+      </c>
+      <c r="K20" s="26">
+        <f t="shared" ref="K20:K39" si="1">1-I20/J20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="28">
+        <f>'1500 ft'!U42</f>
+        <v>1.26099</v>
+      </c>
+      <c r="D21" s="29">
+        <v>2.507104</v>
+      </c>
+      <c r="E21" s="30">
+        <f t="shared" ref="E21:E39" si="2">1-C21/D21</f>
+        <v>0.497033230372573</v>
+      </c>
+      <c r="F21" s="31">
+        <v>0.785311</v>
+      </c>
+      <c r="G21" s="29">
+        <v>1.559359</v>
+      </c>
+      <c r="H21" s="30">
+        <f t="shared" si="0"/>
+        <v>0.49638858017942</v>
+      </c>
+      <c r="I21" s="55">
+        <v>0.934626</v>
+      </c>
+      <c r="J21" s="56">
+        <v>1.853556</v>
+      </c>
+      <c r="K21" s="30">
+        <f t="shared" si="1"/>
+        <v>0.495765976317953</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="28">
+        <f>'1500 ft'!U43</f>
+        <v>2.096034</v>
+      </c>
+      <c r="D22" s="29">
+        <v>2.819842</v>
+      </c>
+      <c r="E22" s="30">
+        <f t="shared" si="2"/>
+        <v>0.256683885125479</v>
+      </c>
+      <c r="F22" s="31">
+        <v>1.797259</v>
+      </c>
+      <c r="G22" s="29">
+        <v>2.555484</v>
+      </c>
+      <c r="H22" s="30">
+        <f t="shared" si="0"/>
+        <v>0.296705046871747</v>
+      </c>
+      <c r="I22" s="55">
+        <v>2.277495</v>
+      </c>
+      <c r="J22" s="56">
+        <v>3.107146</v>
+      </c>
+      <c r="K22" s="30">
+        <f t="shared" si="1"/>
+        <v>0.267013844859559</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="28">
+        <f>'1500 ft'!U44</f>
+        <v>0.55039</v>
+      </c>
+      <c r="D23" s="29">
+        <v>0.552865</v>
+      </c>
+      <c r="E23" s="30">
+        <f t="shared" si="2"/>
+        <v>0.00447668056397132</v>
+      </c>
+      <c r="F23" s="31">
+        <v>0.530053</v>
+      </c>
+      <c r="G23" s="29">
+        <v>0.531767</v>
+      </c>
+      <c r="H23" s="30">
+        <f t="shared" si="0"/>
+        <v>0.00322321618302757</v>
+      </c>
+      <c r="I23" s="55">
+        <v>0.650071</v>
+      </c>
+      <c r="J23" s="56">
+        <v>0.652756</v>
+      </c>
+      <c r="K23" s="30">
+        <f t="shared" si="1"/>
+        <v>0.0041133287170092</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="28">
+        <f>'1500 ft'!U45</f>
+        <v>3.460097</v>
+      </c>
+      <c r="D24" s="29">
+        <v>5.71025</v>
+      </c>
+      <c r="E24" s="30">
+        <f t="shared" si="2"/>
+        <v>0.394055076397706</v>
+      </c>
+      <c r="F24" s="31">
+        <v>2.927872</v>
+      </c>
+      <c r="G24" s="29">
+        <v>4.937473</v>
+      </c>
+      <c r="H24" s="30">
+        <f t="shared" si="0"/>
+        <v>0.407010023143418</v>
+      </c>
+      <c r="I24" s="55">
+        <v>3.976706</v>
+      </c>
+      <c r="J24" s="56">
+        <v>6.677778</v>
+      </c>
+      <c r="K24" s="30">
+        <f t="shared" si="1"/>
+        <v>0.404486642113589</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="33">
+        <f>'1500 ft'!U46</f>
+        <v>41.341488</v>
+      </c>
+      <c r="D25" s="34">
+        <v>30.978339</v>
+      </c>
+      <c r="E25" s="35">
+        <f t="shared" si="2"/>
+        <v>-0.334528878388218</v>
+      </c>
+      <c r="F25" s="36">
+        <v>26.022308</v>
+      </c>
+      <c r="G25" s="34">
+        <v>19.841049</v>
+      </c>
+      <c r="H25" s="35">
+        <f t="shared" si="0"/>
+        <v>-0.311538921152808</v>
+      </c>
+      <c r="I25" s="57">
+        <v>46.372197</v>
+      </c>
+      <c r="J25" s="58">
+        <v>34.930488</v>
+      </c>
+      <c r="K25" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.327556517389623</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="38">
+        <f>'1500 ft'!U47</f>
+        <v>68.013416</v>
+      </c>
+      <c r="D26" s="39">
+        <v>57.342883</v>
+      </c>
+      <c r="E26" s="40">
+        <f t="shared" si="2"/>
+        <v>-0.186082952962097</v>
+      </c>
+      <c r="F26" s="41">
+        <v>42.810893</v>
+      </c>
+      <c r="G26" s="39">
+        <v>36.727049</v>
+      </c>
+      <c r="H26" s="40">
+        <f t="shared" si="0"/>
+        <v>-0.16565022689408</v>
+      </c>
+      <c r="I26" s="59">
+        <v>76.289744</v>
+      </c>
+      <c r="J26" s="60">
+        <v>64.658563</v>
+      </c>
+      <c r="K26" s="30">
+        <f t="shared" si="1"/>
+        <v>-0.179886166044241</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="43">
+        <f>'1500 ft'!U48</f>
+        <v>94.685344</v>
+      </c>
+      <c r="D27" s="44">
+        <v>83.707427</v>
+      </c>
+      <c r="E27" s="45">
+        <f t="shared" si="2"/>
+        <v>-0.131146272122305</v>
+      </c>
+      <c r="F27" s="46">
+        <v>59.599479</v>
+      </c>
+      <c r="G27" s="44">
+        <v>53.613048</v>
+      </c>
+      <c r="H27" s="45">
+        <f t="shared" si="0"/>
+        <v>-0.111659963820748</v>
+      </c>
+      <c r="I27" s="61">
+        <v>106.207291</v>
+      </c>
+      <c r="J27" s="62">
+        <v>94.386638</v>
+      </c>
+      <c r="K27" s="49">
+        <f t="shared" si="1"/>
+        <v>-0.12523650858292</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="28">
+        <f>'1500 ft'!U49</f>
+        <v>0.980656</v>
+      </c>
+      <c r="D28" s="29">
+        <v>3.223824</v>
+      </c>
+      <c r="E28" s="30">
+        <f t="shared" si="2"/>
+        <v>0.69580969680727</v>
+      </c>
+      <c r="F28" s="31">
+        <v>1.050524</v>
+      </c>
+      <c r="G28" s="29">
+        <v>3.054837</v>
+      </c>
+      <c r="H28" s="30">
+        <f t="shared" si="0"/>
+        <v>0.656111275331548</v>
+      </c>
+      <c r="I28" s="55">
+        <v>1.360603</v>
+      </c>
+      <c r="J28" s="56">
+        <v>4.054305</v>
+      </c>
+      <c r="K28" s="30">
+        <f t="shared" si="1"/>
+        <v>0.664405366641138</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="28">
+        <f>'1500 ft'!U50</f>
+        <v>0.55039</v>
+      </c>
+      <c r="D29" s="29">
+        <v>0.552865</v>
+      </c>
+      <c r="E29" s="30">
+        <f t="shared" si="2"/>
+        <v>0.00447668056397132</v>
+      </c>
+      <c r="F29" s="31">
+        <v>0.530053</v>
+      </c>
+      <c r="G29" s="29">
+        <v>0.531767</v>
+      </c>
+      <c r="H29" s="30">
+        <f t="shared" si="0"/>
+        <v>0.00322321618302757</v>
+      </c>
+      <c r="I29" s="55">
+        <v>0.650071</v>
+      </c>
+      <c r="J29" s="56">
+        <v>0.652756</v>
+      </c>
+      <c r="K29" s="30">
+        <f t="shared" si="1"/>
+        <v>0.0041133287170092</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="28">
+        <f>'1500 ft'!U51</f>
+        <v>0.147982</v>
+      </c>
+      <c r="D30" s="29">
+        <v>0.074355</v>
+      </c>
+      <c r="E30" s="47">
+        <f t="shared" si="2"/>
+        <v>-0.990209131867393</v>
+      </c>
+      <c r="F30" s="31">
+        <v>0.066325</v>
+      </c>
+      <c r="G30" s="29">
+        <v>0.476696</v>
+      </c>
+      <c r="H30" s="47">
+        <f t="shared" si="0"/>
+        <v>0.860865205497844</v>
+      </c>
+      <c r="I30" s="55">
+        <v>0.138609</v>
+      </c>
+      <c r="J30" s="56">
+        <v>0.210333</v>
+      </c>
+      <c r="K30" s="47">
+        <f t="shared" si="1"/>
+        <v>0.341002125201466</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="28">
+        <f>'1500 ft'!U52</f>
+        <v>1.231238</v>
+      </c>
+      <c r="D31" s="29">
+        <v>2.477353</v>
+      </c>
+      <c r="E31" s="30">
+        <f t="shared" si="2"/>
+        <v>0.503002599952449</v>
+      </c>
+      <c r="F31" s="31">
+        <v>0.762784</v>
+      </c>
+      <c r="G31" s="29">
+        <v>1.536832</v>
+      </c>
+      <c r="H31" s="30">
+        <f t="shared" si="0"/>
+        <v>0.503664681630783</v>
+      </c>
+      <c r="I31" s="55">
+        <v>0.903235</v>
+      </c>
+      <c r="J31" s="56">
+        <v>1.822165</v>
+      </c>
+      <c r="K31" s="30">
+        <f t="shared" si="1"/>
+        <v>0.504306690118623</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="28">
+        <f>'1500 ft'!U53</f>
+        <v>0.00414</v>
+      </c>
+      <c r="D32" s="29">
+        <v>0.00414</v>
+      </c>
+      <c r="E32" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="31">
+        <v>0.003135</v>
+      </c>
+      <c r="G32" s="29">
+        <v>0.003135</v>
+      </c>
+      <c r="H32" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="55">
+        <v>0.004368</v>
+      </c>
+      <c r="J32" s="56">
+        <v>0.004368</v>
+      </c>
+      <c r="K32" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="28">
+        <f>'1500 ft'!U54</f>
+        <v>1.26099</v>
+      </c>
+      <c r="D33" s="29">
+        <v>2.507104</v>
+      </c>
+      <c r="E33" s="30">
+        <f t="shared" si="2"/>
+        <v>0.497033230372573</v>
+      </c>
+      <c r="F33" s="31">
+        <v>0.785311</v>
+      </c>
+      <c r="G33" s="29">
+        <v>1.559359</v>
+      </c>
+      <c r="H33" s="30">
+        <f t="shared" si="0"/>
+        <v>0.49638858017942</v>
+      </c>
+      <c r="I33" s="55">
+        <v>0.934626</v>
+      </c>
+      <c r="J33" s="56">
+        <v>1.853556</v>
+      </c>
+      <c r="K33" s="30">
+        <f t="shared" si="1"/>
+        <v>0.495765976317953</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="28">
+        <f>'1500 ft'!U55</f>
+        <v>2.096034</v>
+      </c>
+      <c r="D34" s="29">
+        <v>2.819842</v>
+      </c>
+      <c r="E34" s="30">
+        <f t="shared" si="2"/>
+        <v>0.256683885125479</v>
+      </c>
+      <c r="F34" s="31">
+        <v>1.797259</v>
+      </c>
+      <c r="G34" s="29">
+        <v>2.555484</v>
+      </c>
+      <c r="H34" s="30">
+        <f t="shared" si="0"/>
+        <v>0.296705046871747</v>
+      </c>
+      <c r="I34" s="55">
+        <v>2.277495</v>
+      </c>
+      <c r="J34" s="56">
+        <v>3.107146</v>
+      </c>
+      <c r="K34" s="30">
+        <f t="shared" si="1"/>
+        <v>0.267013844859559</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="28">
+        <f>'1500 ft'!U56</f>
+        <v>1.585685</v>
+      </c>
+      <c r="D35" s="29">
+        <v>1.962046</v>
+      </c>
+      <c r="E35" s="30">
+        <f t="shared" si="2"/>
+        <v>0.191820681064562</v>
+      </c>
+      <c r="F35" s="31">
+        <v>1.25196</v>
+      </c>
+      <c r="G35" s="29">
+        <v>1.587904</v>
+      </c>
+      <c r="H35" s="30">
+        <f t="shared" si="0"/>
+        <v>0.211564427068639</v>
+      </c>
+      <c r="I35" s="55">
+        <v>1.727401</v>
+      </c>
+      <c r="J35" s="56">
+        <v>2.178988</v>
+      </c>
+      <c r="K35" s="30">
+        <f t="shared" si="1"/>
+        <v>0.207246207872645</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="28">
+        <f>'1500 ft'!U57</f>
+        <v>8.297933</v>
+      </c>
+      <c r="D36" s="29">
+        <v>5.932022</v>
+      </c>
+      <c r="E36" s="30">
+        <f t="shared" si="2"/>
+        <v>-0.398837192444667</v>
+      </c>
+      <c r="F36" s="31">
+        <v>5.223116</v>
+      </c>
+      <c r="G36" s="29">
+        <v>3.79935</v>
+      </c>
+      <c r="H36" s="30">
+        <f t="shared" si="0"/>
+        <v>-0.374739363312145</v>
+      </c>
+      <c r="I36" s="55">
+        <v>9.307681</v>
+      </c>
+      <c r="J36" s="56">
+        <v>6.688817</v>
+      </c>
+      <c r="K36" s="30">
+        <f t="shared" si="1"/>
+        <v>-0.391528726230662</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="28">
+        <f>'1500 ft'!U58</f>
+        <v>0.180616</v>
+      </c>
+      <c r="D37" s="29">
+        <v>0.102141</v>
+      </c>
+      <c r="E37" s="30">
+        <f t="shared" si="2"/>
+        <v>-0.76830068239003</v>
+      </c>
+      <c r="F37" s="31">
+        <v>0.125976</v>
+      </c>
+      <c r="G37" s="29">
+        <v>0.055852</v>
+      </c>
+      <c r="H37" s="30">
+        <f t="shared" si="0"/>
+        <v>-1.25553247869369</v>
+      </c>
+      <c r="I37" s="55">
+        <v>0.179164</v>
+      </c>
+      <c r="J37" s="56">
+        <v>0.084923</v>
+      </c>
+      <c r="K37" s="30">
+        <f t="shared" si="1"/>
+        <v>-1.10972292547366</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="28">
+        <f>'1500 ft'!U59</f>
+        <v>0.146802</v>
+      </c>
+      <c r="D38" s="29">
+        <v>0.079975</v>
+      </c>
+      <c r="E38" s="47">
+        <f t="shared" si="2"/>
+        <v>-0.835598624570178</v>
+      </c>
+      <c r="F38" s="31">
+        <v>0.065431</v>
+      </c>
+      <c r="G38" s="29">
+        <v>0.480951</v>
+      </c>
+      <c r="H38" s="47">
+        <f t="shared" si="0"/>
+        <v>0.863954955910269</v>
+      </c>
+      <c r="I38" s="55">
+        <v>0.137364</v>
+      </c>
+      <c r="J38" s="56">
+        <v>0.216263</v>
+      </c>
+      <c r="K38" s="47">
+        <f t="shared" si="1"/>
+        <v>0.364828935139159</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="20">
+        <f>'1500 ft'!U60</f>
+        <v>1.231238</v>
+      </c>
+      <c r="D39" s="21">
+        <v>2.477353</v>
+      </c>
+      <c r="E39" s="49">
+        <f t="shared" si="2"/>
+        <v>0.503002599952449</v>
+      </c>
+      <c r="F39" s="50">
+        <v>0.762784</v>
+      </c>
+      <c r="G39" s="21">
+        <v>1.536832</v>
+      </c>
+      <c r="H39" s="49">
+        <f t="shared" si="0"/>
+        <v>0.503664681630783</v>
+      </c>
+      <c r="I39" s="63">
+        <v>0.903235</v>
+      </c>
+      <c r="J39" s="64">
+        <v>1.822165</v>
+      </c>
+      <c r="K39" s="49">
+        <f t="shared" si="1"/>
+        <v>0.504306690118623</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="7">
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/analysis/cfg-case-study/result-summary/energy-analysis/energy_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/energy-analysis/energy_1500_3000_ft.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12240" activeTab="2"/>
+    <workbookView windowWidth="27948" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1500 ft" sheetId="1" r:id="rId1"/>
@@ -933,7 +933,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1011,9 +1011,6 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1022,9 +1019,6 @@
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1038,9 +1032,6 @@
     <xf numFmtId="179" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1052,9 +1043,6 @@
     </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1068,9 +1056,6 @@
     <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1079,9 +1064,6 @@
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1092,9 +1074,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1104,9 +1083,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1115,15 +1091,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1404,25 +1371,25 @@
                   <c:v>1.26099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.096034</c:v>
+                  <c:v>2.095849</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55039</c:v>
+                  <c:v>0.548625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.460097</c:v>
+                  <c:v>3.448231</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.341488</c:v>
+                  <c:v>40.956658</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.980656</c:v>
+                  <c:v>0.968789</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.55039</c:v>
+                  <c:v>0.548625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.147982</c:v>
+                  <c:v>0.148021</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.231238</c:v>
@@ -1434,19 +1401,19 @@
                   <c:v>1.26099</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.096034</c:v>
+                  <c:v>2.095849</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.585685</c:v>
+                  <c:v>1.583708</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.297933</c:v>
+                  <c:v>8.220691</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.180616</c:v>
+                  <c:v>0.181031</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.146802</c:v>
+                  <c:v>0.146841</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1.231238</c:v>
@@ -1557,25 +1524,25 @@
                   <c:v>0.785311</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.797259</c:v>
+                  <c:v>1.79714</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.530053</c:v>
+                  <c:v>0.528918</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.927872</c:v>
+                  <c:v>2.920245</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.022308</c:v>
+                  <c:v>25.768693</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.050524</c:v>
+                  <c:v>1.042898</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.530053</c:v>
+                  <c:v>0.528918</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.066325</c:v>
+                  <c:v>0.06635</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.762784</c:v>
@@ -1587,19 +1554,19 @@
                   <c:v>0.785311</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.797259</c:v>
+                  <c:v>1.79714</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.25196</c:v>
+                  <c:v>1.250689</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.223116</c:v>
+                  <c:v>5.172211</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.125976</c:v>
+                  <c:v>0.126243</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.065431</c:v>
+                  <c:v>0.065456</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.762784</c:v>
@@ -1710,25 +1677,25 @@
                   <c:v>0.934626</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.277495</c:v>
+                  <c:v>2.277308</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.650071</c:v>
+                  <c:v>0.648287</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.976706</c:v>
+                  <c:v>3.964715</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.372197</c:v>
+                  <c:v>45.7638</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.360603</c:v>
+                  <c:v>1.348611</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.650071</c:v>
+                  <c:v>0.648287</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.138609</c:v>
+                  <c:v>0.138648</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.903235</c:v>
@@ -1740,19 +1707,19 @@
                   <c:v>0.934626</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.277495</c:v>
+                  <c:v>2.277308</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.727401</c:v>
+                  <c:v>1.725403</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.307681</c:v>
+                  <c:v>9.185566</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.179164</c:v>
+                  <c:v>0.179584</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.137364</c:v>
+                  <c:v>0.137403</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.903235</c:v>
@@ -2311,31 +2278,31 @@
                   <c:v>2.507104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.819842</c:v>
+                  <c:v>2.819013</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.552865</c:v>
+                  <c:v>0.548909</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.71025</c:v>
+                  <c:v>5.65707</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.978339</c:v>
+                  <c:v>30.361973</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57.342883</c:v>
+                  <c:v>56.201949</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>83.707427</c:v>
+                  <c:v>82.041926</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.223824</c:v>
+                  <c:v>3.170643</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.552865</c:v>
+                  <c:v>0.548909</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.074355</c:v>
+                  <c:v>0.073526</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2.477353</c:v>
@@ -2347,19 +2314,19 @@
                   <c:v>2.507104</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.819842</c:v>
+                  <c:v>2.819013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.962046</c:v>
+                  <c:v>1.953182</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.932022</c:v>
+                  <c:v>5.813995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.102141</c:v>
+                  <c:v>0.104002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.079975</c:v>
+                  <c:v>0.079146</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2.477353</c:v>
@@ -2476,31 +2443,31 @@
                   <c:v>1.559359</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.555484</c:v>
+                  <c:v>2.55495</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.531767</c:v>
+                  <c:v>0.529222</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.937473</c:v>
+                  <c:v>4.903259</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.841049</c:v>
+                  <c:v>19.434765</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36.727049</c:v>
+                  <c:v>35.974991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>53.613048</c:v>
+                  <c:v>52.515216</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.054837</c:v>
+                  <c:v>3.020624</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.531767</c:v>
+                  <c:v>0.529222</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.476696</c:v>
+                  <c:v>0.476162</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.536832</c:v>
@@ -2512,19 +2479,19 @@
                   <c:v>1.559359</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.555484</c:v>
+                  <c:v>2.55495</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.587904</c:v>
+                  <c:v>1.582202</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.79935</c:v>
+                  <c:v>3.721551</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.055852</c:v>
+                  <c:v>0.057049</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.480951</c:v>
+                  <c:v>0.480418</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1.536832</c:v>
@@ -2641,31 +2608,31 @@
                   <c:v>1.853556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.107146</c:v>
+                  <c:v>3.106308</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.652756</c:v>
+                  <c:v>0.648757</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.677778</c:v>
+                  <c:v>6.62402</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.930488</c:v>
+                  <c:v>33.958109</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64.658563</c:v>
+                  <c:v>62.858627</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>94.386638</c:v>
+                  <c:v>91.759145</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.054305</c:v>
+                  <c:v>4.000546</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.652756</c:v>
+                  <c:v>0.648757</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.210333</c:v>
+                  <c:v>0.209495</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.822165</c:v>
@@ -2677,19 +2644,19 @@
                   <c:v>1.853556</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.107146</c:v>
+                  <c:v>3.106308</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.178988</c:v>
+                  <c:v>2.170028</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.688817</c:v>
+                  <c:v>6.502617</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.084923</c:v>
+                  <c:v>0.086804</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.216263</c:v>
+                  <c:v>0.215425</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1.822165</c:v>
@@ -3241,25 +3208,25 @@
                   <c:v>1.26099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.096034</c:v>
+                  <c:v>2.095849</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55039</c:v>
+                  <c:v>0.548625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.460097</c:v>
+                  <c:v>3.448231</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>68.013416</c:v>
+                  <c:v>67.380308</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.980656</c:v>
+                  <c:v>0.968789</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.55039</c:v>
+                  <c:v>0.548625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.147982</c:v>
+                  <c:v>0.148021</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.231238</c:v>
@@ -3271,19 +3238,19 @@
                   <c:v>1.26099</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.096034</c:v>
+                  <c:v>2.095849</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.585685</c:v>
+                  <c:v>1.583708</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.297933</c:v>
+                  <c:v>8.220691</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.180616</c:v>
+                  <c:v>0.181031</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.146802</c:v>
+                  <c:v>0.146841</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1.231238</c:v>
@@ -3394,25 +3361,25 @@
                   <c:v>0.785311</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.797259</c:v>
+                  <c:v>1.79714</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.530053</c:v>
+                  <c:v>0.528918</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.927872</c:v>
+                  <c:v>2.920245</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42.810893</c:v>
+                  <c:v>42.393657</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.050524</c:v>
+                  <c:v>1.042898</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.530053</c:v>
+                  <c:v>0.528918</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.066325</c:v>
+                  <c:v>0.06635</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.762784</c:v>
@@ -3424,19 +3391,19 @@
                   <c:v>0.785311</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.797259</c:v>
+                  <c:v>1.79714</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.25196</c:v>
+                  <c:v>1.250689</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.223116</c:v>
+                  <c:v>5.172211</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.125976</c:v>
+                  <c:v>0.126243</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.065431</c:v>
+                  <c:v>0.065456</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.762784</c:v>
@@ -3547,25 +3514,25 @@
                   <c:v>0.934626</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.277495</c:v>
+                  <c:v>2.277308</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.650071</c:v>
+                  <c:v>0.648287</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.976706</c:v>
+                  <c:v>3.964715</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76.289744</c:v>
+                  <c:v>75.288832</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.360603</c:v>
+                  <c:v>1.348611</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.650071</c:v>
+                  <c:v>0.648287</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.138609</c:v>
+                  <c:v>0.138648</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.903235</c:v>
@@ -3577,19 +3544,19 @@
                   <c:v>0.934626</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.277495</c:v>
+                  <c:v>2.277308</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.727401</c:v>
+                  <c:v>1.725403</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.307681</c:v>
+                  <c:v>9.185566</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.179164</c:v>
+                  <c:v>0.179584</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.137364</c:v>
+                  <c:v>0.137403</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.903235</c:v>
@@ -4140,25 +4107,25 @@
                   <c:v>1.26099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.096034</c:v>
+                  <c:v>2.095849</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55039</c:v>
+                  <c:v>0.548625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.460097</c:v>
+                  <c:v>3.448231</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>94.685344</c:v>
+                  <c:v>93.803958</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.980656</c:v>
+                  <c:v>0.968789</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.55039</c:v>
+                  <c:v>0.548625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.147982</c:v>
+                  <c:v>0.148021</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.231238</c:v>
@@ -4170,19 +4137,19 @@
                   <c:v>1.26099</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.096034</c:v>
+                  <c:v>2.095849</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.585685</c:v>
+                  <c:v>1.583708</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.297933</c:v>
+                  <c:v>8.220691</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.180616</c:v>
+                  <c:v>0.181031</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.146802</c:v>
+                  <c:v>0.146841</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1.231238</c:v>
@@ -4293,25 +4260,25 @@
                   <c:v>0.785311</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.797259</c:v>
+                  <c:v>1.79714</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.530053</c:v>
+                  <c:v>0.528918</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.927872</c:v>
+                  <c:v>2.920245</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59.599479</c:v>
+                  <c:v>59.01862</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.050524</c:v>
+                  <c:v>1.042898</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.530053</c:v>
+                  <c:v>0.528918</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.066325</c:v>
+                  <c:v>0.06635</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.762784</c:v>
@@ -4323,19 +4290,19 @@
                   <c:v>0.785311</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.797259</c:v>
+                  <c:v>1.79714</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.25196</c:v>
+                  <c:v>1.250689</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.223116</c:v>
+                  <c:v>5.172211</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.125976</c:v>
+                  <c:v>0.126243</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.065431</c:v>
+                  <c:v>0.065456</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.762784</c:v>
@@ -4446,25 +4413,25 @@
                   <c:v>0.934626</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.277495</c:v>
+                  <c:v>2.277308</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.650071</c:v>
+                  <c:v>0.648287</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.976706</c:v>
+                  <c:v>3.964715</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>106.207291</c:v>
+                  <c:v>104.813864</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.360603</c:v>
+                  <c:v>1.348611</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.650071</c:v>
+                  <c:v>0.648287</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.138609</c:v>
+                  <c:v>0.138648</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.903235</c:v>
@@ -4476,19 +4443,19 @@
                   <c:v>0.934626</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.277495</c:v>
+                  <c:v>2.277308</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.727401</c:v>
+                  <c:v>1.725403</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.307681</c:v>
+                  <c:v>9.185566</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.179164</c:v>
+                  <c:v>0.179584</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.137364</c:v>
+                  <c:v>0.137403</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.903235</c:v>
@@ -5056,31 +5023,31 @@
                   <c:v>1.26099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.096034</c:v>
+                  <c:v>2.095849</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55039</c:v>
+                  <c:v>0.548625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.460097</c:v>
+                  <c:v>3.448231</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.341488</c:v>
+                  <c:v>40.956658</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>68.013416</c:v>
+                  <c:v>67.380308</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>94.685344</c:v>
+                  <c:v>93.803958</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.980656</c:v>
+                  <c:v>0.968789</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.55039</c:v>
+                  <c:v>0.548625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.147982</c:v>
+                  <c:v>0.148021</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.231238</c:v>
@@ -5092,19 +5059,19 @@
                   <c:v>1.26099</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.096034</c:v>
+                  <c:v>2.095849</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.585685</c:v>
+                  <c:v>1.583708</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.297933</c:v>
+                  <c:v>8.220691</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.180616</c:v>
+                  <c:v>0.181031</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.146802</c:v>
+                  <c:v>0.146841</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1.231238</c:v>
@@ -5221,31 +5188,31 @@
                   <c:v>0.785311</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.797259</c:v>
+                  <c:v>1.79714</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.530053</c:v>
+                  <c:v>0.528918</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.927872</c:v>
+                  <c:v>2.920245</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.022308</c:v>
+                  <c:v>25.768693</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.810893</c:v>
+                  <c:v>42.393657</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59.599479</c:v>
+                  <c:v>59.01862</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.050524</c:v>
+                  <c:v>1.042898</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.530053</c:v>
+                  <c:v>0.528918</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.066325</c:v>
+                  <c:v>0.06635</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.762784</c:v>
@@ -5257,19 +5224,19 @@
                   <c:v>0.785311</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.797259</c:v>
+                  <c:v>1.79714</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.25196</c:v>
+                  <c:v>1.250689</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.223116</c:v>
+                  <c:v>5.172211</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.125976</c:v>
+                  <c:v>0.126243</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.065431</c:v>
+                  <c:v>0.065456</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.762784</c:v>
@@ -5386,31 +5353,31 @@
                   <c:v>0.934626</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.277495</c:v>
+                  <c:v>2.277308</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.650071</c:v>
+                  <c:v>0.648287</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.976706</c:v>
+                  <c:v>3.964715</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.372197</c:v>
+                  <c:v>45.7638</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76.289744</c:v>
+                  <c:v>75.288832</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>106.207291</c:v>
+                  <c:v>104.813864</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.360603</c:v>
+                  <c:v>1.348611</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.650071</c:v>
+                  <c:v>0.648287</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.138609</c:v>
+                  <c:v>0.138648</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.903235</c:v>
@@ -5422,19 +5389,19 @@
                   <c:v>0.934626</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.277495</c:v>
+                  <c:v>2.277308</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.727401</c:v>
+                  <c:v>1.725403</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.307681</c:v>
+                  <c:v>9.185566</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.179164</c:v>
+                  <c:v>0.179584</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.137364</c:v>
+                  <c:v>0.137403</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.903235</c:v>
@@ -5988,25 +5955,25 @@
                   <c:v>2.507104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.819842</c:v>
+                  <c:v>2.819013</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.552865</c:v>
+                  <c:v>0.548909</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.71025</c:v>
+                  <c:v>5.65707</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.978339</c:v>
+                  <c:v>30.361973</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.223824</c:v>
+                  <c:v>3.170643</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.552865</c:v>
+                  <c:v>0.548909</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.074355</c:v>
+                  <c:v>0.073526</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2.477353</c:v>
@@ -6018,19 +5985,19 @@
                   <c:v>2.507104</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.819842</c:v>
+                  <c:v>2.819013</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.962046</c:v>
+                  <c:v>1.953182</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.932022</c:v>
+                  <c:v>5.813995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.102141</c:v>
+                  <c:v>0.104002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.079975</c:v>
+                  <c:v>0.079146</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2.477353</c:v>
@@ -6141,25 +6108,25 @@
                   <c:v>1.559359</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.555484</c:v>
+                  <c:v>2.55495</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.531767</c:v>
+                  <c:v>0.529222</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.937473</c:v>
+                  <c:v>4.903259</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.841049</c:v>
+                  <c:v>19.434765</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.054837</c:v>
+                  <c:v>3.020624</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.531767</c:v>
+                  <c:v>0.529222</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.476696</c:v>
+                  <c:v>0.476162</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.536832</c:v>
@@ -6171,19 +6138,19 @@
                   <c:v>1.559359</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.555484</c:v>
+                  <c:v>2.55495</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.587904</c:v>
+                  <c:v>1.582202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.79935</c:v>
+                  <c:v>3.721551</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.055852</c:v>
+                  <c:v>0.057049</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.480951</c:v>
+                  <c:v>0.480418</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1.536832</c:v>
@@ -6294,25 +6261,25 @@
                   <c:v>1.853556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.107146</c:v>
+                  <c:v>3.106308</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.652756</c:v>
+                  <c:v>0.648757</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.677778</c:v>
+                  <c:v>6.62402</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.930488</c:v>
+                  <c:v>33.958109</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.054305</c:v>
+                  <c:v>4.000546</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.652756</c:v>
+                  <c:v>0.648757</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.210333</c:v>
+                  <c:v>0.209495</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.822165</c:v>
@@ -6324,19 +6291,19 @@
                   <c:v>1.853556</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.107146</c:v>
+                  <c:v>3.106308</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.178988</c:v>
+                  <c:v>2.170028</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.688817</c:v>
+                  <c:v>6.502617</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.084923</c:v>
+                  <c:v>0.086804</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.216263</c:v>
+                  <c:v>0.215425</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1.822165</c:v>
@@ -6887,25 +6854,25 @@
                   <c:v>2.507104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.819842</c:v>
+                  <c:v>2.819013</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.552865</c:v>
+                  <c:v>0.548909</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.71025</c:v>
+                  <c:v>5.65707</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.342883</c:v>
+                  <c:v>56.201949</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.223824</c:v>
+                  <c:v>3.170643</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.552865</c:v>
+                  <c:v>0.548909</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.074355</c:v>
+                  <c:v>0.073526</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2.477353</c:v>
@@ -6917,19 +6884,19 @@
                   <c:v>2.507104</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.819842</c:v>
+                  <c:v>2.819013</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.962046</c:v>
+                  <c:v>1.953182</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.932022</c:v>
+                  <c:v>5.813995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.102141</c:v>
+                  <c:v>0.104002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.079975</c:v>
+                  <c:v>0.079146</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2.477353</c:v>
@@ -7040,25 +7007,25 @@
                   <c:v>1.559359</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.555484</c:v>
+                  <c:v>2.55495</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.531767</c:v>
+                  <c:v>0.529222</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.937473</c:v>
+                  <c:v>4.903259</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.727049</c:v>
+                  <c:v>35.974991</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.054837</c:v>
+                  <c:v>3.020624</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.531767</c:v>
+                  <c:v>0.529222</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.476696</c:v>
+                  <c:v>0.476162</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.536832</c:v>
@@ -7070,19 +7037,19 @@
                   <c:v>1.559359</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.555484</c:v>
+                  <c:v>2.55495</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.587904</c:v>
+                  <c:v>1.582202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.79935</c:v>
+                  <c:v>3.721551</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.055852</c:v>
+                  <c:v>0.057049</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.480951</c:v>
+                  <c:v>0.480418</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1.536832</c:v>
@@ -7193,25 +7160,25 @@
                   <c:v>1.853556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.107146</c:v>
+                  <c:v>3.106308</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.652756</c:v>
+                  <c:v>0.648757</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.677778</c:v>
+                  <c:v>6.62402</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64.658563</c:v>
+                  <c:v>62.858627</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.054305</c:v>
+                  <c:v>4.000546</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.652756</c:v>
+                  <c:v>0.648757</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.210333</c:v>
+                  <c:v>0.209495</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.822165</c:v>
@@ -7223,19 +7190,19 @@
                   <c:v>1.853556</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.107146</c:v>
+                  <c:v>3.106308</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.178988</c:v>
+                  <c:v>2.170028</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.688817</c:v>
+                  <c:v>6.502617</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.084923</c:v>
+                  <c:v>0.086804</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.216263</c:v>
+                  <c:v>0.215425</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1.822165</c:v>
@@ -7786,25 +7753,25 @@
                   <c:v>2.507104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.819842</c:v>
+                  <c:v>2.819013</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.552865</c:v>
+                  <c:v>0.548909</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.71025</c:v>
+                  <c:v>5.65707</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83.707427</c:v>
+                  <c:v>82.041926</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.223824</c:v>
+                  <c:v>3.170643</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.552865</c:v>
+                  <c:v>0.548909</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.074355</c:v>
+                  <c:v>0.073526</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2.477353</c:v>
@@ -7816,19 +7783,19 @@
                   <c:v>2.507104</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.819842</c:v>
+                  <c:v>2.819013</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.962046</c:v>
+                  <c:v>1.953182</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.932022</c:v>
+                  <c:v>5.813995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.102141</c:v>
+                  <c:v>0.104002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.079975</c:v>
+                  <c:v>0.079146</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2.477353</c:v>
@@ -7939,25 +7906,25 @@
                   <c:v>1.559359</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.555484</c:v>
+                  <c:v>2.55495</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.531767</c:v>
+                  <c:v>0.529222</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.937473</c:v>
+                  <c:v>4.903259</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53.613048</c:v>
+                  <c:v>52.515216</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.054837</c:v>
+                  <c:v>3.020624</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.531767</c:v>
+                  <c:v>0.529222</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.476696</c:v>
+                  <c:v>0.476162</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.536832</c:v>
@@ -7969,19 +7936,19 @@
                   <c:v>1.559359</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.555484</c:v>
+                  <c:v>2.55495</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.587904</c:v>
+                  <c:v>1.582202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.79935</c:v>
+                  <c:v>3.721551</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.055852</c:v>
+                  <c:v>0.057049</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.480951</c:v>
+                  <c:v>0.480418</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1.536832</c:v>
@@ -8092,25 +8059,25 @@
                   <c:v>1.853556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.107146</c:v>
+                  <c:v>3.106308</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.652756</c:v>
+                  <c:v>0.648757</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.677778</c:v>
+                  <c:v>6.62402</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>94.386638</c:v>
+                  <c:v>91.759145</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.054305</c:v>
+                  <c:v>4.000546</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.652756</c:v>
+                  <c:v>0.648757</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.210333</c:v>
+                  <c:v>0.209495</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.822165</c:v>
@@ -8122,19 +8089,19 @@
                   <c:v>1.853556</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.107146</c:v>
+                  <c:v>3.106308</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.178988</c:v>
+                  <c:v>2.170028</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.688817</c:v>
+                  <c:v>6.502617</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.084923</c:v>
+                  <c:v>0.086804</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.216263</c:v>
+                  <c:v>0.215425</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1.822165</c:v>
@@ -8692,31 +8659,31 @@
                   <c:v>2.507104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.819842</c:v>
+                  <c:v>2.819013</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.552865</c:v>
+                  <c:v>0.548909</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.71025</c:v>
+                  <c:v>5.65707</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.978339</c:v>
+                  <c:v>30.361973</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57.342883</c:v>
+                  <c:v>56.201949</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>83.707427</c:v>
+                  <c:v>82.041926</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.223824</c:v>
+                  <c:v>3.170643</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.552865</c:v>
+                  <c:v>0.548909</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.074355</c:v>
+                  <c:v>0.073526</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2.477353</c:v>
@@ -8728,19 +8695,19 @@
                   <c:v>2.507104</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.819842</c:v>
+                  <c:v>2.819013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.962046</c:v>
+                  <c:v>1.953182</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.932022</c:v>
+                  <c:v>5.813995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.102141</c:v>
+                  <c:v>0.104002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.079975</c:v>
+                  <c:v>0.079146</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2.477353</c:v>
@@ -8857,31 +8824,31 @@
                   <c:v>1.559359</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.555484</c:v>
+                  <c:v>2.55495</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.531767</c:v>
+                  <c:v>0.529222</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.937473</c:v>
+                  <c:v>4.903259</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.841049</c:v>
+                  <c:v>19.434765</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36.727049</c:v>
+                  <c:v>35.974991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>53.613048</c:v>
+                  <c:v>52.515216</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.054837</c:v>
+                  <c:v>3.020624</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.531767</c:v>
+                  <c:v>0.529222</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.476696</c:v>
+                  <c:v>0.476162</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.536832</c:v>
@@ -8893,19 +8860,19 @@
                   <c:v>1.559359</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.555484</c:v>
+                  <c:v>2.55495</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.587904</c:v>
+                  <c:v>1.582202</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.79935</c:v>
+                  <c:v>3.721551</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.055852</c:v>
+                  <c:v>0.057049</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.480951</c:v>
+                  <c:v>0.480418</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1.536832</c:v>
@@ -9022,31 +8989,31 @@
                   <c:v>1.853556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.107146</c:v>
+                  <c:v>3.106308</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.652756</c:v>
+                  <c:v>0.648757</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.677778</c:v>
+                  <c:v>6.62402</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.930488</c:v>
+                  <c:v>33.958109</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64.658563</c:v>
+                  <c:v>62.858627</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>94.386638</c:v>
+                  <c:v>91.759145</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.054305</c:v>
+                  <c:v>4.000546</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.652756</c:v>
+                  <c:v>0.648757</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.210333</c:v>
+                  <c:v>0.209495</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.822165</c:v>
@@ -9058,19 +9025,19 @@
                   <c:v>1.853556</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.107146</c:v>
+                  <c:v>3.106308</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.178988</c:v>
+                  <c:v>2.170028</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.688817</c:v>
+                  <c:v>6.502617</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.084923</c:v>
+                  <c:v>0.086804</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.216263</c:v>
+                  <c:v>0.215425</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1.822165</c:v>
@@ -9638,31 +9605,31 @@
                   <c:v>1.26099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.096034</c:v>
+                  <c:v>2.095849</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55039</c:v>
+                  <c:v>0.548625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.460097</c:v>
+                  <c:v>3.448231</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.341488</c:v>
+                  <c:v>40.956658</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>68.013416</c:v>
+                  <c:v>67.380308</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>94.685344</c:v>
+                  <c:v>93.803958</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.980656</c:v>
+                  <c:v>0.968789</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.55039</c:v>
+                  <c:v>0.548625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.147982</c:v>
+                  <c:v>0.148021</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.231238</c:v>
@@ -9674,19 +9641,19 @@
                   <c:v>1.26099</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.096034</c:v>
+                  <c:v>2.095849</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.585685</c:v>
+                  <c:v>1.583708</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.297933</c:v>
+                  <c:v>8.220691</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.180616</c:v>
+                  <c:v>0.181031</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.146802</c:v>
+                  <c:v>0.146841</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1.231238</c:v>
@@ -9803,31 +9770,31 @@
                   <c:v>0.785311</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.797259</c:v>
+                  <c:v>1.79714</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.530053</c:v>
+                  <c:v>0.528918</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.927872</c:v>
+                  <c:v>2.920245</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.022308</c:v>
+                  <c:v>25.768693</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.810893</c:v>
+                  <c:v>42.393657</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59.599479</c:v>
+                  <c:v>59.01862</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.050524</c:v>
+                  <c:v>1.042898</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.530053</c:v>
+                  <c:v>0.528918</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.066325</c:v>
+                  <c:v>0.06635</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.762784</c:v>
@@ -9839,19 +9806,19 @@
                   <c:v>0.785311</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.797259</c:v>
+                  <c:v>1.79714</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.25196</c:v>
+                  <c:v>1.250689</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.223116</c:v>
+                  <c:v>5.172211</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.125976</c:v>
+                  <c:v>0.126243</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.065431</c:v>
+                  <c:v>0.065456</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.762784</c:v>
@@ -9968,31 +9935,31 @@
                   <c:v>0.934626</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.277495</c:v>
+                  <c:v>2.277308</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.650071</c:v>
+                  <c:v>0.648287</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.976706</c:v>
+                  <c:v>3.964715</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.372197</c:v>
+                  <c:v>45.7638</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76.289744</c:v>
+                  <c:v>75.288832</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>106.207291</c:v>
+                  <c:v>104.813864</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.360603</c:v>
+                  <c:v>1.348611</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.650071</c:v>
+                  <c:v>0.648287</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.138609</c:v>
+                  <c:v>0.138648</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.903235</c:v>
@@ -10004,19 +9971,19 @@
                   <c:v>0.934626</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.277495</c:v>
+                  <c:v>2.277308</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.727401</c:v>
+                  <c:v>1.725403</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.307681</c:v>
+                  <c:v>9.185566</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.179164</c:v>
+                  <c:v>0.179584</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.137364</c:v>
+                  <c:v>0.137403</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.903235</c:v>
@@ -16456,8 +16423,8 @@
   <sheetPr/>
   <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -16549,58 +16516,58 @@
       <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="65">
+      <c r="C2" s="54">
         <v>0.00414</v>
       </c>
-      <c r="D2" s="65">
+      <c r="D2" s="54">
         <v>1.26099</v>
       </c>
-      <c r="E2" s="65">
-        <v>2.096034</v>
-      </c>
-      <c r="F2" s="65">
-        <v>0.55039</v>
-      </c>
-      <c r="G2" s="65">
-        <v>3.460097</v>
-      </c>
-      <c r="H2" s="65">
-        <v>41.341488</v>
-      </c>
-      <c r="I2" s="65">
-        <v>0.980656</v>
-      </c>
-      <c r="J2" s="65">
-        <v>0.55039</v>
-      </c>
-      <c r="K2" s="65">
-        <v>0.147982</v>
-      </c>
-      <c r="L2" s="65">
+      <c r="E2" s="54">
+        <v>2.095849</v>
+      </c>
+      <c r="F2" s="54">
+        <v>0.548625</v>
+      </c>
+      <c r="G2" s="54">
+        <v>3.448231</v>
+      </c>
+      <c r="H2" s="54">
+        <v>40.956658</v>
+      </c>
+      <c r="I2" s="54">
+        <v>0.968789</v>
+      </c>
+      <c r="J2" s="54">
+        <v>0.548625</v>
+      </c>
+      <c r="K2" s="54">
+        <v>0.148021</v>
+      </c>
+      <c r="L2" s="54">
         <v>1.231238</v>
       </c>
-      <c r="M2" s="65">
+      <c r="M2" s="54">
         <v>0.00414</v>
       </c>
-      <c r="N2" s="65">
+      <c r="N2" s="54">
         <v>1.26099</v>
       </c>
-      <c r="O2" s="65">
-        <v>2.096034</v>
-      </c>
-      <c r="P2" s="65">
-        <v>1.585685</v>
-      </c>
-      <c r="Q2" s="65">
-        <v>8.297933</v>
-      </c>
-      <c r="R2" s="65">
-        <v>0.180616</v>
-      </c>
-      <c r="S2" s="65">
-        <v>0.146802</v>
-      </c>
-      <c r="T2" s="75">
+      <c r="O2" s="54">
+        <v>2.095849</v>
+      </c>
+      <c r="P2" s="54">
+        <v>1.583708</v>
+      </c>
+      <c r="Q2" s="54">
+        <v>8.220691</v>
+      </c>
+      <c r="R2" s="54">
+        <v>0.181031</v>
+      </c>
+      <c r="S2" s="54">
+        <v>0.146841</v>
+      </c>
+      <c r="T2" s="64">
         <v>1.231238</v>
       </c>
     </row>
@@ -16609,58 +16576,58 @@
       <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="65">
+      <c r="C3" s="54">
         <v>0.003135</v>
       </c>
-      <c r="D3" s="65">
+      <c r="D3" s="54">
         <v>0.785311</v>
       </c>
-      <c r="E3" s="65">
-        <v>1.797259</v>
-      </c>
-      <c r="F3" s="65">
-        <v>0.530053</v>
-      </c>
-      <c r="G3" s="65">
-        <v>2.927872</v>
-      </c>
-      <c r="H3" s="65">
-        <v>26.022308</v>
-      </c>
-      <c r="I3" s="65">
-        <v>1.050524</v>
-      </c>
-      <c r="J3" s="65">
-        <v>0.530053</v>
-      </c>
-      <c r="K3" s="65">
-        <v>0.066325</v>
-      </c>
-      <c r="L3" s="65">
+      <c r="E3" s="54">
+        <v>1.79714</v>
+      </c>
+      <c r="F3" s="54">
+        <v>0.528918</v>
+      </c>
+      <c r="G3" s="54">
+        <v>2.920245</v>
+      </c>
+      <c r="H3" s="54">
+        <v>25.768693</v>
+      </c>
+      <c r="I3" s="54">
+        <v>1.042898</v>
+      </c>
+      <c r="J3" s="54">
+        <v>0.528918</v>
+      </c>
+      <c r="K3" s="54">
+        <v>0.06635</v>
+      </c>
+      <c r="L3" s="54">
         <v>0.762784</v>
       </c>
-      <c r="M3" s="65">
+      <c r="M3" s="54">
         <v>0.003135</v>
       </c>
-      <c r="N3" s="65">
+      <c r="N3" s="54">
         <v>0.785311</v>
       </c>
-      <c r="O3" s="65">
-        <v>1.797259</v>
-      </c>
-      <c r="P3" s="65">
-        <v>1.25196</v>
-      </c>
-      <c r="Q3" s="65">
-        <v>5.223116</v>
-      </c>
-      <c r="R3" s="65">
-        <v>0.125976</v>
-      </c>
-      <c r="S3" s="65">
-        <v>0.065431</v>
-      </c>
-      <c r="T3" s="75">
+      <c r="O3" s="54">
+        <v>1.79714</v>
+      </c>
+      <c r="P3" s="54">
+        <v>1.250689</v>
+      </c>
+      <c r="Q3" s="54">
+        <v>5.172211</v>
+      </c>
+      <c r="R3" s="54">
+        <v>0.126243</v>
+      </c>
+      <c r="S3" s="54">
+        <v>0.065456</v>
+      </c>
+      <c r="T3" s="64">
         <v>0.762784</v>
       </c>
     </row>
@@ -16669,58 +16636,58 @@
       <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="65">
+      <c r="C4" s="54">
         <v>0.004368</v>
       </c>
-      <c r="D4" s="65">
+      <c r="D4" s="54">
         <v>0.934626</v>
       </c>
-      <c r="E4" s="65">
-        <v>2.277495</v>
-      </c>
-      <c r="F4" s="65">
-        <v>0.650071</v>
-      </c>
-      <c r="G4" s="65">
-        <v>3.976706</v>
-      </c>
-      <c r="H4" s="65">
-        <v>46.372197</v>
-      </c>
-      <c r="I4" s="65">
-        <v>1.360603</v>
-      </c>
-      <c r="J4" s="65">
-        <v>0.650071</v>
-      </c>
-      <c r="K4" s="65">
-        <v>0.138609</v>
-      </c>
-      <c r="L4" s="65">
+      <c r="E4" s="54">
+        <v>2.277308</v>
+      </c>
+      <c r="F4" s="54">
+        <v>0.648287</v>
+      </c>
+      <c r="G4" s="54">
+        <v>3.964715</v>
+      </c>
+      <c r="H4" s="54">
+        <v>45.7638</v>
+      </c>
+      <c r="I4" s="54">
+        <v>1.348611</v>
+      </c>
+      <c r="J4" s="54">
+        <v>0.648287</v>
+      </c>
+      <c r="K4" s="54">
+        <v>0.138648</v>
+      </c>
+      <c r="L4" s="54">
         <v>0.903235</v>
       </c>
-      <c r="M4" s="65">
+      <c r="M4" s="54">
         <v>0.004368</v>
       </c>
-      <c r="N4" s="65">
+      <c r="N4" s="54">
         <v>0.934626</v>
       </c>
-      <c r="O4" s="65">
-        <v>2.277495</v>
-      </c>
-      <c r="P4" s="65">
-        <v>1.727401</v>
-      </c>
-      <c r="Q4" s="65">
-        <v>9.307681</v>
-      </c>
-      <c r="R4" s="65">
-        <v>0.179164</v>
-      </c>
-      <c r="S4" s="65">
-        <v>0.137364</v>
-      </c>
-      <c r="T4" s="75">
+      <c r="O4" s="54">
+        <v>2.277308</v>
+      </c>
+      <c r="P4" s="54">
+        <v>1.725403</v>
+      </c>
+      <c r="Q4" s="54">
+        <v>9.185566</v>
+      </c>
+      <c r="R4" s="54">
+        <v>0.179584</v>
+      </c>
+      <c r="S4" s="54">
+        <v>0.137403</v>
+      </c>
+      <c r="T4" s="64">
         <v>0.903235</v>
       </c>
     </row>
@@ -16752,58 +16719,58 @@
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="54">
         <v>0.00414</v>
       </c>
-      <c r="D6" s="65">
+      <c r="D6" s="54">
         <v>1.26099</v>
       </c>
-      <c r="E6" s="65">
-        <v>2.096034</v>
-      </c>
-      <c r="F6" s="65">
-        <v>0.55039</v>
-      </c>
-      <c r="G6" s="65">
-        <v>3.460097</v>
-      </c>
-      <c r="H6" s="65">
-        <v>68.013416</v>
-      </c>
-      <c r="I6" s="65">
-        <v>0.980656</v>
-      </c>
-      <c r="J6" s="65">
-        <v>0.55039</v>
-      </c>
-      <c r="K6" s="65">
-        <v>0.147982</v>
-      </c>
-      <c r="L6" s="65">
+      <c r="E6" s="54">
+        <v>2.095849</v>
+      </c>
+      <c r="F6" s="54">
+        <v>0.548625</v>
+      </c>
+      <c r="G6" s="54">
+        <v>3.448231</v>
+      </c>
+      <c r="H6" s="54">
+        <v>67.380308</v>
+      </c>
+      <c r="I6" s="54">
+        <v>0.968789</v>
+      </c>
+      <c r="J6" s="54">
+        <v>0.548625</v>
+      </c>
+      <c r="K6" s="54">
+        <v>0.148021</v>
+      </c>
+      <c r="L6" s="54">
         <v>1.231238</v>
       </c>
-      <c r="M6" s="65">
+      <c r="M6" s="54">
         <v>0.00414</v>
       </c>
-      <c r="N6" s="65">
+      <c r="N6" s="54">
         <v>1.26099</v>
       </c>
-      <c r="O6" s="65">
-        <v>2.096034</v>
-      </c>
-      <c r="P6" s="65">
-        <v>1.585685</v>
-      </c>
-      <c r="Q6" s="65">
-        <v>8.297933</v>
-      </c>
-      <c r="R6" s="65">
-        <v>0.180616</v>
-      </c>
-      <c r="S6" s="65">
-        <v>0.146802</v>
-      </c>
-      <c r="T6" s="75">
+      <c r="O6" s="54">
+        <v>2.095849</v>
+      </c>
+      <c r="P6" s="54">
+        <v>1.583708</v>
+      </c>
+      <c r="Q6" s="54">
+        <v>8.220691</v>
+      </c>
+      <c r="R6" s="54">
+        <v>0.181031</v>
+      </c>
+      <c r="S6" s="54">
+        <v>0.146841</v>
+      </c>
+      <c r="T6" s="64">
         <v>1.231238</v>
       </c>
     </row>
@@ -16812,58 +16779,58 @@
       <c r="B7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="65">
+      <c r="C7" s="54">
         <v>0.003135</v>
       </c>
-      <c r="D7" s="65">
+      <c r="D7" s="54">
         <v>0.785311</v>
       </c>
-      <c r="E7" s="65">
-        <v>1.797259</v>
-      </c>
-      <c r="F7" s="65">
-        <v>0.530053</v>
-      </c>
-      <c r="G7" s="65">
-        <v>2.927872</v>
-      </c>
-      <c r="H7" s="65">
-        <v>42.810893</v>
-      </c>
-      <c r="I7" s="65">
-        <v>1.050524</v>
-      </c>
-      <c r="J7" s="65">
-        <v>0.530053</v>
-      </c>
-      <c r="K7" s="65">
-        <v>0.066325</v>
-      </c>
-      <c r="L7" s="65">
+      <c r="E7" s="54">
+        <v>1.79714</v>
+      </c>
+      <c r="F7" s="54">
+        <v>0.528918</v>
+      </c>
+      <c r="G7" s="54">
+        <v>2.920245</v>
+      </c>
+      <c r="H7" s="54">
+        <v>42.393657</v>
+      </c>
+      <c r="I7" s="54">
+        <v>1.042898</v>
+      </c>
+      <c r="J7" s="54">
+        <v>0.528918</v>
+      </c>
+      <c r="K7" s="54">
+        <v>0.06635</v>
+      </c>
+      <c r="L7" s="54">
         <v>0.762784</v>
       </c>
-      <c r="M7" s="65">
+      <c r="M7" s="54">
         <v>0.003135</v>
       </c>
-      <c r="N7" s="65">
+      <c r="N7" s="54">
         <v>0.785311</v>
       </c>
-      <c r="O7" s="65">
-        <v>1.797259</v>
-      </c>
-      <c r="P7" s="65">
-        <v>1.25196</v>
-      </c>
-      <c r="Q7" s="65">
-        <v>5.223116</v>
-      </c>
-      <c r="R7" s="65">
-        <v>0.125976</v>
-      </c>
-      <c r="S7" s="65">
-        <v>0.065431</v>
-      </c>
-      <c r="T7" s="75">
+      <c r="O7" s="54">
+        <v>1.79714</v>
+      </c>
+      <c r="P7" s="54">
+        <v>1.250689</v>
+      </c>
+      <c r="Q7" s="54">
+        <v>5.172211</v>
+      </c>
+      <c r="R7" s="54">
+        <v>0.126243</v>
+      </c>
+      <c r="S7" s="54">
+        <v>0.065456</v>
+      </c>
+      <c r="T7" s="64">
         <v>0.762784</v>
       </c>
     </row>
@@ -16872,58 +16839,58 @@
       <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="65">
+      <c r="C8" s="54">
         <v>0.004368</v>
       </c>
-      <c r="D8" s="65">
+      <c r="D8" s="54">
         <v>0.934626</v>
       </c>
-      <c r="E8" s="65">
-        <v>2.277495</v>
-      </c>
-      <c r="F8" s="65">
-        <v>0.650071</v>
-      </c>
-      <c r="G8" s="65">
-        <v>3.976706</v>
-      </c>
-      <c r="H8" s="65">
-        <v>76.289744</v>
-      </c>
-      <c r="I8" s="65">
-        <v>1.360603</v>
-      </c>
-      <c r="J8" s="65">
-        <v>0.650071</v>
-      </c>
-      <c r="K8" s="65">
-        <v>0.138609</v>
-      </c>
-      <c r="L8" s="65">
+      <c r="E8" s="54">
+        <v>2.277308</v>
+      </c>
+      <c r="F8" s="54">
+        <v>0.648287</v>
+      </c>
+      <c r="G8" s="54">
+        <v>3.964715</v>
+      </c>
+      <c r="H8" s="54">
+        <v>75.288832</v>
+      </c>
+      <c r="I8" s="54">
+        <v>1.348611</v>
+      </c>
+      <c r="J8" s="54">
+        <v>0.648287</v>
+      </c>
+      <c r="K8" s="54">
+        <v>0.138648</v>
+      </c>
+      <c r="L8" s="54">
         <v>0.903235</v>
       </c>
-      <c r="M8" s="65">
+      <c r="M8" s="54">
         <v>0.004368</v>
       </c>
-      <c r="N8" s="65">
+      <c r="N8" s="54">
         <v>0.934626</v>
       </c>
-      <c r="O8" s="65">
-        <v>2.277495</v>
-      </c>
-      <c r="P8" s="65">
-        <v>1.727401</v>
-      </c>
-      <c r="Q8" s="65">
-        <v>9.307681</v>
-      </c>
-      <c r="R8" s="65">
-        <v>0.179164</v>
-      </c>
-      <c r="S8" s="65">
-        <v>0.137364</v>
-      </c>
-      <c r="T8" s="75">
+      <c r="O8" s="54">
+        <v>2.277308</v>
+      </c>
+      <c r="P8" s="54">
+        <v>1.725403</v>
+      </c>
+      <c r="Q8" s="54">
+        <v>9.185566</v>
+      </c>
+      <c r="R8" s="54">
+        <v>0.179584</v>
+      </c>
+      <c r="S8" s="54">
+        <v>0.137403</v>
+      </c>
+      <c r="T8" s="64">
         <v>0.903235</v>
       </c>
     </row>
@@ -16934,58 +16901,58 @@
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="65">
+      <c r="C10" s="54">
         <v>0.00414</v>
       </c>
-      <c r="D10" s="65">
+      <c r="D10" s="54">
         <v>1.26099</v>
       </c>
-      <c r="E10" s="65">
-        <v>2.096034</v>
-      </c>
-      <c r="F10" s="65">
-        <v>0.55039</v>
-      </c>
-      <c r="G10" s="65">
-        <v>3.460097</v>
-      </c>
-      <c r="H10" s="65">
-        <v>94.685344</v>
-      </c>
-      <c r="I10" s="65">
-        <v>0.980656</v>
-      </c>
-      <c r="J10" s="65">
-        <v>0.55039</v>
-      </c>
-      <c r="K10" s="65">
-        <v>0.147982</v>
-      </c>
-      <c r="L10" s="65">
+      <c r="E10" s="54">
+        <v>2.095849</v>
+      </c>
+      <c r="F10" s="54">
+        <v>0.548625</v>
+      </c>
+      <c r="G10" s="54">
+        <v>3.448231</v>
+      </c>
+      <c r="H10" s="54">
+        <v>93.803958</v>
+      </c>
+      <c r="I10" s="54">
+        <v>0.968789</v>
+      </c>
+      <c r="J10" s="54">
+        <v>0.548625</v>
+      </c>
+      <c r="K10" s="54">
+        <v>0.148021</v>
+      </c>
+      <c r="L10" s="54">
         <v>1.231238</v>
       </c>
-      <c r="M10" s="65">
+      <c r="M10" s="54">
         <v>0.00414</v>
       </c>
-      <c r="N10" s="65">
+      <c r="N10" s="54">
         <v>1.26099</v>
       </c>
-      <c r="O10" s="65">
-        <v>2.096034</v>
-      </c>
-      <c r="P10" s="65">
-        <v>1.585685</v>
-      </c>
-      <c r="Q10" s="65">
-        <v>8.297933</v>
-      </c>
-      <c r="R10" s="65">
-        <v>0.180616</v>
-      </c>
-      <c r="S10" s="65">
-        <v>0.146802</v>
-      </c>
-      <c r="T10" s="75">
+      <c r="O10" s="54">
+        <v>2.095849</v>
+      </c>
+      <c r="P10" s="54">
+        <v>1.583708</v>
+      </c>
+      <c r="Q10" s="54">
+        <v>8.220691</v>
+      </c>
+      <c r="R10" s="54">
+        <v>0.181031</v>
+      </c>
+      <c r="S10" s="54">
+        <v>0.146841</v>
+      </c>
+      <c r="T10" s="64">
         <v>1.231238</v>
       </c>
     </row>
@@ -16994,58 +16961,58 @@
       <c r="B11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="65">
+      <c r="C11" s="54">
         <v>0.003135</v>
       </c>
-      <c r="D11" s="65">
+      <c r="D11" s="54">
         <v>0.785311</v>
       </c>
-      <c r="E11" s="65">
-        <v>1.797259</v>
-      </c>
-      <c r="F11" s="65">
-        <v>0.530053</v>
-      </c>
-      <c r="G11" s="65">
-        <v>2.927872</v>
-      </c>
-      <c r="H11" s="65">
-        <v>59.599479</v>
-      </c>
-      <c r="I11" s="65">
-        <v>1.050524</v>
-      </c>
-      <c r="J11" s="65">
-        <v>0.530053</v>
-      </c>
-      <c r="K11" s="65">
-        <v>0.066325</v>
-      </c>
-      <c r="L11" s="65">
+      <c r="E11" s="54">
+        <v>1.79714</v>
+      </c>
+      <c r="F11" s="54">
+        <v>0.528918</v>
+      </c>
+      <c r="G11" s="54">
+        <v>2.920245</v>
+      </c>
+      <c r="H11" s="54">
+        <v>59.01862</v>
+      </c>
+      <c r="I11" s="54">
+        <v>1.042898</v>
+      </c>
+      <c r="J11" s="54">
+        <v>0.528918</v>
+      </c>
+      <c r="K11" s="54">
+        <v>0.06635</v>
+      </c>
+      <c r="L11" s="54">
         <v>0.762784</v>
       </c>
-      <c r="M11" s="65">
+      <c r="M11" s="54">
         <v>0.003135</v>
       </c>
-      <c r="N11" s="65">
+      <c r="N11" s="54">
         <v>0.785311</v>
       </c>
-      <c r="O11" s="65">
-        <v>1.797259</v>
-      </c>
-      <c r="P11" s="65">
-        <v>1.25196</v>
-      </c>
-      <c r="Q11" s="65">
-        <v>5.223116</v>
-      </c>
-      <c r="R11" s="65">
-        <v>0.125976</v>
-      </c>
-      <c r="S11" s="65">
-        <v>0.065431</v>
-      </c>
-      <c r="T11" s="75">
+      <c r="O11" s="54">
+        <v>1.79714</v>
+      </c>
+      <c r="P11" s="54">
+        <v>1.250689</v>
+      </c>
+      <c r="Q11" s="54">
+        <v>5.172211</v>
+      </c>
+      <c r="R11" s="54">
+        <v>0.126243</v>
+      </c>
+      <c r="S11" s="54">
+        <v>0.065456</v>
+      </c>
+      <c r="T11" s="64">
         <v>0.762784</v>
       </c>
     </row>
@@ -17054,58 +17021,58 @@
       <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="65">
+      <c r="C12" s="54">
         <v>0.004368</v>
       </c>
-      <c r="D12" s="65">
+      <c r="D12" s="54">
         <v>0.934626</v>
       </c>
-      <c r="E12" s="65">
-        <v>2.277495</v>
-      </c>
-      <c r="F12" s="65">
-        <v>0.650071</v>
-      </c>
-      <c r="G12" s="65">
-        <v>3.976706</v>
-      </c>
-      <c r="H12" s="65">
-        <v>106.207291</v>
-      </c>
-      <c r="I12" s="65">
-        <v>1.360603</v>
-      </c>
-      <c r="J12" s="65">
-        <v>0.650071</v>
-      </c>
-      <c r="K12" s="65">
-        <v>0.138609</v>
-      </c>
-      <c r="L12" s="65">
+      <c r="E12" s="54">
+        <v>2.277308</v>
+      </c>
+      <c r="F12" s="54">
+        <v>0.648287</v>
+      </c>
+      <c r="G12" s="54">
+        <v>3.964715</v>
+      </c>
+      <c r="H12" s="54">
+        <v>104.813864</v>
+      </c>
+      <c r="I12" s="54">
+        <v>1.348611</v>
+      </c>
+      <c r="J12" s="54">
+        <v>0.648287</v>
+      </c>
+      <c r="K12" s="54">
+        <v>0.138648</v>
+      </c>
+      <c r="L12" s="54">
         <v>0.903235</v>
       </c>
-      <c r="M12" s="65">
+      <c r="M12" s="54">
         <v>0.004368</v>
       </c>
-      <c r="N12" s="65">
+      <c r="N12" s="54">
         <v>0.934626</v>
       </c>
-      <c r="O12" s="65">
-        <v>2.277495</v>
-      </c>
-      <c r="P12" s="65">
-        <v>1.727401</v>
-      </c>
-      <c r="Q12" s="65">
-        <v>9.307681</v>
-      </c>
-      <c r="R12" s="65">
-        <v>0.179164</v>
-      </c>
-      <c r="S12" s="65">
-        <v>0.137364</v>
-      </c>
-      <c r="T12" s="75">
+      <c r="O12" s="54">
+        <v>2.277308</v>
+      </c>
+      <c r="P12" s="54">
+        <v>1.725403</v>
+      </c>
+      <c r="Q12" s="54">
+        <v>9.185566</v>
+      </c>
+      <c r="R12" s="54">
+        <v>0.179584</v>
+      </c>
+      <c r="S12" s="54">
+        <v>0.137403</v>
+      </c>
+      <c r="T12" s="64">
         <v>0.903235</v>
       </c>
     </row>
@@ -17123,7 +17090,7 @@
       </c>
       <c r="C16" s="5">
         <f>SUM(C2:T2)</f>
-        <v>66.426843</v>
+        <v>65.935654</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -17132,7 +17099,7 @@
       </c>
       <c r="C17" s="5">
         <f>SUM(C3:T3)</f>
-        <v>44.490596</v>
+        <v>44.167361</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -17141,7 +17108,7 @@
       </c>
       <c r="C18" s="5">
         <f>SUM(C4:T4)</f>
-        <v>72.739315</v>
+        <v>71.979378</v>
       </c>
     </row>
     <row r="19" spans="3:3">
@@ -17164,7 +17131,7 @@
       </c>
       <c r="C22" s="5">
         <f>SUM(C6:T6)</f>
-        <v>93.098771</v>
+        <v>92.359304</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -17173,7 +17140,7 @@
       </c>
       <c r="C23" s="5">
         <f>SUM(C7:T7)</f>
-        <v>61.279181</v>
+        <v>60.792325</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -17182,7 +17149,7 @@
       </c>
       <c r="C24" s="5">
         <f>SUM(C8:T8)</f>
-        <v>102.656862</v>
+        <v>101.50441</v>
       </c>
     </row>
     <row r="25" spans="3:3">
@@ -17205,7 +17172,7 @@
       </c>
       <c r="C28" s="5">
         <f>SUM(C10:T10)</f>
-        <v>119.770699</v>
+        <v>118.782954</v>
       </c>
     </row>
     <row r="29" spans="2:3">
@@ -17214,7 +17181,7 @@
       </c>
       <c r="C29" s="5">
         <f>SUM(C11:T11)</f>
-        <v>78.067767</v>
+        <v>77.417288</v>
       </c>
     </row>
     <row r="30" spans="2:3">
@@ -17223,7 +17190,7 @@
       </c>
       <c r="C30" s="5">
         <f>SUM(C12:T12)</f>
-        <v>132.574409</v>
+        <v>131.029442</v>
       </c>
     </row>
     <row r="31" spans="3:3">
@@ -17233,22 +17200,22 @@
       <c r="C32" s="5"/>
     </row>
     <row r="39" spans="20:23">
-      <c r="T39" s="66" t="s">
+      <c r="T39" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="U39" s="67"/>
-      <c r="V39" s="67"/>
-      <c r="W39" s="68"/>
+      <c r="U39" s="56"/>
+      <c r="V39" s="56"/>
+      <c r="W39" s="57"/>
     </row>
     <row r="40" spans="20:23">
-      <c r="T40" s="69"/>
+      <c r="T40" s="58"/>
       <c r="U40" s="2" t="s">
         <v>19</v>
       </c>
       <c r="V40" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="W40" s="70" t="s">
+      <c r="W40" s="59" t="s">
         <v>21</v>
       </c>
     </row>
@@ -17256,15 +17223,15 @@
       <c r="T41" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="U41" s="65">
+      <c r="U41" s="54">
         <f>C2</f>
         <v>0.00414</v>
       </c>
-      <c r="V41" s="65">
+      <c r="V41" s="54">
         <f>C3</f>
         <v>0.003135</v>
       </c>
-      <c r="W41" s="71">
+      <c r="W41" s="60">
         <f>C4</f>
         <v>0.004368</v>
       </c>
@@ -17273,15 +17240,15 @@
       <c r="T42" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="U42" s="65">
+      <c r="U42" s="54">
         <f>D2</f>
         <v>1.26099</v>
       </c>
-      <c r="V42" s="65">
+      <c r="V42" s="54">
         <f>D3</f>
         <v>0.785311</v>
       </c>
-      <c r="W42" s="71">
+      <c r="W42" s="60">
         <f>D4</f>
         <v>0.934626</v>
       </c>
@@ -17290,168 +17257,168 @@
       <c r="T43" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="U43" s="65">
+      <c r="U43" s="54">
         <f>E2</f>
-        <v>2.096034</v>
-      </c>
-      <c r="V43" s="65">
+        <v>2.095849</v>
+      </c>
+      <c r="V43" s="54">
         <f>E3</f>
-        <v>1.797259</v>
-      </c>
-      <c r="W43" s="71">
+        <v>1.79714</v>
+      </c>
+      <c r="W43" s="60">
         <f>E4</f>
-        <v>2.277495</v>
+        <v>2.277308</v>
       </c>
     </row>
     <row r="44" spans="20:23">
       <c r="T44" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="U44" s="65">
+      <c r="U44" s="54">
         <f>F2</f>
-        <v>0.55039</v>
-      </c>
-      <c r="V44" s="65">
+        <v>0.548625</v>
+      </c>
+      <c r="V44" s="54">
         <f>F3</f>
-        <v>0.530053</v>
-      </c>
-      <c r="W44" s="71">
+        <v>0.528918</v>
+      </c>
+      <c r="W44" s="60">
         <f>F4</f>
-        <v>0.650071</v>
+        <v>0.648287</v>
       </c>
     </row>
     <row r="45" spans="20:23">
       <c r="T45" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="U45" s="65">
+      <c r="U45" s="54">
         <f>G2</f>
-        <v>3.460097</v>
-      </c>
-      <c r="V45" s="65">
+        <v>3.448231</v>
+      </c>
+      <c r="V45" s="54">
         <f>G3</f>
-        <v>2.927872</v>
-      </c>
-      <c r="W45" s="71">
+        <v>2.920245</v>
+      </c>
+      <c r="W45" s="60">
         <f>G4</f>
-        <v>3.976706</v>
+        <v>3.964715</v>
       </c>
     </row>
     <row r="46" spans="20:23">
-      <c r="T46" s="37" t="s">
+      <c r="T46" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="U46" s="72">
+      <c r="U46" s="61">
         <f>H2</f>
-        <v>41.341488</v>
-      </c>
-      <c r="V46" s="72">
+        <v>40.956658</v>
+      </c>
+      <c r="V46" s="61">
         <f>H3</f>
-        <v>26.022308</v>
-      </c>
-      <c r="W46" s="73">
+        <v>25.768693</v>
+      </c>
+      <c r="W46" s="62">
         <f>H4</f>
-        <v>46.372197</v>
+        <v>45.7638</v>
       </c>
     </row>
     <row r="47" spans="20:23">
-      <c r="T47" s="37" t="s">
+      <c r="T47" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="U47" s="72">
+      <c r="U47" s="61">
         <f>H6</f>
-        <v>68.013416</v>
-      </c>
-      <c r="V47" s="72">
+        <v>67.380308</v>
+      </c>
+      <c r="V47" s="61">
         <f>H7</f>
-        <v>42.810893</v>
-      </c>
-      <c r="W47" s="73">
+        <v>42.393657</v>
+      </c>
+      <c r="W47" s="62">
         <f>H8</f>
-        <v>76.289744</v>
+        <v>75.288832</v>
       </c>
     </row>
     <row r="48" spans="20:23">
-      <c r="T48" s="37" t="s">
+      <c r="T48" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="U48" s="72">
+      <c r="U48" s="61">
         <f>H10</f>
-        <v>94.685344</v>
-      </c>
-      <c r="V48" s="72">
+        <v>93.803958</v>
+      </c>
+      <c r="V48" s="61">
         <f>H11</f>
-        <v>59.599479</v>
-      </c>
-      <c r="W48" s="73">
+        <v>59.01862</v>
+      </c>
+      <c r="W48" s="62">
         <f>H12</f>
-        <v>106.207291</v>
+        <v>104.813864</v>
       </c>
     </row>
     <row r="49" spans="20:23">
       <c r="T49" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="U49" s="65">
+      <c r="U49" s="54">
         <f>I2</f>
-        <v>0.980656</v>
-      </c>
-      <c r="V49" s="65">
+        <v>0.968789</v>
+      </c>
+      <c r="V49" s="54">
         <f>I3</f>
-        <v>1.050524</v>
-      </c>
-      <c r="W49" s="71">
+        <v>1.042898</v>
+      </c>
+      <c r="W49" s="60">
         <f>I4</f>
-        <v>1.360603</v>
+        <v>1.348611</v>
       </c>
     </row>
     <row r="50" spans="20:23">
       <c r="T50" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="U50" s="65">
+      <c r="U50" s="54">
         <f>J2</f>
-        <v>0.55039</v>
-      </c>
-      <c r="V50" s="65">
+        <v>0.548625</v>
+      </c>
+      <c r="V50" s="54">
         <f>J3</f>
-        <v>0.530053</v>
-      </c>
-      <c r="W50" s="71">
+        <v>0.528918</v>
+      </c>
+      <c r="W50" s="60">
         <f>J4</f>
-        <v>0.650071</v>
+        <v>0.648287</v>
       </c>
     </row>
     <row r="51" spans="20:23">
       <c r="T51" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="U51" s="65">
+      <c r="U51" s="54">
         <f>K2</f>
-        <v>0.147982</v>
-      </c>
-      <c r="V51" s="65">
+        <v>0.148021</v>
+      </c>
+      <c r="V51" s="54">
         <f>K3</f>
-        <v>0.066325</v>
-      </c>
-      <c r="W51" s="71">
+        <v>0.06635</v>
+      </c>
+      <c r="W51" s="60">
         <f>K4</f>
-        <v>0.138609</v>
+        <v>0.138648</v>
       </c>
     </row>
     <row r="52" spans="20:23">
       <c r="T52" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="U52" s="65">
+      <c r="U52" s="54">
         <f>L2</f>
         <v>1.231238</v>
       </c>
-      <c r="V52" s="65">
+      <c r="V52" s="54">
         <f>L3</f>
         <v>0.762784</v>
       </c>
-      <c r="W52" s="71">
+      <c r="W52" s="60">
         <f>L4</f>
         <v>0.903235</v>
       </c>
@@ -17460,15 +17427,15 @@
       <c r="T53" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="U53" s="65">
+      <c r="U53" s="54">
         <f>M2</f>
         <v>0.00414</v>
       </c>
-      <c r="V53" s="65">
+      <c r="V53" s="54">
         <f>M3</f>
         <v>0.003135</v>
       </c>
-      <c r="W53" s="71">
+      <c r="W53" s="60">
         <f>M4</f>
         <v>0.004368</v>
       </c>
@@ -17477,15 +17444,15 @@
       <c r="T54" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="U54" s="65">
+      <c r="U54" s="54">
         <f>N2</f>
         <v>1.26099</v>
       </c>
-      <c r="V54" s="65">
+      <c r="V54" s="54">
         <f>N3</f>
         <v>0.785311</v>
       </c>
-      <c r="W54" s="71">
+      <c r="W54" s="60">
         <f>N4</f>
         <v>0.934626</v>
       </c>
@@ -17494,100 +17461,100 @@
       <c r="T55" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="U55" s="65">
+      <c r="U55" s="54">
         <f>O2</f>
-        <v>2.096034</v>
-      </c>
-      <c r="V55" s="65">
+        <v>2.095849</v>
+      </c>
+      <c r="V55" s="54">
         <f>O3</f>
-        <v>1.797259</v>
-      </c>
-      <c r="W55" s="71">
+        <v>1.79714</v>
+      </c>
+      <c r="W55" s="60">
         <f>O4</f>
-        <v>2.277495</v>
+        <v>2.277308</v>
       </c>
     </row>
     <row r="56" spans="20:23">
       <c r="T56" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="U56" s="65">
+      <c r="U56" s="54">
         <f>P2</f>
-        <v>1.585685</v>
-      </c>
-      <c r="V56" s="65">
+        <v>1.583708</v>
+      </c>
+      <c r="V56" s="54">
         <f>P3</f>
-        <v>1.25196</v>
-      </c>
-      <c r="W56" s="71">
+        <v>1.250689</v>
+      </c>
+      <c r="W56" s="60">
         <f>P4</f>
-        <v>1.727401</v>
+        <v>1.725403</v>
       </c>
     </row>
     <row r="57" spans="20:23">
       <c r="T57" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="U57" s="65">
+      <c r="U57" s="54">
         <f>Q2</f>
-        <v>8.297933</v>
-      </c>
-      <c r="V57" s="65">
+        <v>8.220691</v>
+      </c>
+      <c r="V57" s="54">
         <f>Q3</f>
-        <v>5.223116</v>
-      </c>
-      <c r="W57" s="71">
+        <v>5.172211</v>
+      </c>
+      <c r="W57" s="60">
         <f>Q4</f>
-        <v>9.307681</v>
+        <v>9.185566</v>
       </c>
     </row>
     <row r="58" spans="20:23">
       <c r="T58" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="U58" s="65">
+      <c r="U58" s="54">
         <f>R2</f>
-        <v>0.180616</v>
-      </c>
-      <c r="V58" s="65">
+        <v>0.181031</v>
+      </c>
+      <c r="V58" s="54">
         <f>R3</f>
-        <v>0.125976</v>
-      </c>
-      <c r="W58" s="71">
+        <v>0.126243</v>
+      </c>
+      <c r="W58" s="60">
         <f>R4</f>
-        <v>0.179164</v>
+        <v>0.179584</v>
       </c>
     </row>
     <row r="59" spans="20:23">
       <c r="T59" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="U59" s="65">
+      <c r="U59" s="54">
         <f>S2</f>
-        <v>0.146802</v>
-      </c>
-      <c r="V59" s="65">
+        <v>0.146841</v>
+      </c>
+      <c r="V59" s="54">
         <f>S3</f>
-        <v>0.065431</v>
-      </c>
-      <c r="W59" s="71">
+        <v>0.065456</v>
+      </c>
+      <c r="W59" s="60">
         <f>S4</f>
-        <v>0.137364</v>
+        <v>0.137403</v>
       </c>
     </row>
     <row r="60" spans="20:23">
-      <c r="T60" s="48" t="s">
+      <c r="T60" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="U60" s="63">
+      <c r="U60" s="46">
         <f>T2</f>
         <v>1.231238</v>
       </c>
-      <c r="V60" s="63">
+      <c r="V60" s="46">
         <f>T3</f>
         <v>0.762784</v>
       </c>
-      <c r="W60" s="74">
+      <c r="W60" s="63">
         <f>T4</f>
         <v>0.903235</v>
       </c>
@@ -17610,8 +17577,8 @@
   <sheetPr/>
   <dimension ref="A1:AA60"/>
   <sheetViews>
-    <sheetView zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="27" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="27" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -17705,58 +17672,58 @@
       <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="65">
+      <c r="C2" s="54">
         <v>0.00414</v>
       </c>
-      <c r="D2" s="65">
+      <c r="D2" s="54">
         <v>2.507104</v>
       </c>
-      <c r="E2" s="65">
-        <v>2.819842</v>
-      </c>
-      <c r="F2" s="65">
-        <v>0.552865</v>
-      </c>
-      <c r="G2" s="65">
-        <v>5.71025</v>
-      </c>
-      <c r="H2" s="65">
-        <v>30.978339</v>
-      </c>
-      <c r="I2" s="65">
-        <v>3.223824</v>
-      </c>
-      <c r="J2" s="65">
-        <v>0.552865</v>
-      </c>
-      <c r="K2" s="65">
-        <v>0.074355</v>
-      </c>
-      <c r="L2" s="65">
+      <c r="E2" s="54">
+        <v>2.819013</v>
+      </c>
+      <c r="F2" s="54">
+        <v>0.548909</v>
+      </c>
+      <c r="G2" s="54">
+        <v>5.65707</v>
+      </c>
+      <c r="H2" s="54">
+        <v>30.361973</v>
+      </c>
+      <c r="I2" s="54">
+        <v>3.170643</v>
+      </c>
+      <c r="J2" s="54">
+        <v>0.548909</v>
+      </c>
+      <c r="K2" s="54">
+        <v>0.073526</v>
+      </c>
+      <c r="L2" s="54">
         <v>2.477353</v>
       </c>
-      <c r="M2" s="65">
+      <c r="M2" s="54">
         <v>0.00414</v>
       </c>
-      <c r="N2" s="65">
+      <c r="N2" s="54">
         <v>2.507104</v>
       </c>
-      <c r="O2" s="65">
-        <v>2.819842</v>
-      </c>
-      <c r="P2" s="65">
-        <v>1.962046</v>
-      </c>
-      <c r="Q2" s="65">
-        <v>5.932022</v>
-      </c>
-      <c r="R2" s="65">
-        <v>0.102141</v>
-      </c>
-      <c r="S2" s="65">
-        <v>0.079975</v>
-      </c>
-      <c r="T2" s="65">
+      <c r="O2" s="54">
+        <v>2.819013</v>
+      </c>
+      <c r="P2" s="54">
+        <v>1.953182</v>
+      </c>
+      <c r="Q2" s="54">
+        <v>5.813995</v>
+      </c>
+      <c r="R2" s="54">
+        <v>0.104002</v>
+      </c>
+      <c r="S2" s="54">
+        <v>0.079146</v>
+      </c>
+      <c r="T2" s="54">
         <v>2.477353</v>
       </c>
     </row>
@@ -17765,58 +17732,58 @@
       <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="65">
+      <c r="C3" s="54">
         <v>0.003135</v>
       </c>
-      <c r="D3" s="65">
+      <c r="D3" s="54">
         <v>1.559359</v>
       </c>
-      <c r="E3" s="65">
-        <v>2.555484</v>
-      </c>
-      <c r="F3" s="65">
-        <v>0.531767</v>
-      </c>
-      <c r="G3" s="65">
-        <v>4.937473</v>
-      </c>
-      <c r="H3" s="65">
-        <v>19.841049</v>
-      </c>
-      <c r="I3" s="65">
-        <v>3.054837</v>
-      </c>
-      <c r="J3" s="65">
-        <v>0.531767</v>
-      </c>
-      <c r="K3" s="65">
-        <v>0.476696</v>
-      </c>
-      <c r="L3" s="65">
+      <c r="E3" s="54">
+        <v>2.55495</v>
+      </c>
+      <c r="F3" s="54">
+        <v>0.529222</v>
+      </c>
+      <c r="G3" s="54">
+        <v>4.903259</v>
+      </c>
+      <c r="H3" s="54">
+        <v>19.434765</v>
+      </c>
+      <c r="I3" s="54">
+        <v>3.020624</v>
+      </c>
+      <c r="J3" s="54">
+        <v>0.529222</v>
+      </c>
+      <c r="K3" s="54">
+        <v>0.476162</v>
+      </c>
+      <c r="L3" s="54">
         <v>1.536832</v>
       </c>
-      <c r="M3" s="65">
+      <c r="M3" s="54">
         <v>0.003135</v>
       </c>
-      <c r="N3" s="65">
+      <c r="N3" s="54">
         <v>1.559359</v>
       </c>
-      <c r="O3" s="65">
-        <v>2.555484</v>
-      </c>
-      <c r="P3" s="65">
-        <v>1.587904</v>
-      </c>
-      <c r="Q3" s="65">
-        <v>3.79935</v>
-      </c>
-      <c r="R3" s="65">
-        <v>0.055852</v>
-      </c>
-      <c r="S3" s="65">
-        <v>0.480951</v>
-      </c>
-      <c r="T3" s="65">
+      <c r="O3" s="54">
+        <v>2.55495</v>
+      </c>
+      <c r="P3" s="54">
+        <v>1.582202</v>
+      </c>
+      <c r="Q3" s="54">
+        <v>3.721551</v>
+      </c>
+      <c r="R3" s="54">
+        <v>0.057049</v>
+      </c>
+      <c r="S3" s="54">
+        <v>0.480418</v>
+      </c>
+      <c r="T3" s="54">
         <v>1.536832</v>
       </c>
     </row>
@@ -17825,58 +17792,58 @@
       <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="65">
+      <c r="C4" s="54">
         <v>0.004368</v>
       </c>
-      <c r="D4" s="65">
+      <c r="D4" s="54">
         <v>1.853556</v>
       </c>
-      <c r="E4" s="65">
-        <v>3.107146</v>
-      </c>
-      <c r="F4" s="65">
-        <v>0.652756</v>
-      </c>
-      <c r="G4" s="65">
-        <v>6.677778</v>
-      </c>
-      <c r="H4" s="65">
-        <v>34.930488</v>
-      </c>
-      <c r="I4" s="65">
-        <v>4.054305</v>
-      </c>
-      <c r="J4" s="65">
-        <v>0.652756</v>
-      </c>
-      <c r="K4" s="65">
-        <v>0.210333</v>
-      </c>
-      <c r="L4" s="65">
+      <c r="E4" s="54">
+        <v>3.106308</v>
+      </c>
+      <c r="F4" s="54">
+        <v>0.648757</v>
+      </c>
+      <c r="G4" s="54">
+        <v>6.62402</v>
+      </c>
+      <c r="H4" s="54">
+        <v>33.958109</v>
+      </c>
+      <c r="I4" s="54">
+        <v>4.000546</v>
+      </c>
+      <c r="J4" s="54">
+        <v>0.648757</v>
+      </c>
+      <c r="K4" s="54">
+        <v>0.209495</v>
+      </c>
+      <c r="L4" s="54">
         <v>1.822165</v>
       </c>
-      <c r="M4" s="65">
+      <c r="M4" s="54">
         <v>0.004368</v>
       </c>
-      <c r="N4" s="65">
+      <c r="N4" s="54">
         <v>1.853556</v>
       </c>
-      <c r="O4" s="65">
-        <v>3.107146</v>
-      </c>
-      <c r="P4" s="65">
-        <v>2.178988</v>
-      </c>
-      <c r="Q4" s="65">
-        <v>6.688817</v>
-      </c>
-      <c r="R4" s="65">
-        <v>0.084923</v>
-      </c>
-      <c r="S4" s="65">
-        <v>0.216263</v>
-      </c>
-      <c r="T4" s="65">
+      <c r="O4" s="54">
+        <v>3.106308</v>
+      </c>
+      <c r="P4" s="54">
+        <v>2.170028</v>
+      </c>
+      <c r="Q4" s="54">
+        <v>6.502617</v>
+      </c>
+      <c r="R4" s="54">
+        <v>0.086804</v>
+      </c>
+      <c r="S4" s="54">
+        <v>0.215425</v>
+      </c>
+      <c r="T4" s="54">
         <v>1.822165</v>
       </c>
     </row>
@@ -17908,58 +17875,58 @@
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="54">
         <v>0.00414</v>
       </c>
-      <c r="D6" s="65">
+      <c r="D6" s="54">
         <v>2.507104</v>
       </c>
-      <c r="E6" s="65">
-        <v>2.819842</v>
-      </c>
-      <c r="F6" s="65">
-        <v>0.552865</v>
-      </c>
-      <c r="G6" s="65">
-        <v>5.71025</v>
-      </c>
-      <c r="H6" s="65">
-        <v>57.342883</v>
-      </c>
-      <c r="I6" s="65">
-        <v>3.223824</v>
-      </c>
-      <c r="J6" s="65">
-        <v>0.552865</v>
-      </c>
-      <c r="K6" s="65">
-        <v>0.074355</v>
-      </c>
-      <c r="L6" s="65">
+      <c r="E6" s="54">
+        <v>2.819013</v>
+      </c>
+      <c r="F6" s="54">
+        <v>0.548909</v>
+      </c>
+      <c r="G6" s="54">
+        <v>5.65707</v>
+      </c>
+      <c r="H6" s="54">
+        <v>56.201949</v>
+      </c>
+      <c r="I6" s="54">
+        <v>3.170643</v>
+      </c>
+      <c r="J6" s="54">
+        <v>0.548909</v>
+      </c>
+      <c r="K6" s="54">
+        <v>0.073526</v>
+      </c>
+      <c r="L6" s="54">
         <v>2.477353</v>
       </c>
-      <c r="M6" s="65">
+      <c r="M6" s="54">
         <v>0.00414</v>
       </c>
-      <c r="N6" s="65">
+      <c r="N6" s="54">
         <v>2.507104</v>
       </c>
-      <c r="O6" s="65">
-        <v>2.819842</v>
-      </c>
-      <c r="P6" s="65">
-        <v>1.962046</v>
-      </c>
-      <c r="Q6" s="65">
-        <v>5.932022</v>
-      </c>
-      <c r="R6" s="65">
-        <v>0.102141</v>
-      </c>
-      <c r="S6" s="65">
-        <v>0.079975</v>
-      </c>
-      <c r="T6" s="65">
+      <c r="O6" s="54">
+        <v>2.819013</v>
+      </c>
+      <c r="P6" s="54">
+        <v>1.953182</v>
+      </c>
+      <c r="Q6" s="54">
+        <v>5.813995</v>
+      </c>
+      <c r="R6" s="54">
+        <v>0.104002</v>
+      </c>
+      <c r="S6" s="54">
+        <v>0.079146</v>
+      </c>
+      <c r="T6" s="54">
         <v>2.477353</v>
       </c>
     </row>
@@ -17968,58 +17935,58 @@
       <c r="B7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="65">
+      <c r="C7" s="54">
         <v>0.003135</v>
       </c>
-      <c r="D7" s="65">
+      <c r="D7" s="54">
         <v>1.559359</v>
       </c>
-      <c r="E7" s="65">
-        <v>2.555484</v>
-      </c>
-      <c r="F7" s="65">
-        <v>0.531767</v>
-      </c>
-      <c r="G7" s="65">
-        <v>4.937473</v>
-      </c>
-      <c r="H7" s="65">
-        <v>36.727049</v>
-      </c>
-      <c r="I7" s="65">
-        <v>3.054837</v>
-      </c>
-      <c r="J7" s="65">
-        <v>0.531767</v>
-      </c>
-      <c r="K7" s="65">
-        <v>0.476696</v>
-      </c>
-      <c r="L7" s="65">
+      <c r="E7" s="54">
+        <v>2.55495</v>
+      </c>
+      <c r="F7" s="54">
+        <v>0.529222</v>
+      </c>
+      <c r="G7" s="54">
+        <v>4.903259</v>
+      </c>
+      <c r="H7" s="54">
+        <v>35.974991</v>
+      </c>
+      <c r="I7" s="54">
+        <v>3.020624</v>
+      </c>
+      <c r="J7" s="54">
+        <v>0.529222</v>
+      </c>
+      <c r="K7" s="54">
+        <v>0.476162</v>
+      </c>
+      <c r="L7" s="54">
         <v>1.536832</v>
       </c>
-      <c r="M7" s="65">
+      <c r="M7" s="54">
         <v>0.003135</v>
       </c>
-      <c r="N7" s="65">
+      <c r="N7" s="54">
         <v>1.559359</v>
       </c>
-      <c r="O7" s="65">
-        <v>2.555484</v>
-      </c>
-      <c r="P7" s="65">
-        <v>1.587904</v>
-      </c>
-      <c r="Q7" s="65">
-        <v>3.79935</v>
-      </c>
-      <c r="R7" s="65">
-        <v>0.055852</v>
-      </c>
-      <c r="S7" s="65">
-        <v>0.480951</v>
-      </c>
-      <c r="T7" s="65">
+      <c r="O7" s="54">
+        <v>2.55495</v>
+      </c>
+      <c r="P7" s="54">
+        <v>1.582202</v>
+      </c>
+      <c r="Q7" s="54">
+        <v>3.721551</v>
+      </c>
+      <c r="R7" s="54">
+        <v>0.057049</v>
+      </c>
+      <c r="S7" s="54">
+        <v>0.480418</v>
+      </c>
+      <c r="T7" s="54">
         <v>1.536832</v>
       </c>
     </row>
@@ -18028,58 +17995,58 @@
       <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="65">
+      <c r="C8" s="54">
         <v>0.004368</v>
       </c>
-      <c r="D8" s="65">
+      <c r="D8" s="54">
         <v>1.853556</v>
       </c>
-      <c r="E8" s="65">
-        <v>3.107146</v>
-      </c>
-      <c r="F8" s="65">
-        <v>0.652756</v>
-      </c>
-      <c r="G8" s="65">
-        <v>6.677778</v>
-      </c>
-      <c r="H8" s="65">
-        <v>64.658563</v>
-      </c>
-      <c r="I8" s="65">
-        <v>4.054305</v>
-      </c>
-      <c r="J8" s="65">
-        <v>0.652756</v>
-      </c>
-      <c r="K8" s="65">
-        <v>0.210333</v>
-      </c>
-      <c r="L8" s="65">
+      <c r="E8" s="54">
+        <v>3.106308</v>
+      </c>
+      <c r="F8" s="54">
+        <v>0.648757</v>
+      </c>
+      <c r="G8" s="54">
+        <v>6.62402</v>
+      </c>
+      <c r="H8" s="54">
+        <v>62.858627</v>
+      </c>
+      <c r="I8" s="54">
+        <v>4.000546</v>
+      </c>
+      <c r="J8" s="54">
+        <v>0.648757</v>
+      </c>
+      <c r="K8" s="54">
+        <v>0.209495</v>
+      </c>
+      <c r="L8" s="54">
         <v>1.822165</v>
       </c>
-      <c r="M8" s="65">
+      <c r="M8" s="54">
         <v>0.004368</v>
       </c>
-      <c r="N8" s="65">
+      <c r="N8" s="54">
         <v>1.853556</v>
       </c>
-      <c r="O8" s="65">
-        <v>3.107146</v>
-      </c>
-      <c r="P8" s="65">
-        <v>2.178988</v>
-      </c>
-      <c r="Q8" s="65">
-        <v>6.688817</v>
-      </c>
-      <c r="R8" s="65">
-        <v>0.084923</v>
-      </c>
-      <c r="S8" s="65">
-        <v>0.216263</v>
-      </c>
-      <c r="T8" s="65">
+      <c r="O8" s="54">
+        <v>3.106308</v>
+      </c>
+      <c r="P8" s="54">
+        <v>2.170028</v>
+      </c>
+      <c r="Q8" s="54">
+        <v>6.502617</v>
+      </c>
+      <c r="R8" s="54">
+        <v>0.086804</v>
+      </c>
+      <c r="S8" s="54">
+        <v>0.215425</v>
+      </c>
+      <c r="T8" s="54">
         <v>1.822165</v>
       </c>
     </row>
@@ -18090,58 +18057,58 @@
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="65">
+      <c r="C10" s="54">
         <v>0.00414</v>
       </c>
-      <c r="D10" s="65">
+      <c r="D10" s="54">
         <v>2.507104</v>
       </c>
-      <c r="E10" s="65">
-        <v>2.819842</v>
-      </c>
-      <c r="F10" s="65">
-        <v>0.552865</v>
-      </c>
-      <c r="G10" s="65">
-        <v>5.71025</v>
-      </c>
-      <c r="H10" s="65">
-        <v>83.707427</v>
-      </c>
-      <c r="I10" s="65">
-        <v>3.223824</v>
-      </c>
-      <c r="J10" s="65">
-        <v>0.552865</v>
-      </c>
-      <c r="K10" s="65">
-        <v>0.074355</v>
-      </c>
-      <c r="L10" s="65">
+      <c r="E10" s="54">
+        <v>2.819013</v>
+      </c>
+      <c r="F10" s="54">
+        <v>0.548909</v>
+      </c>
+      <c r="G10" s="54">
+        <v>5.65707</v>
+      </c>
+      <c r="H10" s="54">
+        <v>82.041926</v>
+      </c>
+      <c r="I10" s="54">
+        <v>3.170643</v>
+      </c>
+      <c r="J10" s="54">
+        <v>0.548909</v>
+      </c>
+      <c r="K10" s="54">
+        <v>0.073526</v>
+      </c>
+      <c r="L10" s="54">
         <v>2.477353</v>
       </c>
-      <c r="M10" s="65">
+      <c r="M10" s="54">
         <v>0.00414</v>
       </c>
-      <c r="N10" s="65">
+      <c r="N10" s="54">
         <v>2.507104</v>
       </c>
-      <c r="O10" s="65">
-        <v>2.819842</v>
-      </c>
-      <c r="P10" s="65">
-        <v>1.962046</v>
-      </c>
-      <c r="Q10" s="65">
-        <v>5.932022</v>
-      </c>
-      <c r="R10" s="65">
-        <v>0.102141</v>
-      </c>
-      <c r="S10" s="65">
-        <v>0.079975</v>
-      </c>
-      <c r="T10" s="65">
+      <c r="O10" s="54">
+        <v>2.819013</v>
+      </c>
+      <c r="P10" s="54">
+        <v>1.953182</v>
+      </c>
+      <c r="Q10" s="54">
+        <v>5.813995</v>
+      </c>
+      <c r="R10" s="54">
+        <v>0.104002</v>
+      </c>
+      <c r="S10" s="54">
+        <v>0.079146</v>
+      </c>
+      <c r="T10" s="54">
         <v>2.477353</v>
       </c>
     </row>
@@ -18150,58 +18117,58 @@
       <c r="B11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="65">
+      <c r="C11" s="54">
         <v>0.003135</v>
       </c>
-      <c r="D11" s="65">
+      <c r="D11" s="54">
         <v>1.559359</v>
       </c>
-      <c r="E11" s="65">
-        <v>2.555484</v>
-      </c>
-      <c r="F11" s="65">
-        <v>0.531767</v>
-      </c>
-      <c r="G11" s="65">
-        <v>4.937473</v>
-      </c>
-      <c r="H11" s="65">
-        <v>53.613048</v>
-      </c>
-      <c r="I11" s="65">
-        <v>3.054837</v>
-      </c>
-      <c r="J11" s="65">
-        <v>0.531767</v>
-      </c>
-      <c r="K11" s="65">
-        <v>0.476696</v>
-      </c>
-      <c r="L11" s="65">
+      <c r="E11" s="54">
+        <v>2.55495</v>
+      </c>
+      <c r="F11" s="54">
+        <v>0.529222</v>
+      </c>
+      <c r="G11" s="54">
+        <v>4.903259</v>
+      </c>
+      <c r="H11" s="54">
+        <v>52.515216</v>
+      </c>
+      <c r="I11" s="54">
+        <v>3.020624</v>
+      </c>
+      <c r="J11" s="54">
+        <v>0.529222</v>
+      </c>
+      <c r="K11" s="54">
+        <v>0.476162</v>
+      </c>
+      <c r="L11" s="54">
         <v>1.536832</v>
       </c>
-      <c r="M11" s="65">
+      <c r="M11" s="54">
         <v>0.003135</v>
       </c>
-      <c r="N11" s="65">
+      <c r="N11" s="54">
         <v>1.559359</v>
       </c>
-      <c r="O11" s="65">
-        <v>2.555484</v>
-      </c>
-      <c r="P11" s="65">
-        <v>1.587904</v>
-      </c>
-      <c r="Q11" s="65">
-        <v>3.79935</v>
-      </c>
-      <c r="R11" s="65">
-        <v>0.055852</v>
-      </c>
-      <c r="S11" s="65">
-        <v>0.480951</v>
-      </c>
-      <c r="T11" s="65">
+      <c r="O11" s="54">
+        <v>2.55495</v>
+      </c>
+      <c r="P11" s="54">
+        <v>1.582202</v>
+      </c>
+      <c r="Q11" s="54">
+        <v>3.721551</v>
+      </c>
+      <c r="R11" s="54">
+        <v>0.057049</v>
+      </c>
+      <c r="S11" s="54">
+        <v>0.480418</v>
+      </c>
+      <c r="T11" s="54">
         <v>1.536832</v>
       </c>
     </row>
@@ -18210,58 +18177,58 @@
       <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="65">
+      <c r="C12" s="54">
         <v>0.004368</v>
       </c>
-      <c r="D12" s="65">
+      <c r="D12" s="54">
         <v>1.853556</v>
       </c>
-      <c r="E12" s="65">
-        <v>3.107146</v>
-      </c>
-      <c r="F12" s="65">
-        <v>0.652756</v>
-      </c>
-      <c r="G12" s="65">
-        <v>6.677778</v>
-      </c>
-      <c r="H12" s="65">
-        <v>94.386638</v>
-      </c>
-      <c r="I12" s="65">
-        <v>4.054305</v>
-      </c>
-      <c r="J12" s="65">
-        <v>0.652756</v>
-      </c>
-      <c r="K12" s="65">
-        <v>0.210333</v>
-      </c>
-      <c r="L12" s="65">
+      <c r="E12" s="54">
+        <v>3.106308</v>
+      </c>
+      <c r="F12" s="54">
+        <v>0.648757</v>
+      </c>
+      <c r="G12" s="54">
+        <v>6.62402</v>
+      </c>
+      <c r="H12" s="54">
+        <v>91.759145</v>
+      </c>
+      <c r="I12" s="54">
+        <v>4.000546</v>
+      </c>
+      <c r="J12" s="54">
+        <v>0.648757</v>
+      </c>
+      <c r="K12" s="54">
+        <v>0.209495</v>
+      </c>
+      <c r="L12" s="54">
         <v>1.822165</v>
       </c>
-      <c r="M12" s="65">
+      <c r="M12" s="54">
         <v>0.004368</v>
       </c>
-      <c r="N12" s="65">
+      <c r="N12" s="54">
         <v>1.853556</v>
       </c>
-      <c r="O12" s="65">
-        <v>3.107146</v>
-      </c>
-      <c r="P12" s="65">
-        <v>2.178988</v>
-      </c>
-      <c r="Q12" s="65">
-        <v>6.688817</v>
-      </c>
-      <c r="R12" s="65">
-        <v>0.084923</v>
-      </c>
-      <c r="S12" s="65">
-        <v>0.216263</v>
-      </c>
-      <c r="T12" s="65">
+      <c r="O12" s="54">
+        <v>3.106308</v>
+      </c>
+      <c r="P12" s="54">
+        <v>2.170028</v>
+      </c>
+      <c r="Q12" s="54">
+        <v>6.502617</v>
+      </c>
+      <c r="R12" s="54">
+        <v>0.086804</v>
+      </c>
+      <c r="S12" s="54">
+        <v>0.215425</v>
+      </c>
+      <c r="T12" s="54">
         <v>1.822165</v>
       </c>
     </row>
@@ -18279,7 +18246,7 @@
       </c>
       <c r="C16" s="5">
         <f>SUM(C2:T2)</f>
-        <v>64.78556</v>
+        <v>63.926575</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -18288,7 +18255,7 @@
       </c>
       <c r="C17" s="5">
         <f>SUM(C3:T3)</f>
-        <v>46.607266</v>
+        <v>46.043026</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -18297,7 +18264,7 @@
       </c>
       <c r="C18" s="5">
         <f>SUM(C4:T4)</f>
-        <v>69.921877</v>
+        <v>68.637352</v>
       </c>
     </row>
     <row r="19" spans="3:3">
@@ -18320,7 +18287,7 @@
       </c>
       <c r="C22" s="5">
         <f t="shared" ref="C22:C24" si="0">SUM(C6:T6)</f>
-        <v>91.150104</v>
+        <v>89.766551</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -18329,7 +18296,7 @@
       </c>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
-        <v>63.493266</v>
+        <v>62.583252</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -18338,7 +18305,7 @@
       </c>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
-        <v>99.649952</v>
+        <v>97.53787</v>
       </c>
     </row>
     <row r="25" spans="3:3">
@@ -18361,7 +18328,7 @@
       </c>
       <c r="C28" s="5">
         <f t="shared" ref="C28:C30" si="1">SUM(C10:T10)</f>
-        <v>117.514648</v>
+        <v>115.606528</v>
       </c>
     </row>
     <row r="29" spans="2:3">
@@ -18370,7 +18337,7 @@
       </c>
       <c r="C29" s="5">
         <f t="shared" si="1"/>
-        <v>80.379265</v>
+        <v>79.123477</v>
       </c>
     </row>
     <row r="30" spans="2:3">
@@ -18379,7 +18346,7 @@
       </c>
       <c r="C30" s="5">
         <f t="shared" si="1"/>
-        <v>129.378027</v>
+        <v>126.438388</v>
       </c>
     </row>
     <row r="31" spans="3:3">
@@ -18389,22 +18356,22 @@
       <c r="C32" s="5"/>
     </row>
     <row r="39" spans="20:23">
-      <c r="T39" s="66" t="s">
+      <c r="T39" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="U39" s="67"/>
-      <c r="V39" s="67"/>
-      <c r="W39" s="68"/>
+      <c r="U39" s="56"/>
+      <c r="V39" s="56"/>
+      <c r="W39" s="57"/>
     </row>
     <row r="40" spans="20:23">
-      <c r="T40" s="69"/>
+      <c r="T40" s="58"/>
       <c r="U40" s="2" t="s">
         <v>19</v>
       </c>
       <c r="V40" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="W40" s="70" t="s">
+      <c r="W40" s="59" t="s">
         <v>21</v>
       </c>
     </row>
@@ -18412,401 +18379,401 @@
       <c r="T41" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="U41" s="65">
+      <c r="U41" s="54">
         <f>C2</f>
         <v>0.00414</v>
       </c>
-      <c r="V41" s="65">
+      <c r="V41" s="54">
         <f>C3</f>
         <v>0.003135</v>
       </c>
-      <c r="W41" s="71">
+      <c r="W41" s="60">
         <f>C4</f>
         <v>0.004368</v>
       </c>
-      <c r="Y41" s="65"/>
-      <c r="Z41" s="65"/>
-      <c r="AA41" s="65"/>
+      <c r="Y41" s="54"/>
+      <c r="Z41" s="54"/>
+      <c r="AA41" s="54"/>
     </row>
     <row r="42" spans="20:27">
       <c r="T42" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="U42" s="65">
+      <c r="U42" s="54">
         <f>D2</f>
         <v>2.507104</v>
       </c>
-      <c r="V42" s="65">
+      <c r="V42" s="54">
         <f>D3</f>
         <v>1.559359</v>
       </c>
-      <c r="W42" s="71">
+      <c r="W42" s="60">
         <f>D4</f>
         <v>1.853556</v>
       </c>
-      <c r="Y42" s="65"/>
-      <c r="Z42" s="65"/>
-      <c r="AA42" s="65"/>
+      <c r="Y42" s="54"/>
+      <c r="Z42" s="54"/>
+      <c r="AA42" s="54"/>
     </row>
     <row r="43" spans="20:27">
       <c r="T43" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="U43" s="65">
+      <c r="U43" s="54">
         <f>E2</f>
-        <v>2.819842</v>
-      </c>
-      <c r="V43" s="65">
+        <v>2.819013</v>
+      </c>
+      <c r="V43" s="54">
         <f>E3</f>
-        <v>2.555484</v>
-      </c>
-      <c r="W43" s="71">
+        <v>2.55495</v>
+      </c>
+      <c r="W43" s="60">
         <f>E4</f>
-        <v>3.107146</v>
-      </c>
-      <c r="Y43" s="65"/>
-      <c r="Z43" s="65"/>
-      <c r="AA43" s="65"/>
+        <v>3.106308</v>
+      </c>
+      <c r="Y43" s="54"/>
+      <c r="Z43" s="54"/>
+      <c r="AA43" s="54"/>
     </row>
     <row r="44" spans="20:27">
       <c r="T44" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="U44" s="65">
+      <c r="U44" s="54">
         <f>F2</f>
-        <v>0.552865</v>
-      </c>
-      <c r="V44" s="65">
+        <v>0.548909</v>
+      </c>
+      <c r="V44" s="54">
         <f>F3</f>
-        <v>0.531767</v>
-      </c>
-      <c r="W44" s="71">
+        <v>0.529222</v>
+      </c>
+      <c r="W44" s="60">
         <f>F4</f>
-        <v>0.652756</v>
-      </c>
-      <c r="Y44" s="65"/>
-      <c r="Z44" s="65"/>
-      <c r="AA44" s="65"/>
+        <v>0.648757</v>
+      </c>
+      <c r="Y44" s="54"/>
+      <c r="Z44" s="54"/>
+      <c r="AA44" s="54"/>
     </row>
     <row r="45" spans="20:27">
       <c r="T45" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="U45" s="65">
+      <c r="U45" s="54">
         <f>G2</f>
-        <v>5.71025</v>
-      </c>
-      <c r="V45" s="65">
+        <v>5.65707</v>
+      </c>
+      <c r="V45" s="54">
         <f>G3</f>
-        <v>4.937473</v>
-      </c>
-      <c r="W45" s="71">
+        <v>4.903259</v>
+      </c>
+      <c r="W45" s="60">
         <f>G4</f>
-        <v>6.677778</v>
-      </c>
-      <c r="Y45" s="65"/>
-      <c r="Z45" s="65"/>
-      <c r="AA45" s="65"/>
+        <v>6.62402</v>
+      </c>
+      <c r="Y45" s="54"/>
+      <c r="Z45" s="54"/>
+      <c r="AA45" s="54"/>
     </row>
     <row r="46" spans="20:27">
-      <c r="T46" s="37" t="s">
+      <c r="T46" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="U46" s="72">
+      <c r="U46" s="61">
         <f>H2</f>
-        <v>30.978339</v>
-      </c>
-      <c r="V46" s="72">
+        <v>30.361973</v>
+      </c>
+      <c r="V46" s="61">
         <f>H3</f>
-        <v>19.841049</v>
-      </c>
-      <c r="W46" s="73">
+        <v>19.434765</v>
+      </c>
+      <c r="W46" s="62">
         <f>H4</f>
-        <v>34.930488</v>
-      </c>
-      <c r="Y46" s="65"/>
-      <c r="Z46" s="65"/>
-      <c r="AA46" s="65"/>
+        <v>33.958109</v>
+      </c>
+      <c r="Y46" s="54"/>
+      <c r="Z46" s="54"/>
+      <c r="AA46" s="54"/>
     </row>
     <row r="47" spans="20:27">
-      <c r="T47" s="37" t="s">
+      <c r="T47" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="U47" s="72">
+      <c r="U47" s="61">
         <f>H6</f>
-        <v>57.342883</v>
-      </c>
-      <c r="V47" s="72">
+        <v>56.201949</v>
+      </c>
+      <c r="V47" s="61">
         <f>H7</f>
-        <v>36.727049</v>
-      </c>
-      <c r="W47" s="73">
+        <v>35.974991</v>
+      </c>
+      <c r="W47" s="62">
         <f>H8</f>
-        <v>64.658563</v>
-      </c>
-      <c r="Y47" s="65"/>
-      <c r="Z47" s="65"/>
-      <c r="AA47" s="65"/>
+        <v>62.858627</v>
+      </c>
+      <c r="Y47" s="54"/>
+      <c r="Z47" s="54"/>
+      <c r="AA47" s="54"/>
     </row>
     <row r="48" spans="20:27">
-      <c r="T48" s="37" t="s">
+      <c r="T48" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="U48" s="72">
+      <c r="U48" s="61">
         <f>H10</f>
-        <v>83.707427</v>
-      </c>
-      <c r="V48" s="72">
+        <v>82.041926</v>
+      </c>
+      <c r="V48" s="61">
         <f>H11</f>
-        <v>53.613048</v>
-      </c>
-      <c r="W48" s="73">
+        <v>52.515216</v>
+      </c>
+      <c r="W48" s="62">
         <f>H12</f>
-        <v>94.386638</v>
-      </c>
-      <c r="Y48" s="65"/>
-      <c r="Z48" s="65"/>
-      <c r="AA48" s="65"/>
+        <v>91.759145</v>
+      </c>
+      <c r="Y48" s="54"/>
+      <c r="Z48" s="54"/>
+      <c r="AA48" s="54"/>
     </row>
     <row r="49" spans="20:27">
       <c r="T49" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="U49" s="65">
+      <c r="U49" s="54">
         <f>I2</f>
-        <v>3.223824</v>
-      </c>
-      <c r="V49" s="65">
+        <v>3.170643</v>
+      </c>
+      <c r="V49" s="54">
         <f>I3</f>
-        <v>3.054837</v>
-      </c>
-      <c r="W49" s="71">
+        <v>3.020624</v>
+      </c>
+      <c r="W49" s="60">
         <f>I4</f>
-        <v>4.054305</v>
-      </c>
-      <c r="Y49" s="65"/>
-      <c r="Z49" s="65"/>
-      <c r="AA49" s="65"/>
+        <v>4.000546</v>
+      </c>
+      <c r="Y49" s="54"/>
+      <c r="Z49" s="54"/>
+      <c r="AA49" s="54"/>
     </row>
     <row r="50" spans="20:27">
       <c r="T50" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="U50" s="65">
+      <c r="U50" s="54">
         <f>J2</f>
-        <v>0.552865</v>
-      </c>
-      <c r="V50" s="65">
+        <v>0.548909</v>
+      </c>
+      <c r="V50" s="54">
         <f>J3</f>
-        <v>0.531767</v>
-      </c>
-      <c r="W50" s="71">
+        <v>0.529222</v>
+      </c>
+      <c r="W50" s="60">
         <f>J4</f>
-        <v>0.652756</v>
-      </c>
-      <c r="Y50" s="65"/>
-      <c r="Z50" s="65"/>
-      <c r="AA50" s="65"/>
+        <v>0.648757</v>
+      </c>
+      <c r="Y50" s="54"/>
+      <c r="Z50" s="54"/>
+      <c r="AA50" s="54"/>
     </row>
     <row r="51" spans="20:27">
       <c r="T51" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="U51" s="65">
+      <c r="U51" s="54">
         <f>K2</f>
-        <v>0.074355</v>
-      </c>
-      <c r="V51" s="65">
+        <v>0.073526</v>
+      </c>
+      <c r="V51" s="54">
         <f>K3</f>
-        <v>0.476696</v>
-      </c>
-      <c r="W51" s="71">
+        <v>0.476162</v>
+      </c>
+      <c r="W51" s="60">
         <f>K4</f>
-        <v>0.210333</v>
-      </c>
-      <c r="Y51" s="65"/>
-      <c r="Z51" s="65"/>
-      <c r="AA51" s="65"/>
+        <v>0.209495</v>
+      </c>
+      <c r="Y51" s="54"/>
+      <c r="Z51" s="54"/>
+      <c r="AA51" s="54"/>
     </row>
     <row r="52" spans="20:27">
       <c r="T52" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="U52" s="65">
+      <c r="U52" s="54">
         <f>L2</f>
         <v>2.477353</v>
       </c>
-      <c r="V52" s="65">
+      <c r="V52" s="54">
         <f>L3</f>
         <v>1.536832</v>
       </c>
-      <c r="W52" s="71">
+      <c r="W52" s="60">
         <f>L4</f>
         <v>1.822165</v>
       </c>
-      <c r="Y52" s="65"/>
-      <c r="Z52" s="65"/>
-      <c r="AA52" s="65"/>
+      <c r="Y52" s="54"/>
+      <c r="Z52" s="54"/>
+      <c r="AA52" s="54"/>
     </row>
     <row r="53" spans="20:27">
       <c r="T53" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="U53" s="65">
+      <c r="U53" s="54">
         <f>M2</f>
         <v>0.00414</v>
       </c>
-      <c r="V53" s="65">
+      <c r="V53" s="54">
         <f>M3</f>
         <v>0.003135</v>
       </c>
-      <c r="W53" s="71">
+      <c r="W53" s="60">
         <f>M4</f>
         <v>0.004368</v>
       </c>
-      <c r="Y53" s="65"/>
-      <c r="Z53" s="65"/>
-      <c r="AA53" s="65"/>
+      <c r="Y53" s="54"/>
+      <c r="Z53" s="54"/>
+      <c r="AA53" s="54"/>
     </row>
     <row r="54" spans="20:27">
       <c r="T54" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="U54" s="65">
+      <c r="U54" s="54">
         <f>N2</f>
         <v>2.507104</v>
       </c>
-      <c r="V54" s="65">
+      <c r="V54" s="54">
         <f>N3</f>
         <v>1.559359</v>
       </c>
-      <c r="W54" s="71">
+      <c r="W54" s="60">
         <f>N4</f>
         <v>1.853556</v>
       </c>
-      <c r="Y54" s="65"/>
-      <c r="Z54" s="65"/>
-      <c r="AA54" s="65"/>
+      <c r="Y54" s="54"/>
+      <c r="Z54" s="54"/>
+      <c r="AA54" s="54"/>
     </row>
     <row r="55" spans="20:27">
       <c r="T55" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="U55" s="65">
+      <c r="U55" s="54">
         <f>O2</f>
-        <v>2.819842</v>
-      </c>
-      <c r="V55" s="65">
+        <v>2.819013</v>
+      </c>
+      <c r="V55" s="54">
         <f>O3</f>
-        <v>2.555484</v>
-      </c>
-      <c r="W55" s="71">
+        <v>2.55495</v>
+      </c>
+      <c r="W55" s="60">
         <f>O4</f>
-        <v>3.107146</v>
-      </c>
-      <c r="Y55" s="65"/>
-      <c r="Z55" s="65"/>
-      <c r="AA55" s="65"/>
+        <v>3.106308</v>
+      </c>
+      <c r="Y55" s="54"/>
+      <c r="Z55" s="54"/>
+      <c r="AA55" s="54"/>
     </row>
     <row r="56" spans="20:27">
       <c r="T56" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="U56" s="65">
+      <c r="U56" s="54">
         <f>P2</f>
-        <v>1.962046</v>
-      </c>
-      <c r="V56" s="65">
+        <v>1.953182</v>
+      </c>
+      <c r="V56" s="54">
         <f>P3</f>
-        <v>1.587904</v>
-      </c>
-      <c r="W56" s="71">
+        <v>1.582202</v>
+      </c>
+      <c r="W56" s="60">
         <f>P4</f>
-        <v>2.178988</v>
-      </c>
-      <c r="Y56" s="65"/>
-      <c r="Z56" s="65"/>
-      <c r="AA56" s="65"/>
+        <v>2.170028</v>
+      </c>
+      <c r="Y56" s="54"/>
+      <c r="Z56" s="54"/>
+      <c r="AA56" s="54"/>
     </row>
     <row r="57" spans="20:27">
       <c r="T57" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="U57" s="65">
+      <c r="U57" s="54">
         <f>Q2</f>
-        <v>5.932022</v>
-      </c>
-      <c r="V57" s="65">
+        <v>5.813995</v>
+      </c>
+      <c r="V57" s="54">
         <f>Q3</f>
-        <v>3.79935</v>
-      </c>
-      <c r="W57" s="71">
+        <v>3.721551</v>
+      </c>
+      <c r="W57" s="60">
         <f>Q4</f>
-        <v>6.688817</v>
-      </c>
-      <c r="Y57" s="65"/>
-      <c r="Z57" s="65"/>
-      <c r="AA57" s="65"/>
+        <v>6.502617</v>
+      </c>
+      <c r="Y57" s="54"/>
+      <c r="Z57" s="54"/>
+      <c r="AA57" s="54"/>
     </row>
     <row r="58" spans="20:27">
       <c r="T58" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="U58" s="65">
+      <c r="U58" s="54">
         <f>R2</f>
-        <v>0.102141</v>
-      </c>
-      <c r="V58" s="65">
+        <v>0.104002</v>
+      </c>
+      <c r="V58" s="54">
         <f>R3</f>
-        <v>0.055852</v>
-      </c>
-      <c r="W58" s="71">
+        <v>0.057049</v>
+      </c>
+      <c r="W58" s="60">
         <f>R4</f>
-        <v>0.084923</v>
-      </c>
-      <c r="Y58" s="65"/>
-      <c r="Z58" s="65"/>
-      <c r="AA58" s="65"/>
+        <v>0.086804</v>
+      </c>
+      <c r="Y58" s="54"/>
+      <c r="Z58" s="54"/>
+      <c r="AA58" s="54"/>
     </row>
     <row r="59" spans="20:27">
       <c r="T59" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="U59" s="65">
+      <c r="U59" s="54">
         <f>S2</f>
-        <v>0.079975</v>
-      </c>
-      <c r="V59" s="65">
+        <v>0.079146</v>
+      </c>
+      <c r="V59" s="54">
         <f>S3</f>
-        <v>0.480951</v>
-      </c>
-      <c r="W59" s="71">
+        <v>0.480418</v>
+      </c>
+      <c r="W59" s="60">
         <f>S4</f>
-        <v>0.216263</v>
-      </c>
-      <c r="Y59" s="65"/>
-      <c r="Z59" s="65"/>
-      <c r="AA59" s="65"/>
+        <v>0.215425</v>
+      </c>
+      <c r="Y59" s="54"/>
+      <c r="Z59" s="54"/>
+      <c r="AA59" s="54"/>
     </row>
     <row r="60" spans="20:27">
-      <c r="T60" s="48" t="s">
+      <c r="T60" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="U60" s="63">
+      <c r="U60" s="46">
         <f>T2</f>
         <v>2.477353</v>
       </c>
-      <c r="V60" s="63">
+      <c r="V60" s="46">
         <f>T3</f>
         <v>1.536832</v>
       </c>
-      <c r="W60" s="74">
+      <c r="W60" s="63">
         <f>T4</f>
         <v>1.822165</v>
       </c>
-      <c r="Y60" s="65"/>
-      <c r="Z60" s="65"/>
-      <c r="AA60" s="65"/>
+      <c r="Y60" s="54"/>
+      <c r="Z60" s="54"/>
+      <c r="AA60" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -18827,8 +18794,8 @@
   <sheetPr/>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="U71" sqref="U71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -18868,15 +18835,15 @@
       </c>
       <c r="C3" s="5">
         <f>'1500 ft'!C16</f>
-        <v>66.426843</v>
+        <v>65.935654</v>
       </c>
       <c r="D3" s="5">
         <f>'3000 ft'!C16</f>
-        <v>64.78556</v>
+        <v>63.926575</v>
       </c>
       <c r="E3" s="6">
         <f>1-D3/C3</f>
-        <v>0.024708128911079</v>
+        <v>0.0304702976025688</v>
       </c>
       <c r="F3" s="7"/>
     </row>
@@ -18887,15 +18854,15 @@
       </c>
       <c r="C4" s="5">
         <f>'1500 ft'!C17</f>
-        <v>44.490596</v>
+        <v>44.167361</v>
       </c>
       <c r="D4" s="5">
         <f>'3000 ft'!C17</f>
-        <v>46.607266</v>
+        <v>46.043026</v>
       </c>
       <c r="E4" s="9">
         <f>1-D4/C4</f>
-        <v>-0.0475756719464939</v>
+        <v>-0.0424672191757165</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -18905,15 +18872,15 @@
       </c>
       <c r="C5" s="5">
         <f>'1500 ft'!C18</f>
-        <v>72.739315</v>
+        <v>71.979378</v>
       </c>
       <c r="D5" s="5">
         <f>'3000 ft'!C18</f>
-        <v>69.921877</v>
+        <v>68.637352</v>
       </c>
       <c r="E5" s="6">
         <f>1-D5/C5</f>
-        <v>0.0387333589820034</v>
+        <v>0.0464303261970396</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -18932,15 +18899,15 @@
       </c>
       <c r="C7" s="5">
         <f>'1500 ft'!C22</f>
-        <v>93.098771</v>
+        <v>92.359304</v>
       </c>
       <c r="D7" s="5">
         <f>'3000 ft'!C22</f>
-        <v>91.150104</v>
+        <v>89.766551</v>
       </c>
       <c r="E7" s="6">
         <f>1-D7/C7</f>
-        <v>0.0209311785651825</v>
+        <v>0.0280724614382114</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -18950,15 +18917,15 @@
       </c>
       <c r="C8" s="5">
         <f>'1500 ft'!C23</f>
-        <v>61.279181</v>
+        <v>60.792325</v>
       </c>
       <c r="D8" s="5">
         <f>'3000 ft'!C23</f>
-        <v>63.493266</v>
+        <v>62.583252</v>
       </c>
       <c r="E8" s="9">
         <f>1-D8/C8</f>
-        <v>-0.0361311127836383</v>
+        <v>-0.029459754993743</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -18968,15 +18935,15 @@
       </c>
       <c r="C9" s="5">
         <f>'1500 ft'!C24</f>
-        <v>102.656862</v>
+        <v>101.50441</v>
       </c>
       <c r="D9" s="5">
         <f>'3000 ft'!C24</f>
-        <v>99.649952</v>
+        <v>97.53787</v>
       </c>
       <c r="E9" s="6">
         <f>1-D9/C9</f>
-        <v>0.0292908816947862</v>
+        <v>0.0390775139720529</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -18995,15 +18962,15 @@
       </c>
       <c r="C11" s="5">
         <f>'1500 ft'!C28</f>
-        <v>119.770699</v>
+        <v>118.782954</v>
       </c>
       <c r="D11" s="5">
         <f>'3000 ft'!C28</f>
-        <v>117.514648</v>
+        <v>115.606528</v>
       </c>
       <c r="E11" s="6">
         <f>1-D11/C11</f>
-        <v>0.0188364184131549</v>
+        <v>0.0267414295825648</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -19013,15 +18980,15 @@
       </c>
       <c r="C12" s="5">
         <f>'1500 ft'!C29</f>
-        <v>78.067767</v>
+        <v>77.417288</v>
       </c>
       <c r="D12" s="5">
         <f>'3000 ft'!C29</f>
-        <v>80.379265</v>
+        <v>79.123477</v>
       </c>
       <c r="E12" s="9">
         <f>1-D12/C12</f>
-        <v>-0.0296088653336279</v>
+        <v>-0.0220388629475119</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -19031,15 +18998,15 @@
       </c>
       <c r="C13" s="5">
         <f>'1500 ft'!C30</f>
-        <v>132.574409</v>
+        <v>131.029442</v>
       </c>
       <c r="D13" s="5">
         <f>'3000 ft'!C30</f>
-        <v>129.378027</v>
+        <v>126.438388</v>
       </c>
       <c r="E13" s="6">
         <f>1-D13/C13</f>
-        <v>0.0241100980506724</v>
+        <v>0.0350383389406482</v>
       </c>
     </row>
     <row r="17" spans="2:11">
@@ -19054,7 +19021,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="51"/>
+      <c r="K17" s="45"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="12" t="s">
@@ -19096,7 +19063,7 @@
       <c r="H19" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="52" t="s">
+      <c r="I19" s="46" t="s">
         <v>30</v>
       </c>
       <c r="J19" s="21" t="s">
@@ -19122,7 +19089,7 @@
         <f>1-C20/D20</f>
         <v>0</v>
       </c>
-      <c r="F20" s="27" cm="1">
+      <c r="F20" s="24" cm="1">
         <f t="array" ref="F20:F39">'1500 ft'!V41:V60</f>
         <v>0.003135</v>
       </c>
@@ -19134,11 +19101,11 @@
         <f t="shared" ref="H20:H39" si="0">1-F20/G20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="53" cm="1">
+      <c r="I20" s="47" cm="1">
         <f t="array" ref="I20:I39">'1500 ft'!W41:W60</f>
         <v>0.004368</v>
       </c>
-      <c r="J20" s="54" cm="1">
+      <c r="J20" s="25" cm="1">
         <f t="array" ref="J20:J39">'3000 ft'!W41:W60</f>
         <v>0.004368</v>
       </c>
@@ -19151,34 +19118,34 @@
       <c r="B21" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="27">
         <f>'1500 ft'!U42</f>
         <v>1.26099</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="28">
         <v>2.507104</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="29">
         <f t="shared" ref="E21:E39" si="2">1-C21/D21</f>
         <v>0.497033230372573</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="27">
         <v>0.785311</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="28">
         <v>1.559359</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="29">
         <f t="shared" si="0"/>
         <v>0.49638858017942</v>
       </c>
-      <c r="I21" s="55">
+      <c r="I21" s="48">
         <v>0.934626</v>
       </c>
-      <c r="J21" s="56">
+      <c r="J21" s="49">
         <v>1.853556</v>
       </c>
-      <c r="K21" s="30">
+      <c r="K21" s="29">
         <f t="shared" si="1"/>
         <v>0.495765976317953</v>
       </c>
@@ -19187,358 +19154,358 @@
       <c r="B22" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="27">
         <f>'1500 ft'!U43</f>
-        <v>2.096034</v>
-      </c>
-      <c r="D22" s="29">
-        <v>2.819842</v>
-      </c>
-      <c r="E22" s="30">
+        <v>2.095849</v>
+      </c>
+      <c r="D22" s="28">
+        <v>2.819013</v>
+      </c>
+      <c r="E22" s="29">
         <f t="shared" si="2"/>
-        <v>0.256683885125479</v>
-      </c>
-      <c r="F22" s="31">
-        <v>1.797259</v>
-      </c>
-      <c r="G22" s="29">
-        <v>2.555484</v>
-      </c>
-      <c r="H22" s="30">
+        <v>0.256530920573974</v>
+      </c>
+      <c r="F22" s="27">
+        <v>1.79714</v>
+      </c>
+      <c r="G22" s="28">
+        <v>2.55495</v>
+      </c>
+      <c r="H22" s="29">
         <f t="shared" si="0"/>
-        <v>0.296705046871747</v>
-      </c>
-      <c r="I22" s="55">
-        <v>2.277495</v>
-      </c>
-      <c r="J22" s="56">
-        <v>3.107146</v>
-      </c>
-      <c r="K22" s="30">
+        <v>0.296604630227597</v>
+      </c>
+      <c r="I22" s="48">
+        <v>2.277308</v>
+      </c>
+      <c r="J22" s="49">
+        <v>3.106308</v>
+      </c>
+      <c r="K22" s="29">
         <f t="shared" si="1"/>
-        <v>0.267013844859559</v>
+        <v>0.266876304603407</v>
       </c>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="27">
         <f>'1500 ft'!U44</f>
-        <v>0.55039</v>
-      </c>
-      <c r="D23" s="29">
-        <v>0.552865</v>
-      </c>
-      <c r="E23" s="30">
+        <v>0.548625</v>
+      </c>
+      <c r="D23" s="28">
+        <v>0.548909</v>
+      </c>
+      <c r="E23" s="29">
         <f t="shared" si="2"/>
-        <v>0.00447668056397132</v>
-      </c>
-      <c r="F23" s="31">
-        <v>0.530053</v>
-      </c>
-      <c r="G23" s="29">
-        <v>0.531767</v>
-      </c>
-      <c r="H23" s="30">
+        <v>0.000517389949882263</v>
+      </c>
+      <c r="F23" s="27">
+        <v>0.528918</v>
+      </c>
+      <c r="G23" s="28">
+        <v>0.529222</v>
+      </c>
+      <c r="H23" s="29">
         <f t="shared" si="0"/>
-        <v>0.00322321618302757</v>
-      </c>
-      <c r="I23" s="55">
-        <v>0.650071</v>
-      </c>
-      <c r="J23" s="56">
-        <v>0.652756</v>
-      </c>
-      <c r="K23" s="30">
+        <v>0.000574428122791515</v>
+      </c>
+      <c r="I23" s="48">
+        <v>0.648287</v>
+      </c>
+      <c r="J23" s="49">
+        <v>0.648757</v>
+      </c>
+      <c r="K23" s="29">
         <f t="shared" si="1"/>
-        <v>0.0041133287170092</v>
+        <v>0.000724462317940433</v>
       </c>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="27">
         <f>'1500 ft'!U45</f>
-        <v>3.460097</v>
-      </c>
-      <c r="D24" s="29">
-        <v>5.71025</v>
-      </c>
-      <c r="E24" s="30">
+        <v>3.448231</v>
+      </c>
+      <c r="D24" s="28">
+        <v>5.65707</v>
+      </c>
+      <c r="E24" s="29">
         <f t="shared" si="2"/>
-        <v>0.394055076397706</v>
-      </c>
-      <c r="F24" s="31">
-        <v>2.927872</v>
-      </c>
-      <c r="G24" s="29">
-        <v>4.937473</v>
-      </c>
-      <c r="H24" s="30">
+        <v>0.390456366988565</v>
+      </c>
+      <c r="F24" s="27">
+        <v>2.920245</v>
+      </c>
+      <c r="G24" s="28">
+        <v>4.903259</v>
+      </c>
+      <c r="H24" s="29">
         <f t="shared" si="0"/>
-        <v>0.407010023143418</v>
-      </c>
-      <c r="I24" s="55">
-        <v>3.976706</v>
-      </c>
-      <c r="J24" s="56">
-        <v>6.677778</v>
-      </c>
-      <c r="K24" s="30">
+        <v>0.404427748972673</v>
+      </c>
+      <c r="I24" s="48">
+        <v>3.964715</v>
+      </c>
+      <c r="J24" s="49">
+        <v>6.62402</v>
+      </c>
+      <c r="K24" s="29">
         <f t="shared" si="1"/>
-        <v>0.404486642113589</v>
+        <v>0.401463914662093</v>
       </c>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="31">
         <f>'1500 ft'!U46</f>
-        <v>41.341488</v>
-      </c>
-      <c r="D25" s="34">
-        <v>30.978339</v>
-      </c>
-      <c r="E25" s="35">
+        <v>40.956658</v>
+      </c>
+      <c r="D25" s="32">
+        <v>30.361973</v>
+      </c>
+      <c r="E25" s="33">
         <f t="shared" si="2"/>
-        <v>-0.334528878388218</v>
-      </c>
-      <c r="F25" s="36">
-        <v>26.022308</v>
-      </c>
-      <c r="G25" s="34">
-        <v>19.841049</v>
-      </c>
-      <c r="H25" s="35">
+        <v>-0.348945867253093</v>
+      </c>
+      <c r="F25" s="31">
+        <v>25.768693</v>
+      </c>
+      <c r="G25" s="32">
+        <v>19.434765</v>
+      </c>
+      <c r="H25" s="33">
         <f t="shared" si="0"/>
-        <v>-0.311538921152808</v>
-      </c>
-      <c r="I25" s="57">
-        <v>46.372197</v>
-      </c>
-      <c r="J25" s="58">
-        <v>34.930488</v>
+        <v>-0.325907105128362</v>
+      </c>
+      <c r="I25" s="50">
+        <v>45.7638</v>
+      </c>
+      <c r="J25" s="32">
+        <v>33.958109</v>
       </c>
       <c r="K25" s="26">
         <f t="shared" si="1"/>
-        <v>-0.327556517389623</v>
+        <v>-0.347654546959608</v>
       </c>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="38">
+      <c r="C26" s="35">
         <f>'1500 ft'!U47</f>
-        <v>68.013416</v>
-      </c>
-      <c r="D26" s="39">
-        <v>57.342883</v>
-      </c>
-      <c r="E26" s="40">
+        <v>67.380308</v>
+      </c>
+      <c r="D26" s="36">
+        <v>56.201949</v>
+      </c>
+      <c r="E26" s="37">
         <f t="shared" si="2"/>
-        <v>-0.186082952962097</v>
-      </c>
-      <c r="F26" s="41">
-        <v>42.810893</v>
-      </c>
-      <c r="G26" s="39">
-        <v>36.727049</v>
-      </c>
-      <c r="H26" s="40">
+        <v>-0.198896287386759</v>
+      </c>
+      <c r="F26" s="35">
+        <v>42.393657</v>
+      </c>
+      <c r="G26" s="36">
+        <v>35.974991</v>
+      </c>
+      <c r="H26" s="37">
         <f t="shared" si="0"/>
-        <v>-0.16565022689408</v>
-      </c>
-      <c r="I26" s="59">
-        <v>76.289744</v>
-      </c>
-      <c r="J26" s="60">
-        <v>64.658563</v>
-      </c>
-      <c r="K26" s="30">
+        <v>-0.178420225317082</v>
+      </c>
+      <c r="I26" s="51">
+        <v>75.288832</v>
+      </c>
+      <c r="J26" s="52">
+        <v>62.858627</v>
+      </c>
+      <c r="K26" s="29">
         <f t="shared" si="1"/>
-        <v>-0.179886166044241</v>
+        <v>-0.197748592249716</v>
       </c>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="43">
+      <c r="C27" s="39">
         <f>'1500 ft'!U48</f>
-        <v>94.685344</v>
-      </c>
-      <c r="D27" s="44">
-        <v>83.707427</v>
-      </c>
-      <c r="E27" s="45">
+        <v>93.803958</v>
+      </c>
+      <c r="D27" s="40">
+        <v>82.041926</v>
+      </c>
+      <c r="E27" s="41">
         <f t="shared" si="2"/>
-        <v>-0.131146272122305</v>
-      </c>
-      <c r="F27" s="46">
-        <v>59.599479</v>
-      </c>
-      <c r="G27" s="44">
-        <v>53.613048</v>
-      </c>
-      <c r="H27" s="45">
+        <v>-0.143366112589799</v>
+      </c>
+      <c r="F27" s="39">
+        <v>59.01862</v>
+      </c>
+      <c r="G27" s="40">
+        <v>52.515216</v>
+      </c>
+      <c r="H27" s="41">
         <f t="shared" si="0"/>
-        <v>-0.111659963820748</v>
-      </c>
-      <c r="I27" s="61">
-        <v>106.207291</v>
-      </c>
-      <c r="J27" s="62">
-        <v>94.386638</v>
-      </c>
-      <c r="K27" s="49">
+        <v>-0.12383846997792</v>
+      </c>
+      <c r="I27" s="53">
+        <v>104.813864</v>
+      </c>
+      <c r="J27" s="40">
+        <v>91.759145</v>
+      </c>
+      <c r="K27" s="44">
         <f t="shared" si="1"/>
-        <v>-0.12523650858292</v>
+        <v>-0.142271585028391</v>
       </c>
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="27">
         <f>'1500 ft'!U49</f>
-        <v>0.980656</v>
-      </c>
-      <c r="D28" s="29">
-        <v>3.223824</v>
-      </c>
-      <c r="E28" s="30">
+        <v>0.968789</v>
+      </c>
+      <c r="D28" s="28">
+        <v>3.170643</v>
+      </c>
+      <c r="E28" s="29">
         <f t="shared" si="2"/>
-        <v>0.69580969680727</v>
-      </c>
-      <c r="F28" s="31">
-        <v>1.050524</v>
-      </c>
-      <c r="G28" s="29">
-        <v>3.054837</v>
-      </c>
-      <c r="H28" s="30">
+        <v>0.694450305505855</v>
+      </c>
+      <c r="F28" s="27">
+        <v>1.042898</v>
+      </c>
+      <c r="G28" s="28">
+        <v>3.020624</v>
+      </c>
+      <c r="H28" s="29">
         <f t="shared" si="0"/>
-        <v>0.656111275331548</v>
-      </c>
-      <c r="I28" s="55">
-        <v>1.360603</v>
-      </c>
-      <c r="J28" s="56">
-        <v>4.054305</v>
-      </c>
-      <c r="K28" s="30">
+        <v>0.654740874733168</v>
+      </c>
+      <c r="I28" s="48">
+        <v>1.348611</v>
+      </c>
+      <c r="J28" s="49">
+        <v>4.000546</v>
+      </c>
+      <c r="K28" s="29">
         <f t="shared" si="1"/>
-        <v>0.664405366641138</v>
+        <v>0.662893265069318</v>
       </c>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="27">
         <f>'1500 ft'!U50</f>
-        <v>0.55039</v>
-      </c>
-      <c r="D29" s="29">
-        <v>0.552865</v>
-      </c>
-      <c r="E29" s="30">
+        <v>0.548625</v>
+      </c>
+      <c r="D29" s="28">
+        <v>0.548909</v>
+      </c>
+      <c r="E29" s="29">
         <f t="shared" si="2"/>
-        <v>0.00447668056397132</v>
-      </c>
-      <c r="F29" s="31">
-        <v>0.530053</v>
-      </c>
-      <c r="G29" s="29">
-        <v>0.531767</v>
-      </c>
-      <c r="H29" s="30">
+        <v>0.000517389949882263</v>
+      </c>
+      <c r="F29" s="27">
+        <v>0.528918</v>
+      </c>
+      <c r="G29" s="28">
+        <v>0.529222</v>
+      </c>
+      <c r="H29" s="29">
         <f t="shared" si="0"/>
-        <v>0.00322321618302757</v>
-      </c>
-      <c r="I29" s="55">
-        <v>0.650071</v>
-      </c>
-      <c r="J29" s="56">
-        <v>0.652756</v>
-      </c>
-      <c r="K29" s="30">
+        <v>0.000574428122791515</v>
+      </c>
+      <c r="I29" s="48">
+        <v>0.648287</v>
+      </c>
+      <c r="J29" s="49">
+        <v>0.648757</v>
+      </c>
+      <c r="K29" s="29">
         <f t="shared" si="1"/>
-        <v>0.0041133287170092</v>
+        <v>0.000724462317940433</v>
       </c>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="28">
+      <c r="C30" s="27">
         <f>'1500 ft'!U51</f>
-        <v>0.147982</v>
-      </c>
-      <c r="D30" s="29">
-        <v>0.074355</v>
-      </c>
-      <c r="E30" s="47">
+        <v>0.148021</v>
+      </c>
+      <c r="D30" s="28">
+        <v>0.073526</v>
+      </c>
+      <c r="E30" s="42">
         <f t="shared" si="2"/>
-        <v>-0.990209131867393</v>
-      </c>
-      <c r="F30" s="31">
-        <v>0.066325</v>
-      </c>
-      <c r="G30" s="29">
-        <v>0.476696</v>
-      </c>
-      <c r="H30" s="47">
+        <v>-1.01317901150613</v>
+      </c>
+      <c r="F30" s="27">
+        <v>0.06635</v>
+      </c>
+      <c r="G30" s="28">
+        <v>0.476162</v>
+      </c>
+      <c r="H30" s="42">
         <f t="shared" si="0"/>
-        <v>0.860865205497844</v>
-      </c>
-      <c r="I30" s="55">
-        <v>0.138609</v>
-      </c>
-      <c r="J30" s="56">
-        <v>0.210333</v>
-      </c>
-      <c r="K30" s="47">
+        <v>0.860656667268703</v>
+      </c>
+      <c r="I30" s="48">
+        <v>0.138648</v>
+      </c>
+      <c r="J30" s="49">
+        <v>0.209495</v>
+      </c>
+      <c r="K30" s="42">
         <f t="shared" si="1"/>
-        <v>0.341002125201466</v>
+        <v>0.338179908828373</v>
       </c>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="28">
+      <c r="C31" s="27">
         <f>'1500 ft'!U52</f>
         <v>1.231238</v>
       </c>
-      <c r="D31" s="29">
+      <c r="D31" s="28">
         <v>2.477353</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E31" s="29">
         <f t="shared" si="2"/>
         <v>0.503002599952449</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="27">
         <v>0.762784</v>
       </c>
-      <c r="G31" s="29">
+      <c r="G31" s="28">
         <v>1.536832</v>
       </c>
-      <c r="H31" s="30">
+      <c r="H31" s="29">
         <f t="shared" si="0"/>
         <v>0.503664681630783</v>
       </c>
-      <c r="I31" s="55">
+      <c r="I31" s="48">
         <v>0.903235</v>
       </c>
-      <c r="J31" s="56">
+      <c r="J31" s="49">
         <v>1.822165</v>
       </c>
-      <c r="K31" s="30">
+      <c r="K31" s="29">
         <f t="shared" si="1"/>
         <v>0.504306690118623</v>
       </c>
@@ -19547,34 +19514,34 @@
       <c r="B32" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="27">
         <f>'1500 ft'!U53</f>
         <v>0.00414</v>
       </c>
-      <c r="D32" s="29">
+      <c r="D32" s="28">
         <v>0.00414</v>
       </c>
-      <c r="E32" s="30">
+      <c r="E32" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F32" s="31">
+      <c r="F32" s="27">
         <v>0.003135</v>
       </c>
-      <c r="G32" s="29">
+      <c r="G32" s="28">
         <v>0.003135</v>
       </c>
-      <c r="H32" s="30">
+      <c r="H32" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I32" s="55">
+      <c r="I32" s="48">
         <v>0.004368</v>
       </c>
-      <c r="J32" s="56">
+      <c r="J32" s="49">
         <v>0.004368</v>
       </c>
-      <c r="K32" s="30">
+      <c r="K32" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -19583,34 +19550,34 @@
       <c r="B33" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="28">
+      <c r="C33" s="27">
         <f>'1500 ft'!U54</f>
         <v>1.26099</v>
       </c>
-      <c r="D33" s="29">
+      <c r="D33" s="28">
         <v>2.507104</v>
       </c>
-      <c r="E33" s="30">
+      <c r="E33" s="29">
         <f t="shared" si="2"/>
         <v>0.497033230372573</v>
       </c>
-      <c r="F33" s="31">
+      <c r="F33" s="27">
         <v>0.785311</v>
       </c>
-      <c r="G33" s="29">
+      <c r="G33" s="28">
         <v>1.559359</v>
       </c>
-      <c r="H33" s="30">
+      <c r="H33" s="29">
         <f t="shared" si="0"/>
         <v>0.49638858017942</v>
       </c>
-      <c r="I33" s="55">
+      <c r="I33" s="48">
         <v>0.934626</v>
       </c>
-      <c r="J33" s="56">
+      <c r="J33" s="49">
         <v>1.853556</v>
       </c>
-      <c r="K33" s="30">
+      <c r="K33" s="29">
         <f t="shared" si="1"/>
         <v>0.495765976317953</v>
       </c>
@@ -19619,184 +19586,184 @@
       <c r="B34" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C34" s="27">
         <f>'1500 ft'!U55</f>
-        <v>2.096034</v>
-      </c>
-      <c r="D34" s="29">
-        <v>2.819842</v>
-      </c>
-      <c r="E34" s="30">
+        <v>2.095849</v>
+      </c>
+      <c r="D34" s="28">
+        <v>2.819013</v>
+      </c>
+      <c r="E34" s="29">
         <f t="shared" si="2"/>
-        <v>0.256683885125479</v>
-      </c>
-      <c r="F34" s="31">
-        <v>1.797259</v>
-      </c>
-      <c r="G34" s="29">
-        <v>2.555484</v>
-      </c>
-      <c r="H34" s="30">
+        <v>0.256530920573974</v>
+      </c>
+      <c r="F34" s="27">
+        <v>1.79714</v>
+      </c>
+      <c r="G34" s="28">
+        <v>2.55495</v>
+      </c>
+      <c r="H34" s="29">
         <f t="shared" si="0"/>
-        <v>0.296705046871747</v>
-      </c>
-      <c r="I34" s="55">
-        <v>2.277495</v>
-      </c>
-      <c r="J34" s="56">
-        <v>3.107146</v>
-      </c>
-      <c r="K34" s="30">
+        <v>0.296604630227597</v>
+      </c>
+      <c r="I34" s="48">
+        <v>2.277308</v>
+      </c>
+      <c r="J34" s="49">
+        <v>3.106308</v>
+      </c>
+      <c r="K34" s="29">
         <f t="shared" si="1"/>
-        <v>0.267013844859559</v>
+        <v>0.266876304603407</v>
       </c>
     </row>
     <row r="35" spans="2:11">
       <c r="B35" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="28">
+      <c r="C35" s="27">
         <f>'1500 ft'!U56</f>
-        <v>1.585685</v>
-      </c>
-      <c r="D35" s="29">
-        <v>1.962046</v>
-      </c>
-      <c r="E35" s="30">
+        <v>1.583708</v>
+      </c>
+      <c r="D35" s="28">
+        <v>1.953182</v>
+      </c>
+      <c r="E35" s="29">
         <f t="shared" si="2"/>
-        <v>0.191820681064562</v>
-      </c>
-      <c r="F35" s="31">
-        <v>1.25196</v>
-      </c>
-      <c r="G35" s="29">
-        <v>1.587904</v>
-      </c>
-      <c r="H35" s="30">
+        <v>0.189165167403755</v>
+      </c>
+      <c r="F35" s="27">
+        <v>1.250689</v>
+      </c>
+      <c r="G35" s="28">
+        <v>1.582202</v>
+      </c>
+      <c r="H35" s="29">
         <f t="shared" si="0"/>
-        <v>0.211564427068639</v>
-      </c>
-      <c r="I35" s="55">
-        <v>1.727401</v>
-      </c>
-      <c r="J35" s="56">
-        <v>2.178988</v>
-      </c>
-      <c r="K35" s="30">
+        <v>0.209526343665348</v>
+      </c>
+      <c r="I35" s="48">
+        <v>1.725403</v>
+      </c>
+      <c r="J35" s="49">
+        <v>2.170028</v>
+      </c>
+      <c r="K35" s="29">
         <f t="shared" si="1"/>
-        <v>0.207246207872645</v>
+        <v>0.20489366957477</v>
       </c>
     </row>
     <row r="36" spans="2:11">
       <c r="B36" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="28">
+      <c r="C36" s="27">
         <f>'1500 ft'!U57</f>
-        <v>8.297933</v>
-      </c>
-      <c r="D36" s="29">
-        <v>5.932022</v>
-      </c>
-      <c r="E36" s="30">
+        <v>8.220691</v>
+      </c>
+      <c r="D36" s="28">
+        <v>5.813995</v>
+      </c>
+      <c r="E36" s="29">
         <f t="shared" si="2"/>
-        <v>-0.398837192444667</v>
-      </c>
-      <c r="F36" s="31">
-        <v>5.223116</v>
-      </c>
-      <c r="G36" s="29">
-        <v>3.79935</v>
-      </c>
-      <c r="H36" s="30">
+        <v>-0.413948756405879</v>
+      </c>
+      <c r="F36" s="27">
+        <v>5.172211</v>
+      </c>
+      <c r="G36" s="28">
+        <v>3.721551</v>
+      </c>
+      <c r="H36" s="29">
         <f t="shared" si="0"/>
-        <v>-0.374739363312145</v>
-      </c>
-      <c r="I36" s="55">
-        <v>9.307681</v>
-      </c>
-      <c r="J36" s="56">
-        <v>6.688817</v>
-      </c>
-      <c r="K36" s="30">
+        <v>-0.389799844204741</v>
+      </c>
+      <c r="I36" s="48">
+        <v>9.185566</v>
+      </c>
+      <c r="J36" s="49">
+        <v>6.502617</v>
+      </c>
+      <c r="K36" s="29">
         <f t="shared" si="1"/>
-        <v>-0.391528726230662</v>
+        <v>-0.412595267413105</v>
       </c>
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="28">
+      <c r="C37" s="27">
         <f>'1500 ft'!U58</f>
-        <v>0.180616</v>
-      </c>
-      <c r="D37" s="29">
-        <v>0.102141</v>
-      </c>
-      <c r="E37" s="30">
+        <v>0.181031</v>
+      </c>
+      <c r="D37" s="28">
+        <v>0.104002</v>
+      </c>
+      <c r="E37" s="29">
         <f t="shared" si="2"/>
-        <v>-0.76830068239003</v>
-      </c>
-      <c r="F37" s="31">
-        <v>0.125976</v>
-      </c>
-      <c r="G37" s="29">
-        <v>0.055852</v>
-      </c>
-      <c r="H37" s="30">
+        <v>-0.740649218284264</v>
+      </c>
+      <c r="F37" s="27">
+        <v>0.126243</v>
+      </c>
+      <c r="G37" s="28">
+        <v>0.057049</v>
+      </c>
+      <c r="H37" s="29">
         <f t="shared" si="0"/>
-        <v>-1.25553247869369</v>
-      </c>
-      <c r="I37" s="55">
-        <v>0.179164</v>
-      </c>
-      <c r="J37" s="56">
-        <v>0.084923</v>
-      </c>
-      <c r="K37" s="30">
+        <v>-1.21288716717208</v>
+      </c>
+      <c r="I37" s="48">
+        <v>0.179584</v>
+      </c>
+      <c r="J37" s="49">
+        <v>0.086804</v>
+      </c>
+      <c r="K37" s="29">
         <f t="shared" si="1"/>
-        <v>-1.10972292547366</v>
+        <v>-1.06884475369799</v>
       </c>
     </row>
     <row r="38" spans="2:11">
       <c r="B38" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="28">
+      <c r="C38" s="27">
         <f>'1500 ft'!U59</f>
-        <v>0.146802</v>
-      </c>
-      <c r="D38" s="29">
-        <v>0.079975</v>
-      </c>
-      <c r="E38" s="47">
+        <v>0.146841</v>
+      </c>
+      <c r="D38" s="28">
+        <v>0.079146</v>
+      </c>
+      <c r="E38" s="42">
         <f t="shared" si="2"/>
-        <v>-0.835598624570178</v>
-      </c>
-      <c r="F38" s="31">
-        <v>0.065431</v>
-      </c>
-      <c r="G38" s="29">
-        <v>0.480951</v>
-      </c>
-      <c r="H38" s="47">
+        <v>-0.855318019862027</v>
+      </c>
+      <c r="F38" s="27">
+        <v>0.065456</v>
+      </c>
+      <c r="G38" s="28">
+        <v>0.480418</v>
+      </c>
+      <c r="H38" s="42">
         <f t="shared" si="0"/>
-        <v>0.863954955910269</v>
-      </c>
-      <c r="I38" s="55">
-        <v>0.137364</v>
-      </c>
-      <c r="J38" s="56">
-        <v>0.216263</v>
-      </c>
-      <c r="K38" s="47">
+        <v>0.863751982648444</v>
+      </c>
+      <c r="I38" s="48">
+        <v>0.137403</v>
+      </c>
+      <c r="J38" s="49">
+        <v>0.215425</v>
+      </c>
+      <c r="K38" s="42">
         <f t="shared" si="1"/>
-        <v>0.364828935139159</v>
+        <v>0.362177091795288</v>
       </c>
     </row>
     <row r="39" spans="2:11">
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="43" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="20">
@@ -19806,27 +19773,27 @@
       <c r="D39" s="21">
         <v>2.477353</v>
       </c>
-      <c r="E39" s="49">
+      <c r="E39" s="44">
         <f t="shared" si="2"/>
         <v>0.503002599952449</v>
       </c>
-      <c r="F39" s="50">
+      <c r="F39" s="20">
         <v>0.762784</v>
       </c>
       <c r="G39" s="21">
         <v>1.536832</v>
       </c>
-      <c r="H39" s="49">
+      <c r="H39" s="44">
         <f t="shared" si="0"/>
         <v>0.503664681630783</v>
       </c>
-      <c r="I39" s="63">
+      <c r="I39" s="46">
         <v>0.903235</v>
       </c>
-      <c r="J39" s="64">
+      <c r="J39" s="21">
         <v>1.822165</v>
       </c>
-      <c r="K39" s="49">
+      <c r="K39" s="44">
         <f t="shared" si="1"/>
         <v>0.504306690118623</v>
       </c>

--- a/analysis/cfg-case-study/result-summary/energy-analysis/energy_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/energy-analysis/energy_1500_3000_ft.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12240" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1500 ft" sheetId="1" r:id="rId1"/>
@@ -1368,7 +1368,7 @@
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.26099</c:v>
+                  <c:v>1.410868</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.095849</c:v>
@@ -1392,13 +1392,13 @@
                   <c:v>0.148021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.231238</c:v>
+                  <c:v>1.088325</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.26099</c:v>
+                  <c:v>1.410868</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2.095849</c:v>
@@ -1416,7 +1416,7 @@
                   <c:v>0.146841</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.231238</c:v>
+                  <c:v>1.088325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1521,7 +1521,7 @@
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.785311</c:v>
+                  <c:v>0.876388</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.79714</c:v>
@@ -1545,13 +1545,13 @@
                   <c:v>0.06635</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.762784</c:v>
+                  <c:v>0.676034</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.785311</c:v>
+                  <c:v>0.876388</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1.79714</c:v>
@@ -1569,7 +1569,7 @@
                   <c:v>0.065456</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.762784</c:v>
+                  <c:v>0.676034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1674,7 +1674,7 @@
                   <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.934626</c:v>
+                  <c:v>1.040426</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.277308</c:v>
@@ -1698,13 +1698,13 @@
                   <c:v>0.138648</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.903235</c:v>
+                  <c:v>0.802571</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.934626</c:v>
+                  <c:v>1.040426</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2.277308</c:v>
@@ -1722,7 +1722,7 @@
                   <c:v>0.137403</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.903235</c:v>
+                  <c:v>0.802571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2275,7 +2275,7 @@
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.507104</c:v>
+                  <c:v>2.655278</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.819013</c:v>
@@ -2305,13 +2305,13 @@
                   <c:v>0.073526</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.477353</c:v>
+                  <c:v>2.33266</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.507104</c:v>
+                  <c:v>2.655278</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2.819013</c:v>
@@ -2329,7 +2329,7 @@
                   <c:v>0.079146</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.477353</c:v>
+                  <c:v>2.33266</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2440,7 +2440,7 @@
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.559359</c:v>
+                  <c:v>1.649377</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.55495</c:v>
@@ -2470,13 +2470,13 @@
                   <c:v>0.476162</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.536832</c:v>
+                  <c:v>1.448976</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.559359</c:v>
+                  <c:v>1.649377</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2.55495</c:v>
@@ -2494,7 +2494,7 @@
                   <c:v>0.480418</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.536832</c:v>
+                  <c:v>1.448976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2605,7 +2605,7 @@
                   <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.853556</c:v>
+                  <c:v>1.958099</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.106308</c:v>
@@ -2635,13 +2635,13 @@
                   <c:v>0.209495</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.822165</c:v>
+                  <c:v>1.720189</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.853556</c:v>
+                  <c:v>1.958099</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>3.106308</c:v>
@@ -2659,7 +2659,7 @@
                   <c:v>0.215425</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.822165</c:v>
+                  <c:v>1.720189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3205,7 +3205,7 @@
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.26099</c:v>
+                  <c:v>1.410868</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.095849</c:v>
@@ -3229,13 +3229,13 @@
                   <c:v>0.148021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.231238</c:v>
+                  <c:v>1.088325</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.26099</c:v>
+                  <c:v>1.410868</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2.095849</c:v>
@@ -3253,7 +3253,7 @@
                   <c:v>0.146841</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.231238</c:v>
+                  <c:v>1.088325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3358,7 +3358,7 @@
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.785311</c:v>
+                  <c:v>0.876388</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.79714</c:v>
@@ -3382,13 +3382,13 @@
                   <c:v>0.06635</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.762784</c:v>
+                  <c:v>0.676034</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.785311</c:v>
+                  <c:v>0.876388</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1.79714</c:v>
@@ -3406,7 +3406,7 @@
                   <c:v>0.065456</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.762784</c:v>
+                  <c:v>0.676034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3511,7 +3511,7 @@
                   <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.934626</c:v>
+                  <c:v>1.040426</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.277308</c:v>
@@ -3535,13 +3535,13 @@
                   <c:v>0.138648</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.903235</c:v>
+                  <c:v>0.802571</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.934626</c:v>
+                  <c:v>1.040426</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2.277308</c:v>
@@ -3559,7 +3559,7 @@
                   <c:v>0.137403</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.903235</c:v>
+                  <c:v>0.802571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4104,7 +4104,7 @@
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.26099</c:v>
+                  <c:v>1.410868</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.095849</c:v>
@@ -4128,13 +4128,13 @@
                   <c:v>0.148021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.231238</c:v>
+                  <c:v>1.088325</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.26099</c:v>
+                  <c:v>1.410868</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2.095849</c:v>
@@ -4152,7 +4152,7 @@
                   <c:v>0.146841</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.231238</c:v>
+                  <c:v>1.088325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4257,7 +4257,7 @@
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.785311</c:v>
+                  <c:v>0.876388</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.79714</c:v>
@@ -4281,13 +4281,13 @@
                   <c:v>0.06635</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.762784</c:v>
+                  <c:v>0.676034</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.785311</c:v>
+                  <c:v>0.876388</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1.79714</c:v>
@@ -4305,7 +4305,7 @@
                   <c:v>0.065456</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.762784</c:v>
+                  <c:v>0.676034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4410,7 +4410,7 @@
                   <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.934626</c:v>
+                  <c:v>1.040426</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.277308</c:v>
@@ -4434,13 +4434,13 @@
                   <c:v>0.138648</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.903235</c:v>
+                  <c:v>0.802571</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.934626</c:v>
+                  <c:v>1.040426</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2.277308</c:v>
@@ -4458,7 +4458,7 @@
                   <c:v>0.137403</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.903235</c:v>
+                  <c:v>0.802571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5020,7 +5020,7 @@
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.26099</c:v>
+                  <c:v>1.410868</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.095849</c:v>
@@ -5050,13 +5050,13 @@
                   <c:v>0.148021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.231238</c:v>
+                  <c:v>1.088325</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.26099</c:v>
+                  <c:v>1.410868</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2.095849</c:v>
@@ -5074,7 +5074,7 @@
                   <c:v>0.146841</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.231238</c:v>
+                  <c:v>1.088325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5185,7 +5185,7 @@
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.785311</c:v>
+                  <c:v>0.876388</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.79714</c:v>
@@ -5215,13 +5215,13 @@
                   <c:v>0.06635</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.762784</c:v>
+                  <c:v>0.676034</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.785311</c:v>
+                  <c:v>0.876388</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1.79714</c:v>
@@ -5239,7 +5239,7 @@
                   <c:v>0.065456</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.762784</c:v>
+                  <c:v>0.676034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5350,7 +5350,7 @@
                   <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.934626</c:v>
+                  <c:v>1.040426</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.277308</c:v>
@@ -5380,13 +5380,13 @@
                   <c:v>0.138648</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.903235</c:v>
+                  <c:v>0.802571</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.934626</c:v>
+                  <c:v>1.040426</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2.277308</c:v>
@@ -5404,7 +5404,7 @@
                   <c:v>0.137403</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.903235</c:v>
+                  <c:v>0.802571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5952,7 +5952,7 @@
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.507104</c:v>
+                  <c:v>2.655278</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.819013</c:v>
@@ -5976,13 +5976,13 @@
                   <c:v>0.073526</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.477353</c:v>
+                  <c:v>2.33266</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.507104</c:v>
+                  <c:v>2.655278</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2.819013</c:v>
@@ -6000,7 +6000,7 @@
                   <c:v>0.079146</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.477353</c:v>
+                  <c:v>2.33266</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6105,7 +6105,7 @@
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.559359</c:v>
+                  <c:v>1.649377</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.55495</c:v>
@@ -6129,13 +6129,13 @@
                   <c:v>0.476162</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.536832</c:v>
+                  <c:v>1.448976</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.559359</c:v>
+                  <c:v>1.649377</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2.55495</c:v>
@@ -6153,7 +6153,7 @@
                   <c:v>0.480418</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.536832</c:v>
+                  <c:v>1.448976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6258,7 +6258,7 @@
                   <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.853556</c:v>
+                  <c:v>1.958099</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.106308</c:v>
@@ -6282,13 +6282,13 @@
                   <c:v>0.209495</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.822165</c:v>
+                  <c:v>1.720189</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.853556</c:v>
+                  <c:v>1.958099</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>3.106308</c:v>
@@ -6306,7 +6306,7 @@
                   <c:v>0.215425</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.822165</c:v>
+                  <c:v>1.720189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6851,7 +6851,7 @@
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.507104</c:v>
+                  <c:v>2.655278</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.819013</c:v>
@@ -6875,13 +6875,13 @@
                   <c:v>0.073526</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.477353</c:v>
+                  <c:v>2.33266</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.507104</c:v>
+                  <c:v>2.655278</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2.819013</c:v>
@@ -6899,7 +6899,7 @@
                   <c:v>0.079146</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.477353</c:v>
+                  <c:v>2.33266</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7004,7 +7004,7 @@
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.559359</c:v>
+                  <c:v>1.649377</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.55495</c:v>
@@ -7028,13 +7028,13 @@
                   <c:v>0.476162</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.536832</c:v>
+                  <c:v>1.448976</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.559359</c:v>
+                  <c:v>1.649377</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2.55495</c:v>
@@ -7052,7 +7052,7 @@
                   <c:v>0.480418</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.536832</c:v>
+                  <c:v>1.448976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7157,7 +7157,7 @@
                   <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.853556</c:v>
+                  <c:v>1.958099</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.106308</c:v>
@@ -7181,13 +7181,13 @@
                   <c:v>0.209495</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.822165</c:v>
+                  <c:v>1.720189</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.853556</c:v>
+                  <c:v>1.958099</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>3.106308</c:v>
@@ -7205,7 +7205,7 @@
                   <c:v>0.215425</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.822165</c:v>
+                  <c:v>1.720189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7750,7 +7750,7 @@
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.507104</c:v>
+                  <c:v>2.655278</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.819013</c:v>
@@ -7774,13 +7774,13 @@
                   <c:v>0.073526</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.477353</c:v>
+                  <c:v>2.33266</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.507104</c:v>
+                  <c:v>2.655278</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2.819013</c:v>
@@ -7798,7 +7798,7 @@
                   <c:v>0.079146</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.477353</c:v>
+                  <c:v>2.33266</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7903,7 +7903,7 @@
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.559359</c:v>
+                  <c:v>1.649377</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.55495</c:v>
@@ -7927,13 +7927,13 @@
                   <c:v>0.476162</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.536832</c:v>
+                  <c:v>1.448976</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.559359</c:v>
+                  <c:v>1.649377</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2.55495</c:v>
@@ -7951,7 +7951,7 @@
                   <c:v>0.480418</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.536832</c:v>
+                  <c:v>1.448976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8056,7 +8056,7 @@
                   <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.853556</c:v>
+                  <c:v>1.958099</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.106308</c:v>
@@ -8080,13 +8080,13 @@
                   <c:v>0.209495</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.822165</c:v>
+                  <c:v>1.720189</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.853556</c:v>
+                  <c:v>1.958099</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>3.106308</c:v>
@@ -8104,7 +8104,7 @@
                   <c:v>0.215425</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.822165</c:v>
+                  <c:v>1.720189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8656,7 +8656,7 @@
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.507104</c:v>
+                  <c:v>2.655278</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.819013</c:v>
@@ -8686,13 +8686,13 @@
                   <c:v>0.073526</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.477353</c:v>
+                  <c:v>2.33266</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.507104</c:v>
+                  <c:v>2.655278</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2.819013</c:v>
@@ -8710,7 +8710,7 @@
                   <c:v>0.079146</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.477353</c:v>
+                  <c:v>2.33266</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8821,7 +8821,7 @@
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.559359</c:v>
+                  <c:v>1.649377</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.55495</c:v>
@@ -8851,13 +8851,13 @@
                   <c:v>0.476162</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.536832</c:v>
+                  <c:v>1.448976</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.559359</c:v>
+                  <c:v>1.649377</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2.55495</c:v>
@@ -8875,7 +8875,7 @@
                   <c:v>0.480418</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.536832</c:v>
+                  <c:v>1.448976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8986,7 +8986,7 @@
                   <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.853556</c:v>
+                  <c:v>1.958099</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.106308</c:v>
@@ -9016,13 +9016,13 @@
                   <c:v>0.209495</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.822165</c:v>
+                  <c:v>1.720189</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.853556</c:v>
+                  <c:v>1.958099</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>3.106308</c:v>
@@ -9040,7 +9040,7 @@
                   <c:v>0.215425</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.822165</c:v>
+                  <c:v>1.720189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9602,7 +9602,7 @@
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.26099</c:v>
+                  <c:v>1.410868</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.095849</c:v>
@@ -9632,13 +9632,13 @@
                   <c:v>0.148021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.231238</c:v>
+                  <c:v>1.088325</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.00414</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.26099</c:v>
+                  <c:v>1.410868</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2.095849</c:v>
@@ -9656,7 +9656,7 @@
                   <c:v>0.146841</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.231238</c:v>
+                  <c:v>1.088325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9767,7 +9767,7 @@
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.785311</c:v>
+                  <c:v>0.876388</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.79714</c:v>
@@ -9797,13 +9797,13 @@
                   <c:v>0.06635</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.762784</c:v>
+                  <c:v>0.676034</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.003135</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.785311</c:v>
+                  <c:v>0.876388</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1.79714</c:v>
@@ -9821,7 +9821,7 @@
                   <c:v>0.065456</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.762784</c:v>
+                  <c:v>0.676034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9932,7 +9932,7 @@
                   <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.934626</c:v>
+                  <c:v>1.040426</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.277308</c:v>
@@ -9962,13 +9962,13 @@
                   <c:v>0.138648</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.903235</c:v>
+                  <c:v>0.802571</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.004368</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.934626</c:v>
+                  <c:v>1.040426</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2.277308</c:v>
@@ -9986,7 +9986,7 @@
                   <c:v>0.137403</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.903235</c:v>
+                  <c:v>0.802571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16423,8 +16423,8 @@
   <sheetPr/>
   <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -16520,7 +16520,7 @@
         <v>0.00414</v>
       </c>
       <c r="D2" s="54">
-        <v>1.26099</v>
+        <v>1.410868</v>
       </c>
       <c r="E2" s="54">
         <v>2.095849</v>
@@ -16544,13 +16544,13 @@
         <v>0.148021</v>
       </c>
       <c r="L2" s="54">
-        <v>1.231238</v>
+        <v>1.088325</v>
       </c>
       <c r="M2" s="54">
         <v>0.00414</v>
       </c>
       <c r="N2" s="54">
-        <v>1.26099</v>
+        <v>1.410868</v>
       </c>
       <c r="O2" s="54">
         <v>2.095849</v>
@@ -16568,7 +16568,7 @@
         <v>0.146841</v>
       </c>
       <c r="T2" s="64">
-        <v>1.231238</v>
+        <v>1.088325</v>
       </c>
     </row>
     <row r="3" s="8" customFormat="1" spans="1:20">
@@ -16580,7 +16580,7 @@
         <v>0.003135</v>
       </c>
       <c r="D3" s="54">
-        <v>0.785311</v>
+        <v>0.876388</v>
       </c>
       <c r="E3" s="54">
         <v>1.79714</v>
@@ -16604,13 +16604,13 @@
         <v>0.06635</v>
       </c>
       <c r="L3" s="54">
-        <v>0.762784</v>
+        <v>0.676034</v>
       </c>
       <c r="M3" s="54">
         <v>0.003135</v>
       </c>
       <c r="N3" s="54">
-        <v>0.785311</v>
+        <v>0.876388</v>
       </c>
       <c r="O3" s="54">
         <v>1.79714</v>
@@ -16628,7 +16628,7 @@
         <v>0.065456</v>
       </c>
       <c r="T3" s="64">
-        <v>0.762784</v>
+        <v>0.676034</v>
       </c>
     </row>
     <row r="4" s="8" customFormat="1" spans="1:20">
@@ -16640,7 +16640,7 @@
         <v>0.004368</v>
       </c>
       <c r="D4" s="54">
-        <v>0.934626</v>
+        <v>1.040426</v>
       </c>
       <c r="E4" s="54">
         <v>2.277308</v>
@@ -16664,13 +16664,13 @@
         <v>0.138648</v>
       </c>
       <c r="L4" s="54">
-        <v>0.903235</v>
+        <v>0.802571</v>
       </c>
       <c r="M4" s="54">
         <v>0.004368</v>
       </c>
       <c r="N4" s="54">
-        <v>0.934626</v>
+        <v>1.040426</v>
       </c>
       <c r="O4" s="54">
         <v>2.277308</v>
@@ -16688,7 +16688,7 @@
         <v>0.137403</v>
       </c>
       <c r="T4" s="64">
-        <v>0.903235</v>
+        <v>0.802571</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="2:20">
@@ -16723,7 +16723,7 @@
         <v>0.00414</v>
       </c>
       <c r="D6" s="54">
-        <v>1.26099</v>
+        <v>1.410868</v>
       </c>
       <c r="E6" s="54">
         <v>2.095849</v>
@@ -16747,13 +16747,13 @@
         <v>0.148021</v>
       </c>
       <c r="L6" s="54">
-        <v>1.231238</v>
+        <v>1.088325</v>
       </c>
       <c r="M6" s="54">
         <v>0.00414</v>
       </c>
       <c r="N6" s="54">
-        <v>1.26099</v>
+        <v>1.410868</v>
       </c>
       <c r="O6" s="54">
         <v>2.095849</v>
@@ -16771,7 +16771,7 @@
         <v>0.146841</v>
       </c>
       <c r="T6" s="64">
-        <v>1.231238</v>
+        <v>1.088325</v>
       </c>
     </row>
     <row r="7" s="8" customFormat="1" spans="1:20">
@@ -16783,7 +16783,7 @@
         <v>0.003135</v>
       </c>
       <c r="D7" s="54">
-        <v>0.785311</v>
+        <v>0.876388</v>
       </c>
       <c r="E7" s="54">
         <v>1.79714</v>
@@ -16807,13 +16807,13 @@
         <v>0.06635</v>
       </c>
       <c r="L7" s="54">
-        <v>0.762784</v>
+        <v>0.676034</v>
       </c>
       <c r="M7" s="54">
         <v>0.003135</v>
       </c>
       <c r="N7" s="54">
-        <v>0.785311</v>
+        <v>0.876388</v>
       </c>
       <c r="O7" s="54">
         <v>1.79714</v>
@@ -16831,7 +16831,7 @@
         <v>0.065456</v>
       </c>
       <c r="T7" s="64">
-        <v>0.762784</v>
+        <v>0.676034</v>
       </c>
     </row>
     <row r="8" s="8" customFormat="1" spans="1:20">
@@ -16843,7 +16843,7 @@
         <v>0.004368</v>
       </c>
       <c r="D8" s="54">
-        <v>0.934626</v>
+        <v>1.040426</v>
       </c>
       <c r="E8" s="54">
         <v>2.277308</v>
@@ -16867,13 +16867,13 @@
         <v>0.138648</v>
       </c>
       <c r="L8" s="54">
-        <v>0.903235</v>
+        <v>0.802571</v>
       </c>
       <c r="M8" s="54">
         <v>0.004368</v>
       </c>
       <c r="N8" s="54">
-        <v>0.934626</v>
+        <v>1.040426</v>
       </c>
       <c r="O8" s="54">
         <v>2.277308</v>
@@ -16891,7 +16891,7 @@
         <v>0.137403</v>
       </c>
       <c r="T8" s="64">
-        <v>0.903235</v>
+        <v>0.802571</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:20">
@@ -16905,7 +16905,7 @@
         <v>0.00414</v>
       </c>
       <c r="D10" s="54">
-        <v>1.26099</v>
+        <v>1.410868</v>
       </c>
       <c r="E10" s="54">
         <v>2.095849</v>
@@ -16929,13 +16929,13 @@
         <v>0.148021</v>
       </c>
       <c r="L10" s="54">
-        <v>1.231238</v>
+        <v>1.088325</v>
       </c>
       <c r="M10" s="54">
         <v>0.00414</v>
       </c>
       <c r="N10" s="54">
-        <v>1.26099</v>
+        <v>1.410868</v>
       </c>
       <c r="O10" s="54">
         <v>2.095849</v>
@@ -16953,7 +16953,7 @@
         <v>0.146841</v>
       </c>
       <c r="T10" s="64">
-        <v>1.231238</v>
+        <v>1.088325</v>
       </c>
     </row>
     <row r="11" s="8" customFormat="1" spans="1:20">
@@ -16965,7 +16965,7 @@
         <v>0.003135</v>
       </c>
       <c r="D11" s="54">
-        <v>0.785311</v>
+        <v>0.876388</v>
       </c>
       <c r="E11" s="54">
         <v>1.79714</v>
@@ -16989,13 +16989,13 @@
         <v>0.06635</v>
       </c>
       <c r="L11" s="54">
-        <v>0.762784</v>
+        <v>0.676034</v>
       </c>
       <c r="M11" s="54">
         <v>0.003135</v>
       </c>
       <c r="N11" s="54">
-        <v>0.785311</v>
+        <v>0.876388</v>
       </c>
       <c r="O11" s="54">
         <v>1.79714</v>
@@ -17013,7 +17013,7 @@
         <v>0.065456</v>
       </c>
       <c r="T11" s="64">
-        <v>0.762784</v>
+        <v>0.676034</v>
       </c>
     </row>
     <row r="12" s="8" customFormat="1" spans="1:20">
@@ -17025,7 +17025,7 @@
         <v>0.004368</v>
       </c>
       <c r="D12" s="54">
-        <v>0.934626</v>
+        <v>1.040426</v>
       </c>
       <c r="E12" s="54">
         <v>2.277308</v>
@@ -17049,13 +17049,13 @@
         <v>0.138648</v>
       </c>
       <c r="L12" s="54">
-        <v>0.903235</v>
+        <v>0.802571</v>
       </c>
       <c r="M12" s="54">
         <v>0.004368</v>
       </c>
       <c r="N12" s="54">
-        <v>0.934626</v>
+        <v>1.040426</v>
       </c>
       <c r="O12" s="54">
         <v>2.277308</v>
@@ -17073,7 +17073,7 @@
         <v>0.137403</v>
       </c>
       <c r="T12" s="64">
-        <v>0.903235</v>
+        <v>0.802571</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -17090,7 +17090,7 @@
       </c>
       <c r="C16" s="5">
         <f>SUM(C2:T2)</f>
-        <v>65.935654</v>
+        <v>65.949584</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -17099,7 +17099,7 @@
       </c>
       <c r="C17" s="5">
         <f>SUM(C3:T3)</f>
-        <v>44.167361</v>
+        <v>44.176015</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -17108,7 +17108,7 @@
       </c>
       <c r="C18" s="5">
         <f>SUM(C4:T4)</f>
-        <v>71.979378</v>
+        <v>71.98965</v>
       </c>
     </row>
     <row r="19" spans="3:3">
@@ -17131,7 +17131,7 @@
       </c>
       <c r="C22" s="5">
         <f>SUM(C6:T6)</f>
-        <v>92.359304</v>
+        <v>92.373234</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -17140,7 +17140,7 @@
       </c>
       <c r="C23" s="5">
         <f>SUM(C7:T7)</f>
-        <v>60.792325</v>
+        <v>60.800979</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -17149,7 +17149,7 @@
       </c>
       <c r="C24" s="5">
         <f>SUM(C8:T8)</f>
-        <v>101.50441</v>
+        <v>101.514682</v>
       </c>
     </row>
     <row r="25" spans="3:3">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="C28" s="5">
         <f>SUM(C10:T10)</f>
-        <v>118.782954</v>
+        <v>118.796884</v>
       </c>
     </row>
     <row r="29" spans="2:3">
@@ -17181,7 +17181,7 @@
       </c>
       <c r="C29" s="5">
         <f>SUM(C11:T11)</f>
-        <v>77.417288</v>
+        <v>77.425942</v>
       </c>
     </row>
     <row r="30" spans="2:3">
@@ -17190,7 +17190,7 @@
       </c>
       <c r="C30" s="5">
         <f>SUM(C12:T12)</f>
-        <v>131.029442</v>
+        <v>131.039714</v>
       </c>
     </row>
     <row r="31" spans="3:3">
@@ -17242,15 +17242,15 @@
       </c>
       <c r="U42" s="54">
         <f>D2</f>
-        <v>1.26099</v>
+        <v>1.410868</v>
       </c>
       <c r="V42" s="54">
         <f>D3</f>
-        <v>0.785311</v>
+        <v>0.876388</v>
       </c>
       <c r="W42" s="60">
         <f>D4</f>
-        <v>0.934626</v>
+        <v>1.040426</v>
       </c>
     </row>
     <row r="43" spans="20:23">
@@ -17412,15 +17412,15 @@
       </c>
       <c r="U52" s="54">
         <f>L2</f>
-        <v>1.231238</v>
+        <v>1.088325</v>
       </c>
       <c r="V52" s="54">
         <f>L3</f>
-        <v>0.762784</v>
+        <v>0.676034</v>
       </c>
       <c r="W52" s="60">
         <f>L4</f>
-        <v>0.903235</v>
+        <v>0.802571</v>
       </c>
     </row>
     <row r="53" spans="20:23">
@@ -17446,15 +17446,15 @@
       </c>
       <c r="U54" s="54">
         <f>N2</f>
-        <v>1.26099</v>
+        <v>1.410868</v>
       </c>
       <c r="V54" s="54">
         <f>N3</f>
-        <v>0.785311</v>
+        <v>0.876388</v>
       </c>
       <c r="W54" s="60">
         <f>N4</f>
-        <v>0.934626</v>
+        <v>1.040426</v>
       </c>
     </row>
     <row r="55" spans="20:23">
@@ -17548,15 +17548,15 @@
       </c>
       <c r="U60" s="46">
         <f>T2</f>
-        <v>1.231238</v>
+        <v>1.088325</v>
       </c>
       <c r="V60" s="46">
         <f>T3</f>
-        <v>0.762784</v>
+        <v>0.676034</v>
       </c>
       <c r="W60" s="63">
         <f>T4</f>
-        <v>0.903235</v>
+        <v>0.802571</v>
       </c>
     </row>
   </sheetData>
@@ -17577,8 +17577,8 @@
   <sheetPr/>
   <dimension ref="A1:AA60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="27" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView tabSelected="1" zoomScalePageLayoutView="27" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -17676,7 +17676,7 @@
         <v>0.00414</v>
       </c>
       <c r="D2" s="54">
-        <v>2.507104</v>
+        <v>2.655278</v>
       </c>
       <c r="E2" s="54">
         <v>2.819013</v>
@@ -17700,13 +17700,13 @@
         <v>0.073526</v>
       </c>
       <c r="L2" s="54">
-        <v>2.477353</v>
+        <v>2.33266</v>
       </c>
       <c r="M2" s="54">
         <v>0.00414</v>
       </c>
       <c r="N2" s="54">
-        <v>2.507104</v>
+        <v>2.655278</v>
       </c>
       <c r="O2" s="54">
         <v>2.819013</v>
@@ -17724,7 +17724,7 @@
         <v>0.079146</v>
       </c>
       <c r="T2" s="54">
-        <v>2.477353</v>
+        <v>2.33266</v>
       </c>
     </row>
     <row r="3" s="8" customFormat="1" spans="1:20">
@@ -17736,7 +17736,7 @@
         <v>0.003135</v>
       </c>
       <c r="D3" s="54">
-        <v>1.559359</v>
+        <v>1.649377</v>
       </c>
       <c r="E3" s="54">
         <v>2.55495</v>
@@ -17760,13 +17760,13 @@
         <v>0.476162</v>
       </c>
       <c r="L3" s="54">
-        <v>1.536832</v>
+        <v>1.448976</v>
       </c>
       <c r="M3" s="54">
         <v>0.003135</v>
       </c>
       <c r="N3" s="54">
-        <v>1.559359</v>
+        <v>1.649377</v>
       </c>
       <c r="O3" s="54">
         <v>2.55495</v>
@@ -17784,7 +17784,7 @@
         <v>0.480418</v>
       </c>
       <c r="T3" s="54">
-        <v>1.536832</v>
+        <v>1.448976</v>
       </c>
     </row>
     <row r="4" s="8" customFormat="1" spans="1:20">
@@ -17796,7 +17796,7 @@
         <v>0.004368</v>
       </c>
       <c r="D4" s="54">
-        <v>1.853556</v>
+        <v>1.958099</v>
       </c>
       <c r="E4" s="54">
         <v>3.106308</v>
@@ -17820,13 +17820,13 @@
         <v>0.209495</v>
       </c>
       <c r="L4" s="54">
-        <v>1.822165</v>
+        <v>1.720189</v>
       </c>
       <c r="M4" s="54">
         <v>0.004368</v>
       </c>
       <c r="N4" s="54">
-        <v>1.853556</v>
+        <v>1.958099</v>
       </c>
       <c r="O4" s="54">
         <v>3.106308</v>
@@ -17844,7 +17844,7 @@
         <v>0.215425</v>
       </c>
       <c r="T4" s="54">
-        <v>1.822165</v>
+        <v>1.720189</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="2:20">
@@ -17879,7 +17879,7 @@
         <v>0.00414</v>
       </c>
       <c r="D6" s="54">
-        <v>2.507104</v>
+        <v>2.655278</v>
       </c>
       <c r="E6" s="54">
         <v>2.819013</v>
@@ -17903,13 +17903,13 @@
         <v>0.073526</v>
       </c>
       <c r="L6" s="54">
-        <v>2.477353</v>
+        <v>2.33266</v>
       </c>
       <c r="M6" s="54">
         <v>0.00414</v>
       </c>
       <c r="N6" s="54">
-        <v>2.507104</v>
+        <v>2.655278</v>
       </c>
       <c r="O6" s="54">
         <v>2.819013</v>
@@ -17927,7 +17927,7 @@
         <v>0.079146</v>
       </c>
       <c r="T6" s="54">
-        <v>2.477353</v>
+        <v>2.33266</v>
       </c>
     </row>
     <row r="7" s="8" customFormat="1" spans="1:20">
@@ -17939,7 +17939,7 @@
         <v>0.003135</v>
       </c>
       <c r="D7" s="54">
-        <v>1.559359</v>
+        <v>1.649377</v>
       </c>
       <c r="E7" s="54">
         <v>2.55495</v>
@@ -17963,13 +17963,13 @@
         <v>0.476162</v>
       </c>
       <c r="L7" s="54">
-        <v>1.536832</v>
+        <v>1.448976</v>
       </c>
       <c r="M7" s="54">
         <v>0.003135</v>
       </c>
       <c r="N7" s="54">
-        <v>1.559359</v>
+        <v>1.649377</v>
       </c>
       <c r="O7" s="54">
         <v>2.55495</v>
@@ -17987,7 +17987,7 @@
         <v>0.480418</v>
       </c>
       <c r="T7" s="54">
-        <v>1.536832</v>
+        <v>1.448976</v>
       </c>
     </row>
     <row r="8" s="8" customFormat="1" spans="1:20">
@@ -17999,7 +17999,7 @@
         <v>0.004368</v>
       </c>
       <c r="D8" s="54">
-        <v>1.853556</v>
+        <v>1.958099</v>
       </c>
       <c r="E8" s="54">
         <v>3.106308</v>
@@ -18023,13 +18023,13 @@
         <v>0.209495</v>
       </c>
       <c r="L8" s="54">
-        <v>1.822165</v>
+        <v>1.720189</v>
       </c>
       <c r="M8" s="54">
         <v>0.004368</v>
       </c>
       <c r="N8" s="54">
-        <v>1.853556</v>
+        <v>1.958099</v>
       </c>
       <c r="O8" s="54">
         <v>3.106308</v>
@@ -18047,7 +18047,7 @@
         <v>0.215425</v>
       </c>
       <c r="T8" s="54">
-        <v>1.822165</v>
+        <v>1.720189</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:20">
@@ -18061,7 +18061,7 @@
         <v>0.00414</v>
       </c>
       <c r="D10" s="54">
-        <v>2.507104</v>
+        <v>2.655278</v>
       </c>
       <c r="E10" s="54">
         <v>2.819013</v>
@@ -18085,13 +18085,13 @@
         <v>0.073526</v>
       </c>
       <c r="L10" s="54">
-        <v>2.477353</v>
+        <v>2.33266</v>
       </c>
       <c r="M10" s="54">
         <v>0.00414</v>
       </c>
       <c r="N10" s="54">
-        <v>2.507104</v>
+        <v>2.655278</v>
       </c>
       <c r="O10" s="54">
         <v>2.819013</v>
@@ -18109,7 +18109,7 @@
         <v>0.079146</v>
       </c>
       <c r="T10" s="54">
-        <v>2.477353</v>
+        <v>2.33266</v>
       </c>
     </row>
     <row r="11" s="8" customFormat="1" spans="1:20">
@@ -18121,7 +18121,7 @@
         <v>0.003135</v>
       </c>
       <c r="D11" s="54">
-        <v>1.559359</v>
+        <v>1.649377</v>
       </c>
       <c r="E11" s="54">
         <v>2.55495</v>
@@ -18145,13 +18145,13 @@
         <v>0.476162</v>
       </c>
       <c r="L11" s="54">
-        <v>1.536832</v>
+        <v>1.448976</v>
       </c>
       <c r="M11" s="54">
         <v>0.003135</v>
       </c>
       <c r="N11" s="54">
-        <v>1.559359</v>
+        <v>1.649377</v>
       </c>
       <c r="O11" s="54">
         <v>2.55495</v>
@@ -18169,7 +18169,7 @@
         <v>0.480418</v>
       </c>
       <c r="T11" s="54">
-        <v>1.536832</v>
+        <v>1.448976</v>
       </c>
     </row>
     <row r="12" s="8" customFormat="1" spans="1:20">
@@ -18181,7 +18181,7 @@
         <v>0.004368</v>
       </c>
       <c r="D12" s="54">
-        <v>1.853556</v>
+        <v>1.958099</v>
       </c>
       <c r="E12" s="54">
         <v>3.106308</v>
@@ -18205,13 +18205,13 @@
         <v>0.209495</v>
       </c>
       <c r="L12" s="54">
-        <v>1.822165</v>
+        <v>1.720189</v>
       </c>
       <c r="M12" s="54">
         <v>0.004368</v>
       </c>
       <c r="N12" s="54">
-        <v>1.853556</v>
+        <v>1.958099</v>
       </c>
       <c r="O12" s="54">
         <v>3.106308</v>
@@ -18229,7 +18229,7 @@
         <v>0.215425</v>
       </c>
       <c r="T12" s="54">
-        <v>1.822165</v>
+        <v>1.720189</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -18246,7 +18246,7 @@
       </c>
       <c r="C16" s="5">
         <f>SUM(C2:T2)</f>
-        <v>63.926575</v>
+        <v>63.933537</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -18255,7 +18255,7 @@
       </c>
       <c r="C17" s="5">
         <f>SUM(C3:T3)</f>
-        <v>46.043026</v>
+        <v>46.04735</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -18264,7 +18264,7 @@
       </c>
       <c r="C18" s="5">
         <f>SUM(C4:T4)</f>
-        <v>68.637352</v>
+        <v>68.642486</v>
       </c>
     </row>
     <row r="19" spans="3:3">
@@ -18287,7 +18287,7 @@
       </c>
       <c r="C22" s="5">
         <f t="shared" ref="C22:C24" si="0">SUM(C6:T6)</f>
-        <v>89.766551</v>
+        <v>89.773513</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -18296,7 +18296,7 @@
       </c>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
-        <v>62.583252</v>
+        <v>62.587576</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -18305,7 +18305,7 @@
       </c>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
-        <v>97.53787</v>
+        <v>97.543004</v>
       </c>
     </row>
     <row r="25" spans="3:3">
@@ -18328,7 +18328,7 @@
       </c>
       <c r="C28" s="5">
         <f t="shared" ref="C28:C30" si="1">SUM(C10:T10)</f>
-        <v>115.606528</v>
+        <v>115.61349</v>
       </c>
     </row>
     <row r="29" spans="2:3">
@@ -18337,7 +18337,7 @@
       </c>
       <c r="C29" s="5">
         <f t="shared" si="1"/>
-        <v>79.123477</v>
+        <v>79.127801</v>
       </c>
     </row>
     <row r="30" spans="2:3">
@@ -18346,7 +18346,7 @@
       </c>
       <c r="C30" s="5">
         <f t="shared" si="1"/>
-        <v>126.438388</v>
+        <v>126.443522</v>
       </c>
     </row>
     <row r="31" spans="3:3">
@@ -18401,15 +18401,15 @@
       </c>
       <c r="U42" s="54">
         <f>D2</f>
-        <v>2.507104</v>
+        <v>2.655278</v>
       </c>
       <c r="V42" s="54">
         <f>D3</f>
-        <v>1.559359</v>
+        <v>1.649377</v>
       </c>
       <c r="W42" s="60">
         <f>D4</f>
-        <v>1.853556</v>
+        <v>1.958099</v>
       </c>
       <c r="Y42" s="54"/>
       <c r="Z42" s="54"/>
@@ -18601,15 +18601,15 @@
       </c>
       <c r="U52" s="54">
         <f>L2</f>
-        <v>2.477353</v>
+        <v>2.33266</v>
       </c>
       <c r="V52" s="54">
         <f>L3</f>
-        <v>1.536832</v>
+        <v>1.448976</v>
       </c>
       <c r="W52" s="60">
         <f>L4</f>
-        <v>1.822165</v>
+        <v>1.720189</v>
       </c>
       <c r="Y52" s="54"/>
       <c r="Z52" s="54"/>
@@ -18641,15 +18641,15 @@
       </c>
       <c r="U54" s="54">
         <f>N2</f>
-        <v>2.507104</v>
+        <v>2.655278</v>
       </c>
       <c r="V54" s="54">
         <f>N3</f>
-        <v>1.559359</v>
+        <v>1.649377</v>
       </c>
       <c r="W54" s="60">
         <f>N4</f>
-        <v>1.853556</v>
+        <v>1.958099</v>
       </c>
       <c r="Y54" s="54"/>
       <c r="Z54" s="54"/>
@@ -18761,15 +18761,15 @@
       </c>
       <c r="U60" s="46">
         <f>T2</f>
-        <v>2.477353</v>
+        <v>2.33266</v>
       </c>
       <c r="V60" s="46">
         <f>T3</f>
-        <v>1.536832</v>
+        <v>1.448976</v>
       </c>
       <c r="W60" s="63">
         <f>T4</f>
-        <v>1.822165</v>
+        <v>1.720189</v>
       </c>
       <c r="Y60" s="54"/>
       <c r="Z60" s="54"/>
@@ -18794,7 +18794,7 @@
   <sheetPr/>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -18835,15 +18835,15 @@
       </c>
       <c r="C3" s="5">
         <f>'1500 ft'!C16</f>
-        <v>65.935654</v>
+        <v>65.949584</v>
       </c>
       <c r="D3" s="5">
         <f>'3000 ft'!C16</f>
-        <v>63.926575</v>
+        <v>63.933537</v>
       </c>
       <c r="E3" s="6">
         <f>1-D3/C3</f>
-        <v>0.0304702976025688</v>
+        <v>0.0305695180730785</v>
       </c>
       <c r="F3" s="7"/>
     </row>
@@ -18854,15 +18854,15 @@
       </c>
       <c r="C4" s="5">
         <f>'1500 ft'!C17</f>
-        <v>44.167361</v>
+        <v>44.176015</v>
       </c>
       <c r="D4" s="5">
         <f>'3000 ft'!C17</f>
-        <v>46.043026</v>
+        <v>46.04735</v>
       </c>
       <c r="E4" s="9">
         <f>1-D4/C4</f>
-        <v>-0.0424672191757165</v>
+        <v>-0.0423608829361364</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -18872,15 +18872,15 @@
       </c>
       <c r="C5" s="5">
         <f>'1500 ft'!C18</f>
-        <v>71.979378</v>
+        <v>71.98965</v>
       </c>
       <c r="D5" s="5">
         <f>'3000 ft'!C18</f>
-        <v>68.637352</v>
+        <v>68.642486</v>
       </c>
       <c r="E5" s="6">
         <f>1-D5/C5</f>
-        <v>0.0464303261970396</v>
+        <v>0.0464950725555692</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -18899,15 +18899,15 @@
       </c>
       <c r="C7" s="5">
         <f>'1500 ft'!C22</f>
-        <v>92.359304</v>
+        <v>92.373234</v>
       </c>
       <c r="D7" s="5">
         <f>'3000 ft'!C22</f>
-        <v>89.766551</v>
+        <v>89.773513</v>
       </c>
       <c r="E7" s="6">
         <f>1-D7/C7</f>
-        <v>0.0280724614382114</v>
+        <v>0.0281436611821992</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -18917,15 +18917,15 @@
       </c>
       <c r="C8" s="5">
         <f>'1500 ft'!C23</f>
-        <v>60.792325</v>
+        <v>60.800979</v>
       </c>
       <c r="D8" s="5">
         <f>'3000 ft'!C23</f>
-        <v>62.583252</v>
+        <v>62.587576</v>
       </c>
       <c r="E8" s="9">
         <f>1-D8/C8</f>
-        <v>-0.029459754993743</v>
+        <v>-0.0293843459329828</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -18935,15 +18935,15 @@
       </c>
       <c r="C9" s="5">
         <f>'1500 ft'!C24</f>
-        <v>101.50441</v>
+        <v>101.514682</v>
       </c>
       <c r="D9" s="5">
         <f>'3000 ft'!C24</f>
-        <v>97.53787</v>
+        <v>97.543004</v>
       </c>
       <c r="E9" s="6">
         <f>1-D9/C9</f>
-        <v>0.0390775139720529</v>
+        <v>0.0391241731910267</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -18962,15 +18962,15 @@
       </c>
       <c r="C11" s="5">
         <f>'1500 ft'!C28</f>
-        <v>118.782954</v>
+        <v>118.796884</v>
       </c>
       <c r="D11" s="5">
         <f>'3000 ft'!C28</f>
-        <v>115.606528</v>
+        <v>115.61349</v>
       </c>
       <c r="E11" s="6">
         <f>1-D11/C11</f>
-        <v>0.0267414295825648</v>
+        <v>0.0267969486472389</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -18980,15 +18980,15 @@
       </c>
       <c r="C12" s="5">
         <f>'1500 ft'!C29</f>
-        <v>77.417288</v>
+        <v>77.425942</v>
       </c>
       <c r="D12" s="5">
         <f>'3000 ft'!C29</f>
-        <v>79.123477</v>
+        <v>79.127801</v>
       </c>
       <c r="E12" s="9">
         <f>1-D12/C12</f>
-        <v>-0.0220388629475119</v>
+        <v>-0.0219804752262494</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -18998,15 +18998,15 @@
       </c>
       <c r="C13" s="5">
         <f>'1500 ft'!C30</f>
-        <v>131.029442</v>
+        <v>131.039714</v>
       </c>
       <c r="D13" s="5">
         <f>'3000 ft'!C30</f>
-        <v>126.438388</v>
+        <v>126.443522</v>
       </c>
       <c r="E13" s="6">
         <f>1-D13/C13</f>
-        <v>0.0350383389406482</v>
+        <v>0.0350748018268721</v>
       </c>
     </row>
     <row r="17" spans="2:11">
@@ -19120,34 +19120,34 @@
       </c>
       <c r="C21" s="27">
         <f>'1500 ft'!U42</f>
-        <v>1.26099</v>
+        <v>1.410868</v>
       </c>
       <c r="D21" s="28">
-        <v>2.507104</v>
+        <v>2.655278</v>
       </c>
       <c r="E21" s="29">
         <f t="shared" ref="E21:E39" si="2">1-C21/D21</f>
-        <v>0.497033230372573</v>
+        <v>0.468655259449293</v>
       </c>
       <c r="F21" s="27">
-        <v>0.785311</v>
+        <v>0.876388</v>
       </c>
       <c r="G21" s="28">
-        <v>1.559359</v>
+        <v>1.649377</v>
       </c>
       <c r="H21" s="29">
         <f t="shared" si="0"/>
-        <v>0.49638858017942</v>
+        <v>0.468655134635684</v>
       </c>
       <c r="I21" s="48">
-        <v>0.934626</v>
+        <v>1.040426</v>
       </c>
       <c r="J21" s="49">
-        <v>1.853556</v>
+        <v>1.958099</v>
       </c>
       <c r="K21" s="29">
         <f t="shared" si="1"/>
-        <v>0.495765976317953</v>
+        <v>0.468655057788191</v>
       </c>
     </row>
     <row r="22" spans="2:11">
@@ -19480,34 +19480,34 @@
       </c>
       <c r="C31" s="27">
         <f>'1500 ft'!U52</f>
-        <v>1.231238</v>
+        <v>1.088325</v>
       </c>
       <c r="D31" s="28">
-        <v>2.477353</v>
+        <v>2.33266</v>
       </c>
       <c r="E31" s="29">
         <f t="shared" si="2"/>
-        <v>0.503002599952449</v>
+        <v>0.533440364219389</v>
       </c>
       <c r="F31" s="27">
-        <v>0.762784</v>
+        <v>0.676034</v>
       </c>
       <c r="G31" s="28">
-        <v>1.536832</v>
+        <v>1.448976</v>
       </c>
       <c r="H31" s="29">
         <f t="shared" si="0"/>
-        <v>0.503664681630783</v>
+        <v>0.533440167400978</v>
       </c>
       <c r="I31" s="48">
-        <v>0.903235</v>
+        <v>0.802571</v>
       </c>
       <c r="J31" s="49">
-        <v>1.822165</v>
+        <v>1.720189</v>
       </c>
       <c r="K31" s="29">
         <f t="shared" si="1"/>
-        <v>0.504306690118623</v>
+        <v>0.533440220812946</v>
       </c>
     </row>
     <row r="32" spans="2:11">
@@ -19552,34 +19552,34 @@
       </c>
       <c r="C33" s="27">
         <f>'1500 ft'!U54</f>
-        <v>1.26099</v>
+        <v>1.410868</v>
       </c>
       <c r="D33" s="28">
-        <v>2.507104</v>
+        <v>2.655278</v>
       </c>
       <c r="E33" s="29">
         <f t="shared" si="2"/>
-        <v>0.497033230372573</v>
+        <v>0.468655259449293</v>
       </c>
       <c r="F33" s="27">
-        <v>0.785311</v>
+        <v>0.876388</v>
       </c>
       <c r="G33" s="28">
-        <v>1.559359</v>
+        <v>1.649377</v>
       </c>
       <c r="H33" s="29">
         <f t="shared" si="0"/>
-        <v>0.49638858017942</v>
+        <v>0.468655134635684</v>
       </c>
       <c r="I33" s="48">
-        <v>0.934626</v>
+        <v>1.040426</v>
       </c>
       <c r="J33" s="49">
-        <v>1.853556</v>
+        <v>1.958099</v>
       </c>
       <c r="K33" s="29">
         <f t="shared" si="1"/>
-        <v>0.495765976317953</v>
+        <v>0.468655057788191</v>
       </c>
     </row>
     <row r="34" spans="2:11">
@@ -19768,34 +19768,34 @@
       </c>
       <c r="C39" s="20">
         <f>'1500 ft'!U60</f>
-        <v>1.231238</v>
+        <v>1.088325</v>
       </c>
       <c r="D39" s="21">
-        <v>2.477353</v>
+        <v>2.33266</v>
       </c>
       <c r="E39" s="44">
         <f t="shared" si="2"/>
-        <v>0.503002599952449</v>
+        <v>0.533440364219389</v>
       </c>
       <c r="F39" s="20">
-        <v>0.762784</v>
+        <v>0.676034</v>
       </c>
       <c r="G39" s="21">
-        <v>1.536832</v>
+        <v>1.448976</v>
       </c>
       <c r="H39" s="44">
         <f t="shared" si="0"/>
-        <v>0.503664681630783</v>
+        <v>0.533440167400978</v>
       </c>
       <c r="I39" s="46">
-        <v>0.903235</v>
+        <v>0.802571</v>
       </c>
       <c r="J39" s="21">
-        <v>1.822165</v>
+        <v>1.720189</v>
       </c>
       <c r="K39" s="44">
         <f t="shared" si="1"/>
-        <v>0.504306690118623</v>
+        <v>0.533440220812946</v>
       </c>
     </row>
   </sheetData>
